--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>PDD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1882500</v>
+        <v>4218700</v>
       </c>
       <c r="E8" s="3">
-        <v>250200</v>
+        <v>1836300</v>
       </c>
       <c r="F8" s="3">
-        <v>72400</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>244100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>70700</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>416800</v>
+        <v>887200</v>
       </c>
       <c r="E9" s="3">
-        <v>103700</v>
+        <v>406600</v>
       </c>
       <c r="F9" s="3">
-        <v>82900</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>101200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>80900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1465600</v>
+        <v>3331500</v>
       </c>
       <c r="E10" s="3">
-        <v>146500</v>
+        <v>1429700</v>
       </c>
       <c r="F10" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>142900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-10200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>159700</v>
+        <v>540300</v>
       </c>
       <c r="E12" s="3">
-        <v>18400</v>
+        <v>155800</v>
       </c>
       <c r="F12" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>17900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -902,24 +921,27 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3432000</v>
+        <v>5413700</v>
       </c>
       <c r="E17" s="3">
-        <v>335700</v>
+        <v>3347800</v>
       </c>
       <c r="F17" s="3">
-        <v>113500</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>327500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>110700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1549500</v>
+        <v>-1195000</v>
       </c>
       <c r="E18" s="3">
-        <v>-85500</v>
+        <v>-1511500</v>
       </c>
       <c r="F18" s="3">
-        <v>-41100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-83400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-40100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,23 +1050,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>83600</v>
+        <v>240200</v>
       </c>
       <c r="E20" s="3">
-        <v>10100</v>
+        <v>81500</v>
       </c>
       <c r="F20" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1394700</v>
+        <v>-865800</v>
       </c>
       <c r="E21" s="3">
-        <v>-75000</v>
+        <v>-1360700</v>
       </c>
       <c r="F21" s="3">
-        <v>-41800</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-73200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-40800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,53 +1113,59 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>20400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1466000</v>
+        <v>-975200</v>
       </c>
       <c r="E23" s="3">
-        <v>-75300</v>
+        <v>-1430000</v>
       </c>
       <c r="F23" s="3">
-        <v>-41900</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-73500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-40900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,9 +1179,12 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1466000</v>
+        <v>-975200</v>
       </c>
       <c r="E26" s="3">
-        <v>-75300</v>
+        <v>-1430000</v>
       </c>
       <c r="F26" s="3">
-        <v>-41900</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-73500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-40900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1477500</v>
+        <v>-975200</v>
       </c>
       <c r="E27" s="3">
-        <v>-71600</v>
+        <v>-1441300</v>
       </c>
       <c r="F27" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-69800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-45100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,24 +1443,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-83600</v>
+        <v>-240200</v>
       </c>
       <c r="E32" s="3">
-        <v>-10100</v>
+        <v>-81500</v>
       </c>
       <c r="F32" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1477500</v>
+        <v>-975200</v>
       </c>
       <c r="E33" s="3">
-        <v>-71600</v>
+        <v>-1441300</v>
       </c>
       <c r="F33" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-69800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-45100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1477500</v>
+        <v>-975200</v>
       </c>
       <c r="E35" s="3">
-        <v>-71600</v>
+        <v>-1441300</v>
       </c>
       <c r="F35" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-69800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-45100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2031700</v>
+        <v>808500</v>
       </c>
       <c r="E41" s="3">
-        <v>438800</v>
+        <v>1984700</v>
       </c>
       <c r="F41" s="3">
-        <v>189400</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>428600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>185000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1094900</v>
+        <v>4946100</v>
       </c>
       <c r="E42" s="3">
-        <v>7200</v>
+        <v>1069500</v>
       </c>
       <c r="F42" s="3">
-        <v>41600</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="G42" s="3">
+        <v>40600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>210300</v>
+        <v>513700</v>
       </c>
       <c r="E43" s="3">
-        <v>85100</v>
+        <v>205400</v>
       </c>
       <c r="F43" s="3">
-        <v>16100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>83200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>15800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2458400</v>
+        <v>3963600</v>
       </c>
       <c r="E45" s="3">
-        <v>1353900</v>
+        <v>2401500</v>
       </c>
       <c r="F45" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>1322600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5795300</v>
+        <v>10231900</v>
       </c>
       <c r="E46" s="3">
-        <v>1885000</v>
+        <v>5661200</v>
       </c>
       <c r="F46" s="3">
-        <v>251600</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>1841400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>245800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,23 +1841,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>23500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1770,24 +1874,27 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4200</v>
+        <v>78300</v>
       </c>
       <c r="E48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,17 +1907,20 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>370100</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>279500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>361500</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1827,12 +1937,15 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,17 +2006,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26200</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>70500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>25600</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1917,12 +2036,15 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6195800</v>
+        <v>10660200</v>
       </c>
       <c r="E54" s="3">
-        <v>1910400</v>
+        <v>6052400</v>
       </c>
       <c r="F54" s="3">
-        <v>254100</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>1866200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>248200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2478800</v>
+        <v>4194500</v>
       </c>
       <c r="E57" s="3">
-        <v>1411600</v>
+        <v>2421400</v>
       </c>
       <c r="F57" s="3">
-        <v>161900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>1379000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>158200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,53 +2168,59 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>126000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1016300</v>
+        <v>2094400</v>
       </c>
       <c r="E59" s="3">
-        <v>325800</v>
+        <v>992800</v>
       </c>
       <c r="F59" s="3">
-        <v>41000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>318300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>40000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3495100</v>
+        <v>6414800</v>
       </c>
       <c r="E60" s="3">
-        <v>1737500</v>
+        <v>3414200</v>
       </c>
       <c r="F60" s="3">
-        <v>202900</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>1697300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>198200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,14 +2267,17 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>729800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2158,39 +2300,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>61100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3495100</v>
+        <v>7205700</v>
       </c>
       <c r="E66" s="3">
-        <v>1737500</v>
+        <v>3414200</v>
       </c>
       <c r="F66" s="3">
-        <v>202900</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>1697300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>198200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>315200</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>112300</v>
+        <v>307900</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>109700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1625300</v>
+        <v>-2564300</v>
       </c>
       <c r="E72" s="3">
-        <v>-147800</v>
+        <v>-1587700</v>
       </c>
       <c r="F72" s="3">
-        <v>-67800</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-144400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-66200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2700700</v>
+        <v>3454500</v>
       </c>
       <c r="E76" s="3">
-        <v>-142300</v>
+        <v>2638200</v>
       </c>
       <c r="F76" s="3">
-        <v>-61200</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-139000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-59700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1477500</v>
+        <v>-975200</v>
       </c>
       <c r="E81" s="3">
-        <v>-71600</v>
+        <v>-1441300</v>
       </c>
       <c r="F81" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-69800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-45100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,23 +2899,24 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>71300</v>
+        <v>89300</v>
       </c>
       <c r="E83" s="3">
+        <v>69600</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1114500</v>
+        <v>2074300</v>
       </c>
       <c r="E89" s="3">
-        <v>1389800</v>
+        <v>1087200</v>
       </c>
       <c r="F89" s="3">
-        <v>126200</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>1355700</v>
+      </c>
+      <c r="G89" s="3">
+        <v>123100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,23 +3145,24 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1300</v>
+        <v>-3800</v>
       </c>
       <c r="F91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1083100</v>
+        <v>-3963600</v>
       </c>
       <c r="E94" s="3">
-        <v>10300</v>
+        <v>-1056500</v>
       </c>
       <c r="F94" s="3">
-        <v>-44100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-43000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3072,11 +3305,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2488600</v>
+        <v>2219000</v>
       </c>
       <c r="E100" s="3">
-        <v>200700</v>
+        <v>2427500</v>
       </c>
       <c r="F100" s="3">
-        <v>69800</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>195800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>68100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,24 +3454,27 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>78500</v>
+        <v>63000</v>
       </c>
       <c r="E101" s="3">
-        <v>-6800</v>
+        <v>76500</v>
       </c>
       <c r="F101" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G101" s="3">
         <v>2900</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2598500</v>
+        <v>392800</v>
       </c>
       <c r="E102" s="3">
-        <v>1593900</v>
+        <v>2534800</v>
       </c>
       <c r="F102" s="3">
-        <v>154900</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>1554800</v>
+      </c>
+      <c r="G102" s="3">
+        <v>151100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>4218700</v>
+        <v>4377500</v>
       </c>
       <c r="E8" s="3">
-        <v>1836300</v>
+        <v>1905400</v>
       </c>
       <c r="F8" s="3">
-        <v>244100</v>
+        <v>253300</v>
       </c>
       <c r="G8" s="3">
-        <v>70700</v>
+        <v>73300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>887200</v>
+        <v>920600</v>
       </c>
       <c r="E9" s="3">
-        <v>406600</v>
+        <v>421900</v>
       </c>
       <c r="F9" s="3">
-        <v>101200</v>
+        <v>105000</v>
       </c>
       <c r="G9" s="3">
-        <v>80900</v>
+        <v>83900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3331500</v>
+        <v>3456900</v>
       </c>
       <c r="E10" s="3">
-        <v>1429700</v>
+        <v>1483500</v>
       </c>
       <c r="F10" s="3">
-        <v>142900</v>
+        <v>148300</v>
       </c>
       <c r="G10" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>540300</v>
+        <v>560600</v>
       </c>
       <c r="E12" s="3">
-        <v>155800</v>
+        <v>161700</v>
       </c>
       <c r="F12" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="G12" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -931,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5413700</v>
+        <v>5617500</v>
       </c>
       <c r="E17" s="3">
-        <v>3347800</v>
+        <v>3473900</v>
       </c>
       <c r="F17" s="3">
-        <v>327500</v>
+        <v>339800</v>
       </c>
       <c r="G17" s="3">
-        <v>110700</v>
+        <v>114900</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1195000</v>
+        <v>-1240000</v>
       </c>
       <c r="E18" s="3">
-        <v>-1511500</v>
+        <v>-1568400</v>
       </c>
       <c r="F18" s="3">
-        <v>-83400</v>
+        <v>-86500</v>
       </c>
       <c r="G18" s="3">
-        <v>-40100</v>
+        <v>-41600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>240200</v>
+        <v>249300</v>
       </c>
       <c r="E20" s="3">
-        <v>81500</v>
+        <v>84600</v>
       </c>
       <c r="F20" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="G20" s="3">
         <v>-800</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-865800</v>
+        <v>-898400</v>
       </c>
       <c r="E21" s="3">
-        <v>-1360700</v>
+        <v>-1411900</v>
       </c>
       <c r="F21" s="3">
-        <v>-73200</v>
+        <v>-75900</v>
       </c>
       <c r="G21" s="3">
-        <v>-40800</v>
+        <v>-42300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-975200</v>
+        <v>-1011900</v>
       </c>
       <c r="E23" s="3">
-        <v>-1430000</v>
+        <v>-1483800</v>
       </c>
       <c r="F23" s="3">
-        <v>-73500</v>
+        <v>-76300</v>
       </c>
       <c r="G23" s="3">
-        <v>-40900</v>
+        <v>-42400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-975200</v>
+        <v>-1011900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1430000</v>
+        <v>-1483800</v>
       </c>
       <c r="F26" s="3">
-        <v>-73500</v>
+        <v>-76300</v>
       </c>
       <c r="G26" s="3">
-        <v>-40900</v>
+        <v>-42400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-975200</v>
+        <v>-1011900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1441300</v>
+        <v>-1495500</v>
       </c>
       <c r="F27" s="3">
-        <v>-69800</v>
+        <v>-72400</v>
       </c>
       <c r="G27" s="3">
-        <v>-45100</v>
+        <v>-46800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-240200</v>
+        <v>-249300</v>
       </c>
       <c r="E32" s="3">
-        <v>-81500</v>
+        <v>-84600</v>
       </c>
       <c r="F32" s="3">
-        <v>-9900</v>
+        <v>-10300</v>
       </c>
       <c r="G32" s="3">
         <v>800</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-975200</v>
+        <v>-1011900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1441300</v>
+        <v>-1495500</v>
       </c>
       <c r="F33" s="3">
-        <v>-69800</v>
+        <v>-72400</v>
       </c>
       <c r="G33" s="3">
-        <v>-45100</v>
+        <v>-46800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-975200</v>
+        <v>-1011900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1441300</v>
+        <v>-1495500</v>
       </c>
       <c r="F35" s="3">
-        <v>-69800</v>
+        <v>-72400</v>
       </c>
       <c r="G35" s="3">
-        <v>-45100</v>
+        <v>-46800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>808500</v>
+        <v>837700</v>
       </c>
       <c r="E41" s="3">
-        <v>1984700</v>
+        <v>2056500</v>
       </c>
       <c r="F41" s="3">
-        <v>428600</v>
+        <v>444100</v>
       </c>
       <c r="G41" s="3">
-        <v>185000</v>
+        <v>191700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4946100</v>
+        <v>5125000</v>
       </c>
       <c r="E42" s="3">
-        <v>1069500</v>
+        <v>1108200</v>
       </c>
       <c r="F42" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="G42" s="3">
-        <v>40600</v>
+        <v>42100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>513700</v>
+        <v>532300</v>
       </c>
       <c r="E43" s="3">
-        <v>205400</v>
+        <v>212900</v>
       </c>
       <c r="F43" s="3">
-        <v>83200</v>
+        <v>86200</v>
       </c>
       <c r="G43" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3963600</v>
+        <v>4107000</v>
       </c>
       <c r="E45" s="3">
-        <v>2401500</v>
+        <v>2488400</v>
       </c>
       <c r="F45" s="3">
-        <v>1322600</v>
+        <v>1370400</v>
       </c>
       <c r="G45" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10231900</v>
+        <v>10602000</v>
       </c>
       <c r="E46" s="3">
-        <v>5661200</v>
+        <v>5866000</v>
       </c>
       <c r="F46" s="3">
-        <v>1841400</v>
+        <v>1908000</v>
       </c>
       <c r="G46" s="3">
-        <v>245800</v>
+        <v>254700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>23500</v>
+        <v>24300</v>
       </c>
       <c r="G47" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1884,10 +1884,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>78300</v>
+        <v>81100</v>
       </c>
       <c r="E48" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F48" s="3">
         <v>1300</v>
@@ -1917,10 +1917,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>279500</v>
+        <v>289600</v>
       </c>
       <c r="E49" s="3">
-        <v>361500</v>
+        <v>374600</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2016,10 +2016,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70500</v>
+        <v>73100</v>
       </c>
       <c r="E52" s="3">
-        <v>25600</v>
+        <v>26500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10660200</v>
+        <v>11045800</v>
       </c>
       <c r="E54" s="3">
-        <v>6052400</v>
+        <v>6271300</v>
       </c>
       <c r="F54" s="3">
-        <v>1866200</v>
+        <v>1933700</v>
       </c>
       <c r="G54" s="3">
-        <v>248200</v>
+        <v>257200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4194500</v>
+        <v>4346200</v>
       </c>
       <c r="E57" s="3">
-        <v>2421400</v>
+        <v>2509000</v>
       </c>
       <c r="F57" s="3">
-        <v>1379000</v>
+        <v>1428800</v>
       </c>
       <c r="G57" s="3">
-        <v>158200</v>
+        <v>163900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,7 +2178,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>126000</v>
+        <v>130500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2094400</v>
+        <v>2170100</v>
       </c>
       <c r="E59" s="3">
-        <v>992800</v>
+        <v>1028700</v>
       </c>
       <c r="F59" s="3">
-        <v>318300</v>
+        <v>329800</v>
       </c>
       <c r="G59" s="3">
-        <v>40000</v>
+        <v>41500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6414800</v>
+        <v>6646900</v>
       </c>
       <c r="E60" s="3">
-        <v>3414200</v>
+        <v>3537700</v>
       </c>
       <c r="F60" s="3">
-        <v>1697300</v>
+        <v>1758700</v>
       </c>
       <c r="G60" s="3">
-        <v>198200</v>
+        <v>205400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,7 +2277,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>729800</v>
+        <v>756200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61100</v>
+        <v>63300</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7205700</v>
+        <v>7466300</v>
       </c>
       <c r="E66" s="3">
-        <v>3414200</v>
+        <v>3537700</v>
       </c>
       <c r="F66" s="3">
-        <v>1697300</v>
+        <v>1758700</v>
       </c>
       <c r="G66" s="3">
-        <v>198200</v>
+        <v>205400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>307900</v>
+        <v>319100</v>
       </c>
       <c r="G70" s="3">
-        <v>109700</v>
+        <v>113700</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2564300</v>
+        <v>-2657000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1587700</v>
+        <v>-1645100</v>
       </c>
       <c r="F72" s="3">
-        <v>-144400</v>
+        <v>-149600</v>
       </c>
       <c r="G72" s="3">
-        <v>-66200</v>
+        <v>-68600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3454500</v>
+        <v>3579500</v>
       </c>
       <c r="E76" s="3">
-        <v>2638200</v>
+        <v>2733600</v>
       </c>
       <c r="F76" s="3">
-        <v>-139000</v>
+        <v>-144100</v>
       </c>
       <c r="G76" s="3">
-        <v>-59700</v>
+        <v>-61900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-975200</v>
+        <v>-1011900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1441300</v>
+        <v>-1495500</v>
       </c>
       <c r="F81" s="3">
-        <v>-69800</v>
+        <v>-72400</v>
       </c>
       <c r="G81" s="3">
-        <v>-45100</v>
+        <v>-46800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,10 +2906,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>89300</v>
+        <v>92600</v>
       </c>
       <c r="E83" s="3">
-        <v>69600</v>
+        <v>72200</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2074300</v>
+        <v>2152500</v>
       </c>
       <c r="E89" s="3">
-        <v>1087200</v>
+        <v>1128100</v>
       </c>
       <c r="F89" s="3">
-        <v>1355700</v>
+        <v>1406700</v>
       </c>
       <c r="G89" s="3">
-        <v>123100</v>
+        <v>127800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,13 +3152,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3800</v>
+        <v>-4000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3800</v>
+        <v>-4000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3963600</v>
+        <v>-4112900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1056500</v>
+        <v>-1096300</v>
       </c>
       <c r="F94" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="G94" s="3">
-        <v>-43000</v>
+        <v>-44600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2219000</v>
+        <v>2302600</v>
       </c>
       <c r="E100" s="3">
-        <v>2427500</v>
+        <v>2518900</v>
       </c>
       <c r="F100" s="3">
-        <v>195800</v>
+        <v>203200</v>
       </c>
       <c r="G100" s="3">
-        <v>68100</v>
+        <v>70700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,16 +3464,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>63000</v>
+        <v>65400</v>
       </c>
       <c r="E101" s="3">
-        <v>76500</v>
+        <v>79400</v>
       </c>
       <c r="F101" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="G101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>392800</v>
+        <v>407500</v>
       </c>
       <c r="E102" s="3">
-        <v>2534800</v>
+        <v>2630200</v>
       </c>
       <c r="F102" s="3">
-        <v>1554800</v>
+        <v>1613400</v>
       </c>
       <c r="G102" s="3">
-        <v>151100</v>
+        <v>156800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>4377500</v>
+        <v>4585200</v>
       </c>
       <c r="E8" s="3">
-        <v>1905400</v>
+        <v>1995800</v>
       </c>
       <c r="F8" s="3">
-        <v>253300</v>
+        <v>265300</v>
       </c>
       <c r="G8" s="3">
-        <v>73300</v>
+        <v>76800</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>920600</v>
+        <v>964300</v>
       </c>
       <c r="E9" s="3">
-        <v>421900</v>
+        <v>441900</v>
       </c>
       <c r="F9" s="3">
-        <v>105000</v>
+        <v>110000</v>
       </c>
       <c r="G9" s="3">
-        <v>83900</v>
+        <v>87900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3456900</v>
+        <v>3620900</v>
       </c>
       <c r="E10" s="3">
-        <v>1483500</v>
+        <v>1553900</v>
       </c>
       <c r="F10" s="3">
-        <v>148300</v>
+        <v>155400</v>
       </c>
       <c r="G10" s="3">
-        <v>-10600</v>
+        <v>-11100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>560600</v>
+        <v>587200</v>
       </c>
       <c r="E12" s="3">
-        <v>161700</v>
+        <v>169400</v>
       </c>
       <c r="F12" s="3">
-        <v>18600</v>
+        <v>19500</v>
       </c>
       <c r="G12" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -931,13 +931,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E15" s="3">
         <v>700</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5617500</v>
+        <v>5884000</v>
       </c>
       <c r="E17" s="3">
-        <v>3473900</v>
+        <v>3638700</v>
       </c>
       <c r="F17" s="3">
-        <v>339800</v>
+        <v>355900</v>
       </c>
       <c r="G17" s="3">
-        <v>114900</v>
+        <v>120300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1240000</v>
+        <v>-1298800</v>
       </c>
       <c r="E18" s="3">
-        <v>-1568400</v>
+        <v>-1642900</v>
       </c>
       <c r="F18" s="3">
-        <v>-86500</v>
+        <v>-90600</v>
       </c>
       <c r="G18" s="3">
-        <v>-41600</v>
+        <v>-43500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>249300</v>
+        <v>261100</v>
       </c>
       <c r="E20" s="3">
-        <v>84600</v>
+        <v>88600</v>
       </c>
       <c r="F20" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="G20" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-898400</v>
+        <v>-940700</v>
       </c>
       <c r="E21" s="3">
-        <v>-1411900</v>
+        <v>-1478600</v>
       </c>
       <c r="F21" s="3">
-        <v>-75900</v>
+        <v>-79500</v>
       </c>
       <c r="G21" s="3">
-        <v>-42300</v>
+        <v>-44300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21200</v>
+        <v>22200</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1011900</v>
+        <v>-1059900</v>
       </c>
       <c r="E23" s="3">
-        <v>-1483800</v>
+        <v>-1554200</v>
       </c>
       <c r="F23" s="3">
-        <v>-76300</v>
+        <v>-79900</v>
       </c>
       <c r="G23" s="3">
-        <v>-42400</v>
+        <v>-44400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1011900</v>
+        <v>-1059900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1483800</v>
+        <v>-1554200</v>
       </c>
       <c r="F26" s="3">
-        <v>-76300</v>
+        <v>-79900</v>
       </c>
       <c r="G26" s="3">
-        <v>-42400</v>
+        <v>-44400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1011900</v>
+        <v>-1059900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1495500</v>
+        <v>-1566500</v>
       </c>
       <c r="F27" s="3">
-        <v>-72400</v>
+        <v>-75900</v>
       </c>
       <c r="G27" s="3">
-        <v>-46800</v>
+        <v>-49000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-249300</v>
+        <v>-261100</v>
       </c>
       <c r="E32" s="3">
-        <v>-84600</v>
+        <v>-88600</v>
       </c>
       <c r="F32" s="3">
-        <v>-10300</v>
+        <v>-10700</v>
       </c>
       <c r="G32" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1011900</v>
+        <v>-1059900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1495500</v>
+        <v>-1566500</v>
       </c>
       <c r="F33" s="3">
-        <v>-72400</v>
+        <v>-75900</v>
       </c>
       <c r="G33" s="3">
-        <v>-46800</v>
+        <v>-49000</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1011900</v>
+        <v>-1059900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1495500</v>
+        <v>-1566500</v>
       </c>
       <c r="F35" s="3">
-        <v>-72400</v>
+        <v>-75900</v>
       </c>
       <c r="G35" s="3">
-        <v>-46800</v>
+        <v>-49000</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>837700</v>
+        <v>877500</v>
       </c>
       <c r="E41" s="3">
-        <v>2056500</v>
+        <v>2154100</v>
       </c>
       <c r="F41" s="3">
-        <v>444100</v>
+        <v>465200</v>
       </c>
       <c r="G41" s="3">
-        <v>191700</v>
+        <v>200800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5125000</v>
+        <v>5368100</v>
       </c>
       <c r="E42" s="3">
-        <v>1108200</v>
+        <v>1160800</v>
       </c>
       <c r="F42" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="G42" s="3">
-        <v>42100</v>
+        <v>44100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>532300</v>
+        <v>557600</v>
       </c>
       <c r="E43" s="3">
-        <v>212900</v>
+        <v>223000</v>
       </c>
       <c r="F43" s="3">
-        <v>86200</v>
+        <v>90300</v>
       </c>
       <c r="G43" s="3">
-        <v>16300</v>
+        <v>17100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4107000</v>
+        <v>4301800</v>
       </c>
       <c r="E45" s="3">
-        <v>2488400</v>
+        <v>2606500</v>
       </c>
       <c r="F45" s="3">
-        <v>1370400</v>
+        <v>1435400</v>
       </c>
       <c r="G45" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10602000</v>
+        <v>11105000</v>
       </c>
       <c r="E46" s="3">
-        <v>5866000</v>
+        <v>6144300</v>
       </c>
       <c r="F46" s="3">
-        <v>1908000</v>
+        <v>1998500</v>
       </c>
       <c r="G46" s="3">
-        <v>254700</v>
+        <v>266700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>24300</v>
+        <v>25500</v>
       </c>
       <c r="G47" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1884,13 +1884,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>81100</v>
+        <v>85000</v>
       </c>
       <c r="E48" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="F48" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -1917,10 +1917,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>289600</v>
+        <v>303400</v>
       </c>
       <c r="E49" s="3">
-        <v>374600</v>
+        <v>392400</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -2016,10 +2016,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73100</v>
+        <v>76500</v>
       </c>
       <c r="E52" s="3">
-        <v>26500</v>
+        <v>27800</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11045800</v>
+        <v>11569800</v>
       </c>
       <c r="E54" s="3">
-        <v>6271300</v>
+        <v>6568900</v>
       </c>
       <c r="F54" s="3">
-        <v>1933700</v>
+        <v>2025400</v>
       </c>
       <c r="G54" s="3">
-        <v>257200</v>
+        <v>269400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4346200</v>
+        <v>4552400</v>
       </c>
       <c r="E57" s="3">
-        <v>2509000</v>
+        <v>2628000</v>
       </c>
       <c r="F57" s="3">
-        <v>1428800</v>
+        <v>1496600</v>
       </c>
       <c r="G57" s="3">
-        <v>163900</v>
+        <v>171700</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,7 +2178,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>130500</v>
+        <v>136700</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2170100</v>
+        <v>2273100</v>
       </c>
       <c r="E59" s="3">
-        <v>1028700</v>
+        <v>1077500</v>
       </c>
       <c r="F59" s="3">
-        <v>329800</v>
+        <v>345500</v>
       </c>
       <c r="G59" s="3">
-        <v>41500</v>
+        <v>43400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6646900</v>
+        <v>6962200</v>
       </c>
       <c r="E60" s="3">
-        <v>3537700</v>
+        <v>3705600</v>
       </c>
       <c r="F60" s="3">
-        <v>1758700</v>
+        <v>1842100</v>
       </c>
       <c r="G60" s="3">
-        <v>205400</v>
+        <v>215100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,7 +2277,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>756200</v>
+        <v>792000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63300</v>
+        <v>66300</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7466300</v>
+        <v>7820600</v>
       </c>
       <c r="E66" s="3">
-        <v>3537700</v>
+        <v>3705600</v>
       </c>
       <c r="F66" s="3">
-        <v>1758700</v>
+        <v>1842100</v>
       </c>
       <c r="G66" s="3">
-        <v>205400</v>
+        <v>215100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>319100</v>
+        <v>334200</v>
       </c>
       <c r="G70" s="3">
-        <v>113700</v>
+        <v>119100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2657000</v>
+        <v>-2783100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1645100</v>
+        <v>-1723200</v>
       </c>
       <c r="F72" s="3">
-        <v>-149600</v>
+        <v>-156700</v>
       </c>
       <c r="G72" s="3">
-        <v>-68600</v>
+        <v>-71900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3579500</v>
+        <v>3749300</v>
       </c>
       <c r="E76" s="3">
-        <v>2733600</v>
+        <v>2863300</v>
       </c>
       <c r="F76" s="3">
-        <v>-144100</v>
+        <v>-150900</v>
       </c>
       <c r="G76" s="3">
-        <v>-61900</v>
+        <v>-64900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1011900</v>
+        <v>-1059900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1495500</v>
+        <v>-1566500</v>
       </c>
       <c r="F81" s="3">
-        <v>-72400</v>
+        <v>-75900</v>
       </c>
       <c r="G81" s="3">
-        <v>-46800</v>
+        <v>-49000</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,10 +2906,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>92600</v>
+        <v>97000</v>
       </c>
       <c r="E83" s="3">
-        <v>72200</v>
+        <v>75600</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2152500</v>
+        <v>2254600</v>
       </c>
       <c r="E89" s="3">
-        <v>1128100</v>
+        <v>1181700</v>
       </c>
       <c r="F89" s="3">
-        <v>1406700</v>
+        <v>1473500</v>
       </c>
       <c r="G89" s="3">
-        <v>127800</v>
+        <v>133800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4112900</v>
+        <v>-4308000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1096300</v>
+        <v>-1148300</v>
       </c>
       <c r="F94" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="G94" s="3">
-        <v>-44600</v>
+        <v>-46700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2302600</v>
+        <v>2411800</v>
       </c>
       <c r="E100" s="3">
-        <v>2518900</v>
+        <v>2638400</v>
       </c>
       <c r="F100" s="3">
-        <v>203200</v>
+        <v>212800</v>
       </c>
       <c r="G100" s="3">
-        <v>70700</v>
+        <v>74000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3464,16 +3464,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>65400</v>
+        <v>68500</v>
       </c>
       <c r="E101" s="3">
-        <v>79400</v>
+        <v>83200</v>
       </c>
       <c r="F101" s="3">
-        <v>-6900</v>
+        <v>-7300</v>
       </c>
       <c r="G101" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>407500</v>
+        <v>426900</v>
       </c>
       <c r="E102" s="3">
-        <v>2630200</v>
+        <v>2755000</v>
       </c>
       <c r="F102" s="3">
-        <v>1613400</v>
+        <v>1689900</v>
       </c>
       <c r="G102" s="3">
-        <v>156800</v>
+        <v>164200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
   <si>
     <t>PDD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +711,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>4585200</v>
+        <v>9089200</v>
       </c>
       <c r="E8" s="3">
-        <v>1995800</v>
+        <v>4605100</v>
       </c>
       <c r="F8" s="3">
-        <v>265300</v>
+        <v>2004500</v>
       </c>
       <c r="G8" s="3">
-        <v>76800</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>266500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>77100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -744,26 +747,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>964300</v>
+        <v>2945400</v>
       </c>
       <c r="E9" s="3">
-        <v>441900</v>
+        <v>968400</v>
       </c>
       <c r="F9" s="3">
-        <v>110000</v>
+        <v>443900</v>
       </c>
       <c r="G9" s="3">
-        <v>87900</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>110400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>88300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -777,26 +783,29 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>3620900</v>
+        <v>6143800</v>
       </c>
       <c r="E10" s="3">
-        <v>1553900</v>
+        <v>3636600</v>
       </c>
       <c r="F10" s="3">
-        <v>155400</v>
+        <v>1560600</v>
       </c>
       <c r="G10" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>156000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-11200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,25 +838,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>587200</v>
+        <v>1052900</v>
       </c>
       <c r="E12" s="3">
-        <v>169400</v>
+        <v>589800</v>
       </c>
       <c r="F12" s="3">
-        <v>19500</v>
+        <v>170100</v>
       </c>
       <c r="G12" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>19600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4500</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,26 +907,29 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -924,27 +943,30 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>2200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5884000</v>
+        <v>10522300</v>
       </c>
       <c r="E17" s="3">
-        <v>3638700</v>
+        <v>5909500</v>
       </c>
       <c r="F17" s="3">
-        <v>355900</v>
+        <v>3654500</v>
       </c>
       <c r="G17" s="3">
-        <v>120300</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>357500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>120900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,26 +1028,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1298800</v>
+        <v>-1433100</v>
       </c>
       <c r="E18" s="3">
-        <v>-1642900</v>
+        <v>-1304500</v>
       </c>
       <c r="F18" s="3">
-        <v>-90600</v>
+        <v>-1650000</v>
       </c>
       <c r="G18" s="3">
-        <v>-43500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-91000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-43700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,26 +1083,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>261100</v>
+        <v>451900</v>
       </c>
       <c r="E20" s="3">
-        <v>88600</v>
+        <v>262200</v>
       </c>
       <c r="F20" s="3">
-        <v>10700</v>
+        <v>89000</v>
       </c>
       <c r="G20" s="3">
+        <v>10800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-940700</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-1478600</v>
+        <v>-944400</v>
       </c>
       <c r="F21" s="3">
-        <v>-79500</v>
+        <v>-1484800</v>
       </c>
       <c r="G21" s="3">
-        <v>-44300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-79900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-44500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,17 +1152,20 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>22200</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+        <v>115700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>22300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1143,32 +1182,35 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1059900</v>
+        <v>-1096900</v>
       </c>
       <c r="E23" s="3">
-        <v>-1554200</v>
+        <v>-1064500</v>
       </c>
       <c r="F23" s="3">
-        <v>-79900</v>
+        <v>-1561000</v>
       </c>
       <c r="G23" s="3">
-        <v>-44400</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-80200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-44600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,9 +1224,12 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1059900</v>
+        <v>-1096900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1554200</v>
+        <v>-1064500</v>
       </c>
       <c r="F26" s="3">
-        <v>-79900</v>
+        <v>-1561000</v>
       </c>
       <c r="G26" s="3">
-        <v>-44400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-80200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-44600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,26 +1332,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1059900</v>
+        <v>-1096900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1566500</v>
+        <v>-1064500</v>
       </c>
       <c r="F27" s="3">
-        <v>-75900</v>
+        <v>-1573300</v>
       </c>
       <c r="G27" s="3">
-        <v>-49000</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-76200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-49300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,27 +1512,30 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-261100</v>
+        <v>-451900</v>
       </c>
       <c r="E32" s="3">
-        <v>-88600</v>
+        <v>-262200</v>
       </c>
       <c r="F32" s="3">
-        <v>-10700</v>
+        <v>-89000</v>
       </c>
       <c r="G32" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1059900</v>
+        <v>-1096900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1566500</v>
+        <v>-1064500</v>
       </c>
       <c r="F33" s="3">
-        <v>-75900</v>
+        <v>-1573300</v>
       </c>
       <c r="G33" s="3">
-        <v>-49000</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-76200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-49300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1059900</v>
+        <v>-1096900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1566500</v>
+        <v>-1064500</v>
       </c>
       <c r="F35" s="3">
-        <v>-75900</v>
+        <v>-1573300</v>
       </c>
       <c r="G35" s="3">
-        <v>-49000</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-76200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-49300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>877500</v>
+        <v>3425500</v>
       </c>
       <c r="E41" s="3">
-        <v>2154100</v>
+        <v>881300</v>
       </c>
       <c r="F41" s="3">
-        <v>465200</v>
+        <v>2163400</v>
       </c>
       <c r="G41" s="3">
-        <v>200800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>467200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>201600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,26 +1765,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5368100</v>
+        <v>9862100</v>
       </c>
       <c r="E42" s="3">
-        <v>1160800</v>
+        <v>5391400</v>
       </c>
       <c r="F42" s="3">
+        <v>1165800</v>
+      </c>
+      <c r="G42" s="3">
         <v>7600</v>
       </c>
-      <c r="G42" s="3">
-        <v>44100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>44300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>557600</v>
+        <v>759300</v>
       </c>
       <c r="E43" s="3">
-        <v>223000</v>
+        <v>560000</v>
       </c>
       <c r="F43" s="3">
-        <v>90300</v>
+        <v>223900</v>
       </c>
       <c r="G43" s="3">
-        <v>17100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>90700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>17200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,26 +1873,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4301800</v>
+        <v>8797400</v>
       </c>
       <c r="E45" s="3">
-        <v>2606500</v>
+        <v>4320500</v>
       </c>
       <c r="F45" s="3">
-        <v>1435400</v>
+        <v>2617800</v>
       </c>
       <c r="G45" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>1441700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11105000</v>
+        <v>22844300</v>
       </c>
       <c r="E46" s="3">
-        <v>6144300</v>
+        <v>11153200</v>
       </c>
       <c r="F46" s="3">
-        <v>1998500</v>
+        <v>6170900</v>
       </c>
       <c r="G46" s="3">
-        <v>266700</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>2007200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>267900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,27 +1945,30 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
-        <v>25500</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>25600</v>
+      </c>
+      <c r="H47" s="3">
         <v>2300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,27 +1981,30 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>85000</v>
+        <v>127200</v>
       </c>
       <c r="E48" s="3">
+        <v>85300</v>
+      </c>
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1910,20 +2017,23 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>303400</v>
+        <v>195100</v>
       </c>
       <c r="E49" s="3">
-        <v>392400</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>304700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>394100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1940,12 +2050,15 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,20 +2125,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>76500</v>
+        <v>1111500</v>
       </c>
       <c r="E52" s="3">
-        <v>27800</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>76900</v>
+      </c>
+      <c r="F52" s="3">
+        <v>27900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2039,12 +2158,15 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11569800</v>
+        <v>24278100</v>
       </c>
       <c r="E54" s="3">
-        <v>6568900</v>
+        <v>11620000</v>
       </c>
       <c r="F54" s="3">
-        <v>2025400</v>
+        <v>6597400</v>
       </c>
       <c r="G54" s="3">
-        <v>269400</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>2034200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>270500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4552400</v>
+        <v>8224800</v>
       </c>
       <c r="E57" s="3">
-        <v>2628000</v>
+        <v>4572200</v>
       </c>
       <c r="F57" s="3">
-        <v>1496600</v>
+        <v>2639400</v>
       </c>
       <c r="G57" s="3">
-        <v>171700</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>1503100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>172400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,17 +2301,20 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>136700</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>285100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>137300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2198,32 +2331,35 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2273100</v>
+        <v>4305600</v>
       </c>
       <c r="E59" s="3">
-        <v>1077500</v>
+        <v>2282900</v>
       </c>
       <c r="F59" s="3">
-        <v>345500</v>
+        <v>1082200</v>
       </c>
       <c r="G59" s="3">
-        <v>43400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>347000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>43600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6962200</v>
+        <v>12815500</v>
       </c>
       <c r="E60" s="3">
-        <v>3705600</v>
+        <v>6992400</v>
       </c>
       <c r="F60" s="3">
-        <v>1842100</v>
+        <v>3721600</v>
       </c>
       <c r="G60" s="3">
-        <v>215100</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>1850100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>216100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,17 +2409,20 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>792000</v>
+        <v>2205000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>795500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2303,17 +2445,20 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>66300</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>63800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>66600</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2330,15 +2475,18 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7820600</v>
+        <v>15084400</v>
       </c>
       <c r="E66" s="3">
-        <v>3705600</v>
+        <v>7854500</v>
       </c>
       <c r="F66" s="3">
-        <v>1842100</v>
+        <v>3721600</v>
       </c>
       <c r="G66" s="3">
-        <v>215100</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>1850100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>216100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>334200</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>119100</v>
+        <v>335600</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>119600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2783100</v>
+        <v>-3892100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1723200</v>
+        <v>-2795200</v>
       </c>
       <c r="F72" s="3">
-        <v>-156700</v>
+        <v>-1730700</v>
       </c>
       <c r="G72" s="3">
-        <v>-71900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-157400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-72200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3749300</v>
+        <v>9193700</v>
       </c>
       <c r="E76" s="3">
-        <v>2863300</v>
+        <v>3765500</v>
       </c>
       <c r="F76" s="3">
-        <v>-150900</v>
+        <v>2875700</v>
       </c>
       <c r="G76" s="3">
-        <v>-64900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-151500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-65100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1059900</v>
+        <v>-1096900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1566500</v>
+        <v>-1064500</v>
       </c>
       <c r="F81" s="3">
-        <v>-75900</v>
+        <v>-1573300</v>
       </c>
       <c r="G81" s="3">
-        <v>-49000</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-76200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-49300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,26 +3097,27 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>97000</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>75600</v>
+        <v>97400</v>
       </c>
       <c r="F83" s="3">
+        <v>75900</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2254600</v>
+        <v>4307900</v>
       </c>
       <c r="E89" s="3">
-        <v>1181700</v>
+        <v>2264300</v>
       </c>
       <c r="F89" s="3">
-        <v>1473500</v>
+        <v>1186800</v>
       </c>
       <c r="G89" s="3">
-        <v>133800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>1479900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>134400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,26 +3365,27 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-4200</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
         <v>-4200</v>
       </c>
       <c r="F91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4308000</v>
+        <v>-5860300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1148300</v>
+        <v>-4326700</v>
       </c>
       <c r="F94" s="3">
+        <v>-1153300</v>
+      </c>
+      <c r="G94" s="3">
         <v>10900</v>
       </c>
-      <c r="G94" s="3">
-        <v>-46700</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>-46900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3308,11 +3541,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-2800</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2411800</v>
+        <v>7913900</v>
       </c>
       <c r="E100" s="3">
-        <v>2638400</v>
+        <v>2422300</v>
       </c>
       <c r="F100" s="3">
-        <v>212800</v>
+        <v>2649900</v>
       </c>
       <c r="G100" s="3">
-        <v>74000</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>213700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>74300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3457,27 +3702,30 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>68500</v>
+        <v>-21400</v>
       </c>
       <c r="E101" s="3">
-        <v>83200</v>
+        <v>68800</v>
       </c>
       <c r="F101" s="3">
+        <v>83600</v>
+      </c>
+      <c r="G101" s="3">
         <v>-7300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,26 +3738,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>426900</v>
+        <v>6340000</v>
       </c>
       <c r="E102" s="3">
-        <v>2755000</v>
+        <v>428700</v>
       </c>
       <c r="F102" s="3">
-        <v>1689900</v>
+        <v>2767000</v>
       </c>
       <c r="G102" s="3">
-        <v>164200</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>1697300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>164900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>PDD</t>
   </si>
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9089200</v>
+        <v>9281300</v>
       </c>
       <c r="E8" s="3">
-        <v>4605100</v>
+        <v>4702400</v>
       </c>
       <c r="F8" s="3">
-        <v>2004500</v>
+        <v>2046800</v>
       </c>
       <c r="G8" s="3">
-        <v>266500</v>
+        <v>272100</v>
       </c>
       <c r="H8" s="3">
-        <v>77100</v>
+        <v>78800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2945400</v>
+        <v>3007700</v>
       </c>
       <c r="E9" s="3">
-        <v>968400</v>
+        <v>988900</v>
       </c>
       <c r="F9" s="3">
-        <v>443900</v>
+        <v>453200</v>
       </c>
       <c r="G9" s="3">
-        <v>110400</v>
+        <v>112800</v>
       </c>
       <c r="H9" s="3">
-        <v>88300</v>
+        <v>90200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6143800</v>
+        <v>6273700</v>
       </c>
       <c r="E10" s="3">
-        <v>3636600</v>
+        <v>3713500</v>
       </c>
       <c r="F10" s="3">
-        <v>1560600</v>
+        <v>1593600</v>
       </c>
       <c r="G10" s="3">
-        <v>156000</v>
+        <v>159300</v>
       </c>
       <c r="H10" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1052900</v>
+        <v>1073200</v>
       </c>
       <c r="E12" s="3">
-        <v>589800</v>
+        <v>602200</v>
       </c>
       <c r="F12" s="3">
-        <v>170100</v>
+        <v>173700</v>
       </c>
       <c r="G12" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="H12" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -952,11 +952,11 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>2700</v>
       </c>
       <c r="E15" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F15" s="3">
         <v>700</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10522300</v>
+        <v>10744800</v>
       </c>
       <c r="E17" s="3">
-        <v>5909500</v>
+        <v>6034500</v>
       </c>
       <c r="F17" s="3">
-        <v>3654500</v>
+        <v>3731700</v>
       </c>
       <c r="G17" s="3">
-        <v>357500</v>
+        <v>365000</v>
       </c>
       <c r="H17" s="3">
-        <v>120900</v>
+        <v>123400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1433100</v>
+        <v>-1463400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1304500</v>
+        <v>-1332000</v>
       </c>
       <c r="F18" s="3">
-        <v>-1650000</v>
+        <v>-1684900</v>
       </c>
       <c r="G18" s="3">
-        <v>-91000</v>
+        <v>-92900</v>
       </c>
       <c r="H18" s="3">
-        <v>-43700</v>
+        <v>-44700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>451900</v>
+        <v>461500</v>
       </c>
       <c r="E20" s="3">
-        <v>262200</v>
+        <v>267800</v>
       </c>
       <c r="F20" s="3">
-        <v>89000</v>
+        <v>90900</v>
       </c>
       <c r="G20" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="H20" s="3">
         <v>-900</v>
@@ -1125,20 +1125,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-900400</v>
       </c>
       <c r="E21" s="3">
-        <v>-944400</v>
+        <v>-964900</v>
       </c>
       <c r="F21" s="3">
-        <v>-1484800</v>
+        <v>-1516500</v>
       </c>
       <c r="G21" s="3">
-        <v>-79900</v>
+        <v>-81600</v>
       </c>
       <c r="H21" s="3">
-        <v>-44500</v>
+        <v>-45400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>115700</v>
+        <v>118200</v>
       </c>
       <c r="E22" s="3">
-        <v>22300</v>
+        <v>22800</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1096900</v>
+        <v>-1120100</v>
       </c>
       <c r="E23" s="3">
-        <v>-1064500</v>
+        <v>-1087000</v>
       </c>
       <c r="F23" s="3">
-        <v>-1561000</v>
+        <v>-1594000</v>
       </c>
       <c r="G23" s="3">
-        <v>-80200</v>
+        <v>-81900</v>
       </c>
       <c r="H23" s="3">
-        <v>-44600</v>
+        <v>-45600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1096900</v>
+        <v>-1120100</v>
       </c>
       <c r="E26" s="3">
-        <v>-1064500</v>
+        <v>-1087000</v>
       </c>
       <c r="F26" s="3">
-        <v>-1561000</v>
+        <v>-1594000</v>
       </c>
       <c r="G26" s="3">
-        <v>-80200</v>
+        <v>-81900</v>
       </c>
       <c r="H26" s="3">
-        <v>-44600</v>
+        <v>-45600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1096900</v>
+        <v>-1120100</v>
       </c>
       <c r="E27" s="3">
-        <v>-1064500</v>
+        <v>-1087000</v>
       </c>
       <c r="F27" s="3">
-        <v>-1573300</v>
+        <v>-1606500</v>
       </c>
       <c r="G27" s="3">
-        <v>-76200</v>
+        <v>-77800</v>
       </c>
       <c r="H27" s="3">
-        <v>-49300</v>
+        <v>-50300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-451900</v>
+        <v>-461500</v>
       </c>
       <c r="E32" s="3">
-        <v>-262200</v>
+        <v>-267800</v>
       </c>
       <c r="F32" s="3">
-        <v>-89000</v>
+        <v>-90900</v>
       </c>
       <c r="G32" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="H32" s="3">
         <v>900</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1096900</v>
+        <v>-1120100</v>
       </c>
       <c r="E33" s="3">
-        <v>-1064500</v>
+        <v>-1087000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1573300</v>
+        <v>-1606500</v>
       </c>
       <c r="G33" s="3">
-        <v>-76200</v>
+        <v>-77800</v>
       </c>
       <c r="H33" s="3">
-        <v>-49300</v>
+        <v>-50300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1096900</v>
+        <v>-1120100</v>
       </c>
       <c r="E35" s="3">
-        <v>-1064500</v>
+        <v>-1087000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1573300</v>
+        <v>-1606500</v>
       </c>
       <c r="G35" s="3">
-        <v>-76200</v>
+        <v>-77800</v>
       </c>
       <c r="H35" s="3">
-        <v>-49300</v>
+        <v>-50300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3425500</v>
+        <v>3497900</v>
       </c>
       <c r="E41" s="3">
-        <v>881300</v>
+        <v>899900</v>
       </c>
       <c r="F41" s="3">
-        <v>2163400</v>
+        <v>2209200</v>
       </c>
       <c r="G41" s="3">
-        <v>467200</v>
+        <v>477100</v>
       </c>
       <c r="H41" s="3">
-        <v>201600</v>
+        <v>205900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9862100</v>
+        <v>10070600</v>
       </c>
       <c r="E42" s="3">
-        <v>5391400</v>
+        <v>5505400</v>
       </c>
       <c r="F42" s="3">
-        <v>1165800</v>
+        <v>1190500</v>
       </c>
       <c r="G42" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="H42" s="3">
-        <v>44300</v>
+        <v>45200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>759300</v>
+        <v>881600</v>
       </c>
       <c r="E43" s="3">
-        <v>560000</v>
+        <v>571800</v>
       </c>
       <c r="F43" s="3">
-        <v>223900</v>
+        <v>228700</v>
       </c>
       <c r="G43" s="3">
-        <v>90700</v>
+        <v>92600</v>
       </c>
       <c r="H43" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>268100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8797400</v>
+        <v>8609000</v>
       </c>
       <c r="E45" s="3">
-        <v>4320500</v>
+        <v>4411800</v>
       </c>
       <c r="F45" s="3">
-        <v>2617800</v>
+        <v>2673100</v>
       </c>
       <c r="G45" s="3">
-        <v>1441700</v>
+        <v>1472100</v>
       </c>
       <c r="H45" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22844300</v>
+        <v>23327200</v>
       </c>
       <c r="E46" s="3">
-        <v>11153200</v>
+        <v>11389000</v>
       </c>
       <c r="F46" s="3">
-        <v>6170900</v>
+        <v>6301400</v>
       </c>
       <c r="G46" s="3">
-        <v>2007200</v>
+        <v>2049600</v>
       </c>
       <c r="H46" s="3">
-        <v>267900</v>
+        <v>273600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>25600</v>
+        <v>26100</v>
       </c>
       <c r="H47" s="3">
         <v>2300</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>127200</v>
+        <v>129900</v>
       </c>
       <c r="E48" s="3">
-        <v>85300</v>
+        <v>87100</v>
       </c>
       <c r="F48" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G48" s="3">
         <v>1400</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>195100</v>
+        <v>199200</v>
       </c>
       <c r="E49" s="3">
-        <v>304700</v>
+        <v>311100</v>
       </c>
       <c r="F49" s="3">
-        <v>394100</v>
+        <v>402400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1111500</v>
+        <v>1135000</v>
       </c>
       <c r="E52" s="3">
-        <v>76900</v>
+        <v>78500</v>
       </c>
       <c r="F52" s="3">
-        <v>27900</v>
+        <v>28500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24278100</v>
+        <v>24791300</v>
       </c>
       <c r="E54" s="3">
-        <v>11620000</v>
+        <v>11865700</v>
       </c>
       <c r="F54" s="3">
-        <v>6597400</v>
+        <v>6736800</v>
       </c>
       <c r="G54" s="3">
-        <v>2034200</v>
+        <v>2077200</v>
       </c>
       <c r="H54" s="3">
-        <v>270500</v>
+        <v>276300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8224800</v>
+        <v>8576100</v>
       </c>
       <c r="E57" s="3">
-        <v>4572200</v>
+        <v>4668800</v>
       </c>
       <c r="F57" s="3">
-        <v>2639400</v>
+        <v>2695200</v>
       </c>
       <c r="G57" s="3">
-        <v>1503100</v>
+        <v>1534900</v>
       </c>
       <c r="H57" s="3">
-        <v>172400</v>
+        <v>176100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,10 +2311,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>285100</v>
+        <v>291200</v>
       </c>
       <c r="E58" s="3">
-        <v>137300</v>
+        <v>140200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4305600</v>
+        <v>4219200</v>
       </c>
       <c r="E59" s="3">
-        <v>2282900</v>
+        <v>2331200</v>
       </c>
       <c r="F59" s="3">
-        <v>1082200</v>
+        <v>1105100</v>
       </c>
       <c r="G59" s="3">
-        <v>347000</v>
+        <v>354300</v>
       </c>
       <c r="H59" s="3">
-        <v>43600</v>
+        <v>44600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12815500</v>
+        <v>13086400</v>
       </c>
       <c r="E60" s="3">
-        <v>6992400</v>
+        <v>7140200</v>
       </c>
       <c r="F60" s="3">
-        <v>3721600</v>
+        <v>3800300</v>
       </c>
       <c r="G60" s="3">
-        <v>1850100</v>
+        <v>1889200</v>
       </c>
       <c r="H60" s="3">
-        <v>216100</v>
+        <v>220600</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2205000</v>
+        <v>2251700</v>
       </c>
       <c r="E61" s="3">
-        <v>795500</v>
+        <v>812300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63800</v>
+        <v>65200</v>
       </c>
       <c r="E62" s="3">
-        <v>66600</v>
+        <v>68000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15084400</v>
+        <v>15403300</v>
       </c>
       <c r="E66" s="3">
-        <v>7854500</v>
+        <v>8020500</v>
       </c>
       <c r="F66" s="3">
-        <v>3721600</v>
+        <v>3800300</v>
       </c>
       <c r="G66" s="3">
-        <v>1850100</v>
+        <v>1889200</v>
       </c>
       <c r="H66" s="3">
-        <v>216100</v>
+        <v>220600</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>335600</v>
+        <v>342700</v>
       </c>
       <c r="H70" s="3">
-        <v>119600</v>
+        <v>122100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3892100</v>
+        <v>-3974400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2795200</v>
+        <v>-2854300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1730700</v>
+        <v>-1767300</v>
       </c>
       <c r="G72" s="3">
-        <v>-157400</v>
+        <v>-160700</v>
       </c>
       <c r="H72" s="3">
-        <v>-72200</v>
+        <v>-73700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9193700</v>
+        <v>9388000</v>
       </c>
       <c r="E76" s="3">
-        <v>3765500</v>
+        <v>3845200</v>
       </c>
       <c r="F76" s="3">
-        <v>2875700</v>
+        <v>2936500</v>
       </c>
       <c r="G76" s="3">
-        <v>-151500</v>
+        <v>-154700</v>
       </c>
       <c r="H76" s="3">
-        <v>-65100</v>
+        <v>-66500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1096900</v>
+        <v>-1120100</v>
       </c>
       <c r="E81" s="3">
-        <v>-1064500</v>
+        <v>-1087000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1573300</v>
+        <v>-1606500</v>
       </c>
       <c r="G81" s="3">
-        <v>-76200</v>
+        <v>-77800</v>
       </c>
       <c r="H81" s="3">
-        <v>-49300</v>
+        <v>-50300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3103,17 +3103,17 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>101600</v>
       </c>
       <c r="E83" s="3">
-        <v>97400</v>
+        <v>99500</v>
       </c>
       <c r="F83" s="3">
-        <v>75900</v>
+        <v>77500</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4307900</v>
+        <v>4399000</v>
       </c>
       <c r="E89" s="3">
-        <v>2264300</v>
+        <v>2312200</v>
       </c>
       <c r="F89" s="3">
-        <v>1186800</v>
+        <v>1211900</v>
       </c>
       <c r="G89" s="3">
-        <v>1479900</v>
+        <v>1511200</v>
       </c>
       <c r="H89" s="3">
-        <v>134400</v>
+        <v>137300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3371,14 +3371,14 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-6700</v>
       </c>
       <c r="E91" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="F91" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="G91" s="3">
         <v>-1400</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5860300</v>
+        <v>-5984200</v>
       </c>
       <c r="E94" s="3">
-        <v>-4326700</v>
+        <v>-4418200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1153300</v>
+        <v>-1177600</v>
       </c>
       <c r="G94" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="H94" s="3">
-        <v>-46900</v>
+        <v>-47900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7913900</v>
+        <v>8081200</v>
       </c>
       <c r="E100" s="3">
-        <v>2422300</v>
+        <v>2473500</v>
       </c>
       <c r="F100" s="3">
-        <v>2649900</v>
+        <v>2705900</v>
       </c>
       <c r="G100" s="3">
-        <v>213700</v>
+        <v>218200</v>
       </c>
       <c r="H100" s="3">
-        <v>74300</v>
+        <v>75900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-21400</v>
+        <v>-21800</v>
       </c>
       <c r="E101" s="3">
-        <v>68800</v>
+        <v>70200</v>
       </c>
       <c r="F101" s="3">
-        <v>83600</v>
+        <v>85300</v>
       </c>
       <c r="G101" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="H101" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6340000</v>
+        <v>6474100</v>
       </c>
       <c r="E102" s="3">
-        <v>428700</v>
+        <v>437800</v>
       </c>
       <c r="F102" s="3">
-        <v>2767000</v>
+        <v>2825400</v>
       </c>
       <c r="G102" s="3">
-        <v>1697300</v>
+        <v>1733100</v>
       </c>
       <c r="H102" s="3">
-        <v>164900</v>
+        <v>168400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9281300</v>
+        <v>9160600</v>
       </c>
       <c r="E8" s="3">
-        <v>4702400</v>
+        <v>4641200</v>
       </c>
       <c r="F8" s="3">
-        <v>2046800</v>
+        <v>2020200</v>
       </c>
       <c r="G8" s="3">
-        <v>272100</v>
+        <v>268600</v>
       </c>
       <c r="H8" s="3">
-        <v>78800</v>
+        <v>77700</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3007700</v>
+        <v>2968500</v>
       </c>
       <c r="E9" s="3">
-        <v>988900</v>
+        <v>976000</v>
       </c>
       <c r="F9" s="3">
-        <v>453200</v>
+        <v>447400</v>
       </c>
       <c r="G9" s="3">
-        <v>112800</v>
+        <v>111300</v>
       </c>
       <c r="H9" s="3">
-        <v>90200</v>
+        <v>89000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6273700</v>
+        <v>6192000</v>
       </c>
       <c r="E10" s="3">
-        <v>3713500</v>
+        <v>3665200</v>
       </c>
       <c r="F10" s="3">
-        <v>1593600</v>
+        <v>1572900</v>
       </c>
       <c r="G10" s="3">
-        <v>159300</v>
+        <v>157300</v>
       </c>
       <c r="H10" s="3">
-        <v>-11400</v>
+        <v>-11200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1073200</v>
+        <v>1059200</v>
       </c>
       <c r="E12" s="3">
-        <v>602200</v>
+        <v>594400</v>
       </c>
       <c r="F12" s="3">
-        <v>173700</v>
+        <v>171400</v>
       </c>
       <c r="G12" s="3">
-        <v>20000</v>
+        <v>19700</v>
       </c>
       <c r="H12" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E15" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F15" s="3">
         <v>700</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10744800</v>
+        <v>10604900</v>
       </c>
       <c r="E17" s="3">
-        <v>6034500</v>
+        <v>5956000</v>
       </c>
       <c r="F17" s="3">
-        <v>3731700</v>
+        <v>3683200</v>
       </c>
       <c r="G17" s="3">
-        <v>365000</v>
+        <v>360300</v>
       </c>
       <c r="H17" s="3">
-        <v>123400</v>
+        <v>121800</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1463400</v>
+        <v>-1444400</v>
       </c>
       <c r="E18" s="3">
-        <v>-1332000</v>
+        <v>-1314700</v>
       </c>
       <c r="F18" s="3">
-        <v>-1684900</v>
+        <v>-1662900</v>
       </c>
       <c r="G18" s="3">
-        <v>-92900</v>
+        <v>-91700</v>
       </c>
       <c r="H18" s="3">
-        <v>-44700</v>
+        <v>-44100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>461500</v>
+        <v>455500</v>
       </c>
       <c r="E20" s="3">
-        <v>267800</v>
+        <v>264300</v>
       </c>
       <c r="F20" s="3">
-        <v>90900</v>
+        <v>89700</v>
       </c>
       <c r="G20" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="H20" s="3">
         <v>-900</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-900400</v>
+        <v>-888400</v>
       </c>
       <c r="E21" s="3">
-        <v>-964900</v>
+        <v>-952000</v>
       </c>
       <c r="F21" s="3">
-        <v>-1516500</v>
+        <v>-1496600</v>
       </c>
       <c r="G21" s="3">
-        <v>-81600</v>
+        <v>-80500</v>
       </c>
       <c r="H21" s="3">
-        <v>-45400</v>
+        <v>-44800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>118200</v>
+        <v>116600</v>
       </c>
       <c r="E22" s="3">
-        <v>22800</v>
+        <v>22500</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1120100</v>
+        <v>-1105500</v>
       </c>
       <c r="E23" s="3">
-        <v>-1087000</v>
+        <v>-1072900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1594000</v>
+        <v>-1573200</v>
       </c>
       <c r="G23" s="3">
-        <v>-81900</v>
+        <v>-80900</v>
       </c>
       <c r="H23" s="3">
-        <v>-45600</v>
+        <v>-45000</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1120100</v>
+        <v>-1105500</v>
       </c>
       <c r="E26" s="3">
-        <v>-1087000</v>
+        <v>-1072900</v>
       </c>
       <c r="F26" s="3">
-        <v>-1594000</v>
+        <v>-1573200</v>
       </c>
       <c r="G26" s="3">
-        <v>-81900</v>
+        <v>-80900</v>
       </c>
       <c r="H26" s="3">
-        <v>-45600</v>
+        <v>-45000</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1120100</v>
+        <v>-1105500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1087000</v>
+        <v>-1072900</v>
       </c>
       <c r="F27" s="3">
-        <v>-1606500</v>
+        <v>-1585600</v>
       </c>
       <c r="G27" s="3">
-        <v>-77800</v>
+        <v>-76800</v>
       </c>
       <c r="H27" s="3">
-        <v>-50300</v>
+        <v>-49600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-461500</v>
+        <v>-455500</v>
       </c>
       <c r="E32" s="3">
-        <v>-267800</v>
+        <v>-264300</v>
       </c>
       <c r="F32" s="3">
-        <v>-90900</v>
+        <v>-89700</v>
       </c>
       <c r="G32" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="H32" s="3">
         <v>900</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1120100</v>
+        <v>-1105500</v>
       </c>
       <c r="E33" s="3">
-        <v>-1087000</v>
+        <v>-1072900</v>
       </c>
       <c r="F33" s="3">
-        <v>-1606500</v>
+        <v>-1585600</v>
       </c>
       <c r="G33" s="3">
-        <v>-77800</v>
+        <v>-76800</v>
       </c>
       <c r="H33" s="3">
-        <v>-50300</v>
+        <v>-49600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1120100</v>
+        <v>-1105500</v>
       </c>
       <c r="E35" s="3">
-        <v>-1087000</v>
+        <v>-1072900</v>
       </c>
       <c r="F35" s="3">
-        <v>-1606500</v>
+        <v>-1585600</v>
       </c>
       <c r="G35" s="3">
-        <v>-77800</v>
+        <v>-76800</v>
       </c>
       <c r="H35" s="3">
-        <v>-50300</v>
+        <v>-49600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3497900</v>
+        <v>3452400</v>
       </c>
       <c r="E41" s="3">
-        <v>899900</v>
+        <v>888200</v>
       </c>
       <c r="F41" s="3">
-        <v>2209200</v>
+        <v>2180400</v>
       </c>
       <c r="G41" s="3">
-        <v>477100</v>
+        <v>470900</v>
       </c>
       <c r="H41" s="3">
-        <v>205900</v>
+        <v>203200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10070600</v>
+        <v>9939600</v>
       </c>
       <c r="E42" s="3">
-        <v>5505400</v>
+        <v>5433800</v>
       </c>
       <c r="F42" s="3">
-        <v>1190500</v>
+        <v>1175000</v>
       </c>
       <c r="G42" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="H42" s="3">
-        <v>45200</v>
+        <v>44700</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>881600</v>
+        <v>870100</v>
       </c>
       <c r="E43" s="3">
-        <v>571800</v>
+        <v>564400</v>
       </c>
       <c r="F43" s="3">
-        <v>228700</v>
+        <v>225700</v>
       </c>
       <c r="G43" s="3">
-        <v>92600</v>
+        <v>91400</v>
       </c>
       <c r="H43" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,7 +1847,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>268100</v>
+        <v>264600</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8609000</v>
+        <v>8497000</v>
       </c>
       <c r="E45" s="3">
-        <v>4411800</v>
+        <v>4354400</v>
       </c>
       <c r="F45" s="3">
-        <v>2673100</v>
+        <v>2638300</v>
       </c>
       <c r="G45" s="3">
-        <v>1472100</v>
+        <v>1453000</v>
       </c>
       <c r="H45" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23327200</v>
+        <v>23023700</v>
       </c>
       <c r="E46" s="3">
-        <v>11389000</v>
+        <v>11240800</v>
       </c>
       <c r="F46" s="3">
-        <v>6301400</v>
+        <v>6219400</v>
       </c>
       <c r="G46" s="3">
-        <v>2049600</v>
+        <v>2023000</v>
       </c>
       <c r="H46" s="3">
-        <v>273600</v>
+        <v>270000</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>26100</v>
+        <v>25800</v>
       </c>
       <c r="H47" s="3">
         <v>2300</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>129900</v>
+        <v>128200</v>
       </c>
       <c r="E48" s="3">
-        <v>87100</v>
+        <v>86000</v>
       </c>
       <c r="F48" s="3">
         <v>4500</v>
@@ -2003,7 +2003,7 @@
         <v>1400</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>199200</v>
+        <v>196600</v>
       </c>
       <c r="E49" s="3">
-        <v>311100</v>
+        <v>307100</v>
       </c>
       <c r="F49" s="3">
-        <v>402400</v>
+        <v>397200</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1135000</v>
+        <v>1120300</v>
       </c>
       <c r="E52" s="3">
-        <v>78500</v>
+        <v>77500</v>
       </c>
       <c r="F52" s="3">
-        <v>28500</v>
+        <v>28100</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24791300</v>
+        <v>24468700</v>
       </c>
       <c r="E54" s="3">
-        <v>11865700</v>
+        <v>11711300</v>
       </c>
       <c r="F54" s="3">
-        <v>6736800</v>
+        <v>6649200</v>
       </c>
       <c r="G54" s="3">
-        <v>2077200</v>
+        <v>2050200</v>
       </c>
       <c r="H54" s="3">
-        <v>276300</v>
+        <v>272700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8576100</v>
+        <v>8464500</v>
       </c>
       <c r="E57" s="3">
-        <v>4668800</v>
+        <v>4608100</v>
       </c>
       <c r="F57" s="3">
-        <v>2695200</v>
+        <v>2660100</v>
       </c>
       <c r="G57" s="3">
-        <v>1534900</v>
+        <v>1514900</v>
       </c>
       <c r="H57" s="3">
-        <v>176100</v>
+        <v>173800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,10 +2311,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>291200</v>
+        <v>287400</v>
       </c>
       <c r="E58" s="3">
-        <v>140200</v>
+        <v>138400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4219200</v>
+        <v>4164300</v>
       </c>
       <c r="E59" s="3">
-        <v>2331200</v>
+        <v>2300900</v>
       </c>
       <c r="F59" s="3">
-        <v>1105100</v>
+        <v>1090700</v>
       </c>
       <c r="G59" s="3">
-        <v>354300</v>
+        <v>349700</v>
       </c>
       <c r="H59" s="3">
-        <v>44600</v>
+        <v>44000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13086400</v>
+        <v>12916200</v>
       </c>
       <c r="E60" s="3">
-        <v>7140200</v>
+        <v>7047300</v>
       </c>
       <c r="F60" s="3">
-        <v>3800300</v>
+        <v>3750900</v>
       </c>
       <c r="G60" s="3">
-        <v>1889200</v>
+        <v>1864600</v>
       </c>
       <c r="H60" s="3">
-        <v>220600</v>
+        <v>217800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2251700</v>
+        <v>2222400</v>
       </c>
       <c r="E61" s="3">
-        <v>812300</v>
+        <v>801700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65200</v>
+        <v>64300</v>
       </c>
       <c r="E62" s="3">
-        <v>68000</v>
+        <v>67100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15403300</v>
+        <v>15202900</v>
       </c>
       <c r="E66" s="3">
-        <v>8020500</v>
+        <v>7916200</v>
       </c>
       <c r="F66" s="3">
-        <v>3800300</v>
+        <v>3750900</v>
       </c>
       <c r="G66" s="3">
-        <v>1889200</v>
+        <v>1864600</v>
       </c>
       <c r="H66" s="3">
-        <v>220600</v>
+        <v>217800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>342700</v>
+        <v>338300</v>
       </c>
       <c r="H70" s="3">
-        <v>122100</v>
+        <v>120500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3974400</v>
+        <v>-3922700</v>
       </c>
       <c r="E72" s="3">
-        <v>-2854300</v>
+        <v>-2817100</v>
       </c>
       <c r="F72" s="3">
-        <v>-1767300</v>
+        <v>-1744300</v>
       </c>
       <c r="G72" s="3">
-        <v>-160700</v>
+        <v>-158600</v>
       </c>
       <c r="H72" s="3">
-        <v>-73700</v>
+        <v>-72700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9388000</v>
+        <v>9265900</v>
       </c>
       <c r="E76" s="3">
-        <v>3845200</v>
+        <v>3795100</v>
       </c>
       <c r="F76" s="3">
-        <v>2936500</v>
+        <v>2898300</v>
       </c>
       <c r="G76" s="3">
-        <v>-154700</v>
+        <v>-152800</v>
       </c>
       <c r="H76" s="3">
-        <v>-66500</v>
+        <v>-65600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1120100</v>
+        <v>-1105500</v>
       </c>
       <c r="E81" s="3">
-        <v>-1087000</v>
+        <v>-1072900</v>
       </c>
       <c r="F81" s="3">
-        <v>-1606500</v>
+        <v>-1585600</v>
       </c>
       <c r="G81" s="3">
-        <v>-77800</v>
+        <v>-76800</v>
       </c>
       <c r="H81" s="3">
-        <v>-50300</v>
+        <v>-49600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>101600</v>
+        <v>100300</v>
       </c>
       <c r="E83" s="3">
-        <v>99500</v>
+        <v>98200</v>
       </c>
       <c r="F83" s="3">
-        <v>77500</v>
+        <v>76500</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4399000</v>
+        <v>4341700</v>
       </c>
       <c r="E89" s="3">
-        <v>2312200</v>
+        <v>2282100</v>
       </c>
       <c r="F89" s="3">
-        <v>1211900</v>
+        <v>1196100</v>
       </c>
       <c r="G89" s="3">
-        <v>1511200</v>
+        <v>1491500</v>
       </c>
       <c r="H89" s="3">
-        <v>137300</v>
+        <v>135500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,13 +3372,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="E91" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="F91" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="G91" s="3">
         <v>-1400</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5984200</v>
+        <v>-5906300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4418200</v>
+        <v>-4360700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1177600</v>
+        <v>-1162300</v>
       </c>
       <c r="G94" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="H94" s="3">
-        <v>-47900</v>
+        <v>-47300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-2900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8081200</v>
+        <v>7976000</v>
       </c>
       <c r="E100" s="3">
-        <v>2473500</v>
+        <v>2441300</v>
       </c>
       <c r="F100" s="3">
-        <v>2705900</v>
+        <v>2670700</v>
       </c>
       <c r="G100" s="3">
-        <v>218200</v>
+        <v>215400</v>
       </c>
       <c r="H100" s="3">
-        <v>75900</v>
+        <v>74900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-21800</v>
+        <v>-21500</v>
       </c>
       <c r="E101" s="3">
-        <v>70200</v>
+        <v>69300</v>
       </c>
       <c r="F101" s="3">
-        <v>85300</v>
+        <v>84200</v>
       </c>
       <c r="G101" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="H101" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6474100</v>
+        <v>6389800</v>
       </c>
       <c r="E102" s="3">
-        <v>437800</v>
+        <v>432100</v>
       </c>
       <c r="F102" s="3">
-        <v>2825400</v>
+        <v>2788700</v>
       </c>
       <c r="G102" s="3">
-        <v>1733100</v>
+        <v>1710600</v>
       </c>
       <c r="H102" s="3">
-        <v>168400</v>
+        <v>166200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9160600</v>
+        <v>9314000</v>
       </c>
       <c r="E8" s="3">
-        <v>4641200</v>
+        <v>4719000</v>
       </c>
       <c r="F8" s="3">
-        <v>2020200</v>
+        <v>2054100</v>
       </c>
       <c r="G8" s="3">
-        <v>268600</v>
+        <v>273100</v>
       </c>
       <c r="H8" s="3">
-        <v>77700</v>
+        <v>79000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2968500</v>
+        <v>3018300</v>
       </c>
       <c r="E9" s="3">
-        <v>976000</v>
+        <v>992400</v>
       </c>
       <c r="F9" s="3">
-        <v>447400</v>
+        <v>454800</v>
       </c>
       <c r="G9" s="3">
-        <v>111300</v>
+        <v>113200</v>
       </c>
       <c r="H9" s="3">
-        <v>89000</v>
+        <v>90500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6192000</v>
+        <v>6295800</v>
       </c>
       <c r="E10" s="3">
-        <v>3665200</v>
+        <v>3726600</v>
       </c>
       <c r="F10" s="3">
-        <v>1572900</v>
+        <v>1599200</v>
       </c>
       <c r="G10" s="3">
-        <v>157300</v>
+        <v>159900</v>
       </c>
       <c r="H10" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1059200</v>
+        <v>1077000</v>
       </c>
       <c r="E12" s="3">
-        <v>594400</v>
+        <v>604300</v>
       </c>
       <c r="F12" s="3">
-        <v>171400</v>
+        <v>174300</v>
       </c>
       <c r="G12" s="3">
-        <v>19700</v>
+        <v>20100</v>
       </c>
       <c r="H12" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E15" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F15" s="3">
         <v>700</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10604900</v>
+        <v>10782600</v>
       </c>
       <c r="E17" s="3">
-        <v>5956000</v>
+        <v>6055800</v>
       </c>
       <c r="F17" s="3">
-        <v>3683200</v>
+        <v>3744900</v>
       </c>
       <c r="G17" s="3">
-        <v>360300</v>
+        <v>366300</v>
       </c>
       <c r="H17" s="3">
-        <v>121800</v>
+        <v>123900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1444400</v>
+        <v>-1468600</v>
       </c>
       <c r="E18" s="3">
-        <v>-1314700</v>
+        <v>-1336700</v>
       </c>
       <c r="F18" s="3">
-        <v>-1662900</v>
+        <v>-1690800</v>
       </c>
       <c r="G18" s="3">
-        <v>-91700</v>
+        <v>-93300</v>
       </c>
       <c r="H18" s="3">
-        <v>-44100</v>
+        <v>-44800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>455500</v>
+        <v>463100</v>
       </c>
       <c r="E20" s="3">
-        <v>264300</v>
+        <v>268700</v>
       </c>
       <c r="F20" s="3">
-        <v>89700</v>
+        <v>91200</v>
       </c>
       <c r="G20" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="H20" s="3">
         <v>-900</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-888400</v>
+        <v>-903600</v>
       </c>
       <c r="E21" s="3">
-        <v>-952000</v>
+        <v>-968200</v>
       </c>
       <c r="F21" s="3">
-        <v>-1496600</v>
+        <v>-1521800</v>
       </c>
       <c r="G21" s="3">
-        <v>-80500</v>
+        <v>-81900</v>
       </c>
       <c r="H21" s="3">
-        <v>-44800</v>
+        <v>-45600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>116600</v>
+        <v>118600</v>
       </c>
       <c r="E22" s="3">
-        <v>22500</v>
+        <v>22800</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1105500</v>
+        <v>-1124100</v>
       </c>
       <c r="E23" s="3">
-        <v>-1072900</v>
+        <v>-1090800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1573200</v>
+        <v>-1599600</v>
       </c>
       <c r="G23" s="3">
-        <v>-80900</v>
+        <v>-82200</v>
       </c>
       <c r="H23" s="3">
-        <v>-45000</v>
+        <v>-45700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1105500</v>
+        <v>-1124100</v>
       </c>
       <c r="E26" s="3">
-        <v>-1072900</v>
+        <v>-1090800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1573200</v>
+        <v>-1599600</v>
       </c>
       <c r="G26" s="3">
-        <v>-80900</v>
+        <v>-82200</v>
       </c>
       <c r="H26" s="3">
-        <v>-45000</v>
+        <v>-45700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1105500</v>
+        <v>-1124100</v>
       </c>
       <c r="E27" s="3">
-        <v>-1072900</v>
+        <v>-1090800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1585600</v>
+        <v>-1612200</v>
       </c>
       <c r="G27" s="3">
-        <v>-76800</v>
+        <v>-78100</v>
       </c>
       <c r="H27" s="3">
-        <v>-49600</v>
+        <v>-50500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,16 +1522,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-455500</v>
+        <v>-463100</v>
       </c>
       <c r="E32" s="3">
-        <v>-264300</v>
+        <v>-268700</v>
       </c>
       <c r="F32" s="3">
-        <v>-89700</v>
+        <v>-91200</v>
       </c>
       <c r="G32" s="3">
-        <v>-10900</v>
+        <v>-11100</v>
       </c>
       <c r="H32" s="3">
         <v>900</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1105500</v>
+        <v>-1124100</v>
       </c>
       <c r="E33" s="3">
-        <v>-1072900</v>
+        <v>-1090800</v>
       </c>
       <c r="F33" s="3">
-        <v>-1585600</v>
+        <v>-1612200</v>
       </c>
       <c r="G33" s="3">
-        <v>-76800</v>
+        <v>-78100</v>
       </c>
       <c r="H33" s="3">
-        <v>-49600</v>
+        <v>-50500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1105500</v>
+        <v>-1124100</v>
       </c>
       <c r="E35" s="3">
-        <v>-1072900</v>
+        <v>-1090800</v>
       </c>
       <c r="F35" s="3">
-        <v>-1585600</v>
+        <v>-1612200</v>
       </c>
       <c r="G35" s="3">
-        <v>-76800</v>
+        <v>-78100</v>
       </c>
       <c r="H35" s="3">
-        <v>-49600</v>
+        <v>-50500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3452400</v>
+        <v>3510300</v>
       </c>
       <c r="E41" s="3">
-        <v>888200</v>
+        <v>903100</v>
       </c>
       <c r="F41" s="3">
-        <v>2180400</v>
+        <v>2216900</v>
       </c>
       <c r="G41" s="3">
-        <v>470900</v>
+        <v>478800</v>
       </c>
       <c r="H41" s="3">
-        <v>203200</v>
+        <v>206600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9939600</v>
+        <v>10106100</v>
       </c>
       <c r="E42" s="3">
-        <v>5433800</v>
+        <v>5524800</v>
       </c>
       <c r="F42" s="3">
-        <v>1175000</v>
+        <v>1194700</v>
       </c>
       <c r="G42" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="H42" s="3">
-        <v>44700</v>
+        <v>45400</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>870100</v>
+        <v>884700</v>
       </c>
       <c r="E43" s="3">
-        <v>564400</v>
+        <v>573800</v>
       </c>
       <c r="F43" s="3">
-        <v>225700</v>
+        <v>229500</v>
       </c>
       <c r="G43" s="3">
-        <v>91400</v>
+        <v>92900</v>
       </c>
       <c r="H43" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,7 +1847,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>264600</v>
+        <v>269000</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8497000</v>
+        <v>8639400</v>
       </c>
       <c r="E45" s="3">
-        <v>4354400</v>
+        <v>4427400</v>
       </c>
       <c r="F45" s="3">
-        <v>2638300</v>
+        <v>2682500</v>
       </c>
       <c r="G45" s="3">
-        <v>1453000</v>
+        <v>1477300</v>
       </c>
       <c r="H45" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23023700</v>
+        <v>23409500</v>
       </c>
       <c r="E46" s="3">
-        <v>11240800</v>
+        <v>11429100</v>
       </c>
       <c r="F46" s="3">
-        <v>6219400</v>
+        <v>6323600</v>
       </c>
       <c r="G46" s="3">
-        <v>2023000</v>
+        <v>2056900</v>
       </c>
       <c r="H46" s="3">
-        <v>270000</v>
+        <v>274500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>25800</v>
+        <v>26200</v>
       </c>
       <c r="H47" s="3">
         <v>2300</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>128200</v>
+        <v>130400</v>
       </c>
       <c r="E48" s="3">
-        <v>86000</v>
+        <v>87400</v>
       </c>
       <c r="F48" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G48" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>196600</v>
+        <v>199900</v>
       </c>
       <c r="E49" s="3">
-        <v>307100</v>
+        <v>312200</v>
       </c>
       <c r="F49" s="3">
-        <v>397200</v>
+        <v>403800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1120300</v>
+        <v>1139000</v>
       </c>
       <c r="E52" s="3">
-        <v>77500</v>
+        <v>78800</v>
       </c>
       <c r="F52" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24468700</v>
+        <v>24878700</v>
       </c>
       <c r="E54" s="3">
-        <v>11711300</v>
+        <v>11907500</v>
       </c>
       <c r="F54" s="3">
-        <v>6649200</v>
+        <v>6760600</v>
       </c>
       <c r="G54" s="3">
-        <v>2050200</v>
+        <v>2084500</v>
       </c>
       <c r="H54" s="3">
-        <v>272700</v>
+        <v>277200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8464500</v>
+        <v>8606300</v>
       </c>
       <c r="E57" s="3">
-        <v>4608100</v>
+        <v>4685300</v>
       </c>
       <c r="F57" s="3">
-        <v>2660100</v>
+        <v>2704700</v>
       </c>
       <c r="G57" s="3">
-        <v>1514900</v>
+        <v>1540300</v>
       </c>
       <c r="H57" s="3">
-        <v>173800</v>
+        <v>176700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,10 +2311,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>287400</v>
+        <v>292200</v>
       </c>
       <c r="E58" s="3">
-        <v>138400</v>
+        <v>140700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4164300</v>
+        <v>4234000</v>
       </c>
       <c r="E59" s="3">
-        <v>2300900</v>
+        <v>2339400</v>
       </c>
       <c r="F59" s="3">
-        <v>1090700</v>
+        <v>1109000</v>
       </c>
       <c r="G59" s="3">
-        <v>349700</v>
+        <v>355500</v>
       </c>
       <c r="H59" s="3">
-        <v>44000</v>
+        <v>44700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12916200</v>
+        <v>13132600</v>
       </c>
       <c r="E60" s="3">
-        <v>7047300</v>
+        <v>7165400</v>
       </c>
       <c r="F60" s="3">
-        <v>3750900</v>
+        <v>3813700</v>
       </c>
       <c r="G60" s="3">
-        <v>1864600</v>
+        <v>1895900</v>
       </c>
       <c r="H60" s="3">
-        <v>217800</v>
+        <v>221400</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2222400</v>
+        <v>2259600</v>
       </c>
       <c r="E61" s="3">
-        <v>801700</v>
+        <v>815200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>64300</v>
+        <v>65400</v>
       </c>
       <c r="E62" s="3">
-        <v>67100</v>
+        <v>68300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15202900</v>
+        <v>15457600</v>
       </c>
       <c r="E66" s="3">
-        <v>7916200</v>
+        <v>8048800</v>
       </c>
       <c r="F66" s="3">
-        <v>3750900</v>
+        <v>3813700</v>
       </c>
       <c r="G66" s="3">
-        <v>1864600</v>
+        <v>1895900</v>
       </c>
       <c r="H66" s="3">
-        <v>217800</v>
+        <v>221400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>338300</v>
+        <v>343900</v>
       </c>
       <c r="H70" s="3">
-        <v>120500</v>
+        <v>122500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3922700</v>
+        <v>-3988400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2817100</v>
+        <v>-2864300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1744300</v>
+        <v>-1773500</v>
       </c>
       <c r="G72" s="3">
-        <v>-158600</v>
+        <v>-161300</v>
       </c>
       <c r="H72" s="3">
-        <v>-72700</v>
+        <v>-74000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9265900</v>
+        <v>9421100</v>
       </c>
       <c r="E76" s="3">
-        <v>3795100</v>
+        <v>3858700</v>
       </c>
       <c r="F76" s="3">
-        <v>2898300</v>
+        <v>2946900</v>
       </c>
       <c r="G76" s="3">
-        <v>-152800</v>
+        <v>-155300</v>
       </c>
       <c r="H76" s="3">
-        <v>-65600</v>
+        <v>-66700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1105500</v>
+        <v>-1124100</v>
       </c>
       <c r="E81" s="3">
-        <v>-1072900</v>
+        <v>-1090800</v>
       </c>
       <c r="F81" s="3">
-        <v>-1585600</v>
+        <v>-1612200</v>
       </c>
       <c r="G81" s="3">
-        <v>-76800</v>
+        <v>-78100</v>
       </c>
       <c r="H81" s="3">
-        <v>-49600</v>
+        <v>-50500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100300</v>
+        <v>102000</v>
       </c>
       <c r="E83" s="3">
-        <v>98200</v>
+        <v>99900</v>
       </c>
       <c r="F83" s="3">
-        <v>76500</v>
+        <v>77800</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4341700</v>
+        <v>4414500</v>
       </c>
       <c r="E89" s="3">
-        <v>2282100</v>
+        <v>2320400</v>
       </c>
       <c r="F89" s="3">
-        <v>1196100</v>
+        <v>1216100</v>
       </c>
       <c r="G89" s="3">
-        <v>1491500</v>
+        <v>1516500</v>
       </c>
       <c r="H89" s="3">
-        <v>135500</v>
+        <v>137700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,13 +3372,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="E91" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="F91" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="G91" s="3">
         <v>-1400</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5906300</v>
+        <v>-6005300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4360700</v>
+        <v>-4433700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1162300</v>
+        <v>-1181800</v>
       </c>
       <c r="G94" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="H94" s="3">
-        <v>-47300</v>
+        <v>-48100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7976000</v>
+        <v>8109700</v>
       </c>
       <c r="E100" s="3">
-        <v>2441300</v>
+        <v>2482200</v>
       </c>
       <c r="F100" s="3">
-        <v>2670700</v>
+        <v>2715400</v>
       </c>
       <c r="G100" s="3">
-        <v>215400</v>
+        <v>219000</v>
       </c>
       <c r="H100" s="3">
-        <v>74900</v>
+        <v>76200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,19 +3712,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-21500</v>
+        <v>-21900</v>
       </c>
       <c r="E101" s="3">
-        <v>69300</v>
+        <v>70500</v>
       </c>
       <c r="F101" s="3">
-        <v>84200</v>
+        <v>85600</v>
       </c>
       <c r="G101" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="H101" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6389800</v>
+        <v>6496900</v>
       </c>
       <c r="E102" s="3">
-        <v>432100</v>
+        <v>439300</v>
       </c>
       <c r="F102" s="3">
-        <v>2788700</v>
+        <v>2835400</v>
       </c>
       <c r="G102" s="3">
-        <v>1710600</v>
+        <v>1739200</v>
       </c>
       <c r="H102" s="3">
-        <v>166200</v>
+        <v>169000</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9314000</v>
+        <v>9385400</v>
       </c>
       <c r="E8" s="3">
-        <v>4719000</v>
+        <v>4755200</v>
       </c>
       <c r="F8" s="3">
-        <v>2054100</v>
+        <v>2069800</v>
       </c>
       <c r="G8" s="3">
-        <v>273100</v>
+        <v>275100</v>
       </c>
       <c r="H8" s="3">
-        <v>79000</v>
+        <v>79600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3018300</v>
+        <v>3041400</v>
       </c>
       <c r="E9" s="3">
-        <v>992400</v>
+        <v>1000000</v>
       </c>
       <c r="F9" s="3">
-        <v>454800</v>
+        <v>458300</v>
       </c>
       <c r="G9" s="3">
-        <v>113200</v>
+        <v>114000</v>
       </c>
       <c r="H9" s="3">
-        <v>90500</v>
+        <v>91200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6295800</v>
+        <v>6344000</v>
       </c>
       <c r="E10" s="3">
-        <v>3726600</v>
+        <v>3755200</v>
       </c>
       <c r="F10" s="3">
-        <v>1599200</v>
+        <v>1611500</v>
       </c>
       <c r="G10" s="3">
-        <v>159900</v>
+        <v>161100</v>
       </c>
       <c r="H10" s="3">
-        <v>-11400</v>
+        <v>-11500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,16 +845,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1077000</v>
+        <v>1085200</v>
       </c>
       <c r="E12" s="3">
-        <v>604300</v>
+        <v>609000</v>
       </c>
       <c r="F12" s="3">
-        <v>174300</v>
+        <v>175600</v>
       </c>
       <c r="G12" s="3">
-        <v>20100</v>
+        <v>20200</v>
       </c>
       <c r="H12" s="3">
         <v>4600</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10782600</v>
+        <v>10865300</v>
       </c>
       <c r="E17" s="3">
-        <v>6055800</v>
+        <v>6102200</v>
       </c>
       <c r="F17" s="3">
-        <v>3744900</v>
+        <v>3773600</v>
       </c>
       <c r="G17" s="3">
-        <v>366300</v>
+        <v>369100</v>
       </c>
       <c r="H17" s="3">
-        <v>123900</v>
+        <v>124800</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1468600</v>
+        <v>-1479800</v>
       </c>
       <c r="E18" s="3">
-        <v>-1336700</v>
+        <v>-1347000</v>
       </c>
       <c r="F18" s="3">
-        <v>-1690800</v>
+        <v>-1703800</v>
       </c>
       <c r="G18" s="3">
-        <v>-93300</v>
+        <v>-94000</v>
       </c>
       <c r="H18" s="3">
-        <v>-44800</v>
+        <v>-45200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>463100</v>
+        <v>466600</v>
       </c>
       <c r="E20" s="3">
-        <v>268700</v>
+        <v>270800</v>
       </c>
       <c r="F20" s="3">
-        <v>91200</v>
+        <v>91900</v>
       </c>
       <c r="G20" s="3">
         <v>11100</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-903600</v>
+        <v>-910100</v>
       </c>
       <c r="E21" s="3">
-        <v>-968200</v>
+        <v>-975200</v>
       </c>
       <c r="F21" s="3">
-        <v>-1521800</v>
+        <v>-1533200</v>
       </c>
       <c r="G21" s="3">
-        <v>-81900</v>
+        <v>-82500</v>
       </c>
       <c r="H21" s="3">
-        <v>-45600</v>
+        <v>-45900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>118600</v>
+        <v>119500</v>
       </c>
       <c r="E22" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1124100</v>
+        <v>-1132700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1090800</v>
+        <v>-1099200</v>
       </c>
       <c r="F23" s="3">
-        <v>-1599600</v>
+        <v>-1611900</v>
       </c>
       <c r="G23" s="3">
-        <v>-82200</v>
+        <v>-82800</v>
       </c>
       <c r="H23" s="3">
-        <v>-45700</v>
+        <v>-46100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1124100</v>
+        <v>-1132700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1090800</v>
+        <v>-1099200</v>
       </c>
       <c r="F26" s="3">
-        <v>-1599600</v>
+        <v>-1611900</v>
       </c>
       <c r="G26" s="3">
-        <v>-82200</v>
+        <v>-82800</v>
       </c>
       <c r="H26" s="3">
-        <v>-45700</v>
+        <v>-46100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1124100</v>
+        <v>-1132700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1090800</v>
+        <v>-1099200</v>
       </c>
       <c r="F27" s="3">
-        <v>-1612200</v>
+        <v>-1624600</v>
       </c>
       <c r="G27" s="3">
-        <v>-78100</v>
+        <v>-78700</v>
       </c>
       <c r="H27" s="3">
-        <v>-50500</v>
+        <v>-50900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-463100</v>
+        <v>-466600</v>
       </c>
       <c r="E32" s="3">
-        <v>-268700</v>
+        <v>-270800</v>
       </c>
       <c r="F32" s="3">
-        <v>-91200</v>
+        <v>-91900</v>
       </c>
       <c r="G32" s="3">
         <v>-11100</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1124100</v>
+        <v>-1132700</v>
       </c>
       <c r="E33" s="3">
-        <v>-1090800</v>
+        <v>-1099200</v>
       </c>
       <c r="F33" s="3">
-        <v>-1612200</v>
+        <v>-1624600</v>
       </c>
       <c r="G33" s="3">
-        <v>-78100</v>
+        <v>-78700</v>
       </c>
       <c r="H33" s="3">
-        <v>-50500</v>
+        <v>-50900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1124100</v>
+        <v>-1132700</v>
       </c>
       <c r="E35" s="3">
-        <v>-1090800</v>
+        <v>-1099200</v>
       </c>
       <c r="F35" s="3">
-        <v>-1612200</v>
+        <v>-1624600</v>
       </c>
       <c r="G35" s="3">
-        <v>-78100</v>
+        <v>-78700</v>
       </c>
       <c r="H35" s="3">
-        <v>-50500</v>
+        <v>-50900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3510300</v>
+        <v>3537200</v>
       </c>
       <c r="E41" s="3">
-        <v>903100</v>
+        <v>910000</v>
       </c>
       <c r="F41" s="3">
-        <v>2216900</v>
+        <v>2233900</v>
       </c>
       <c r="G41" s="3">
-        <v>478800</v>
+        <v>482500</v>
       </c>
       <c r="H41" s="3">
-        <v>206600</v>
+        <v>208200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1775,19 +1775,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10106100</v>
+        <v>10183600</v>
       </c>
       <c r="E42" s="3">
-        <v>5524800</v>
+        <v>5567200</v>
       </c>
       <c r="F42" s="3">
-        <v>1194700</v>
+        <v>1203800</v>
       </c>
       <c r="G42" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H42" s="3">
-        <v>45400</v>
+        <v>45800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>884700</v>
+        <v>891400</v>
       </c>
       <c r="E43" s="3">
-        <v>573800</v>
+        <v>578200</v>
       </c>
       <c r="F43" s="3">
-        <v>229500</v>
+        <v>231200</v>
       </c>
       <c r="G43" s="3">
-        <v>92900</v>
+        <v>93600</v>
       </c>
       <c r="H43" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,7 +1847,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>269000</v>
+        <v>271100</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1883,16 +1883,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8639400</v>
+        <v>8705600</v>
       </c>
       <c r="E45" s="3">
-        <v>4427400</v>
+        <v>4461300</v>
       </c>
       <c r="F45" s="3">
-        <v>2682500</v>
+        <v>2703100</v>
       </c>
       <c r="G45" s="3">
-        <v>1477300</v>
+        <v>1488700</v>
       </c>
       <c r="H45" s="3">
         <v>4900</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23409500</v>
+        <v>23588900</v>
       </c>
       <c r="E46" s="3">
-        <v>11429100</v>
+        <v>11516700</v>
       </c>
       <c r="F46" s="3">
-        <v>6323600</v>
+        <v>6372100</v>
       </c>
       <c r="G46" s="3">
-        <v>2056900</v>
+        <v>2072600</v>
       </c>
       <c r="H46" s="3">
-        <v>274500</v>
+        <v>276600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1964,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>26200</v>
+        <v>26400</v>
       </c>
       <c r="H47" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>130400</v>
+        <v>131400</v>
       </c>
       <c r="E48" s="3">
-        <v>87400</v>
+        <v>88100</v>
       </c>
       <c r="F48" s="3">
         <v>4600</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>199900</v>
+        <v>201400</v>
       </c>
       <c r="E49" s="3">
-        <v>312200</v>
+        <v>314600</v>
       </c>
       <c r="F49" s="3">
-        <v>403800</v>
+        <v>406900</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1139000</v>
+        <v>1147800</v>
       </c>
       <c r="E52" s="3">
-        <v>78800</v>
+        <v>79400</v>
       </c>
       <c r="F52" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24878700</v>
+        <v>25069400</v>
       </c>
       <c r="E54" s="3">
-        <v>11907500</v>
+        <v>11998800</v>
       </c>
       <c r="F54" s="3">
-        <v>6760600</v>
+        <v>6812400</v>
       </c>
       <c r="G54" s="3">
-        <v>2084500</v>
+        <v>2100500</v>
       </c>
       <c r="H54" s="3">
-        <v>277200</v>
+        <v>279400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8606300</v>
+        <v>8672300</v>
       </c>
       <c r="E57" s="3">
-        <v>4685300</v>
+        <v>4721200</v>
       </c>
       <c r="F57" s="3">
-        <v>2704700</v>
+        <v>2725500</v>
       </c>
       <c r="G57" s="3">
-        <v>1540300</v>
+        <v>1552100</v>
       </c>
       <c r="H57" s="3">
-        <v>176700</v>
+        <v>178100</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,10 +2311,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>292200</v>
+        <v>294400</v>
       </c>
       <c r="E58" s="3">
-        <v>140700</v>
+        <v>141800</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4234000</v>
+        <v>4266500</v>
       </c>
       <c r="E59" s="3">
-        <v>2339400</v>
+        <v>2357300</v>
       </c>
       <c r="F59" s="3">
-        <v>1109000</v>
+        <v>1117500</v>
       </c>
       <c r="G59" s="3">
-        <v>355500</v>
+        <v>358300</v>
       </c>
       <c r="H59" s="3">
-        <v>44700</v>
+        <v>45100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13132600</v>
+        <v>13233200</v>
       </c>
       <c r="E60" s="3">
-        <v>7165400</v>
+        <v>7220300</v>
       </c>
       <c r="F60" s="3">
-        <v>3813700</v>
+        <v>3842900</v>
       </c>
       <c r="G60" s="3">
-        <v>1895900</v>
+        <v>1910400</v>
       </c>
       <c r="H60" s="3">
-        <v>221400</v>
+        <v>223100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2259600</v>
+        <v>2276900</v>
       </c>
       <c r="E61" s="3">
-        <v>815200</v>
+        <v>821400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65400</v>
+        <v>65900</v>
       </c>
       <c r="E62" s="3">
-        <v>68300</v>
+        <v>68800</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15457600</v>
+        <v>15576100</v>
       </c>
       <c r="E66" s="3">
-        <v>8048800</v>
+        <v>8110500</v>
       </c>
       <c r="F66" s="3">
-        <v>3813700</v>
+        <v>3842900</v>
       </c>
       <c r="G66" s="3">
-        <v>1895900</v>
+        <v>1910400</v>
       </c>
       <c r="H66" s="3">
-        <v>221400</v>
+        <v>223100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>343900</v>
+        <v>346600</v>
       </c>
       <c r="H70" s="3">
-        <v>122500</v>
+        <v>123500</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3988400</v>
+        <v>-4019000</v>
       </c>
       <c r="E72" s="3">
-        <v>-2864300</v>
+        <v>-2886300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1773500</v>
+        <v>-1787100</v>
       </c>
       <c r="G72" s="3">
-        <v>-161300</v>
+        <v>-162500</v>
       </c>
       <c r="H72" s="3">
-        <v>-74000</v>
+        <v>-74500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9421100</v>
+        <v>9493300</v>
       </c>
       <c r="E76" s="3">
-        <v>3858700</v>
+        <v>3888300</v>
       </c>
       <c r="F76" s="3">
-        <v>2946900</v>
+        <v>2969500</v>
       </c>
       <c r="G76" s="3">
-        <v>-155300</v>
+        <v>-156500</v>
       </c>
       <c r="H76" s="3">
-        <v>-66700</v>
+        <v>-67300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1124100</v>
+        <v>-1132700</v>
       </c>
       <c r="E81" s="3">
-        <v>-1090800</v>
+        <v>-1099200</v>
       </c>
       <c r="F81" s="3">
-        <v>-1612200</v>
+        <v>-1624600</v>
       </c>
       <c r="G81" s="3">
-        <v>-78100</v>
+        <v>-78700</v>
       </c>
       <c r="H81" s="3">
-        <v>-50500</v>
+        <v>-50900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,13 +3104,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>102000</v>
+        <v>102800</v>
       </c>
       <c r="E83" s="3">
-        <v>99900</v>
+        <v>100600</v>
       </c>
       <c r="F83" s="3">
-        <v>77800</v>
+        <v>78400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4414500</v>
+        <v>4448300</v>
       </c>
       <c r="E89" s="3">
-        <v>2320400</v>
+        <v>2338200</v>
       </c>
       <c r="F89" s="3">
-        <v>1216100</v>
+        <v>1225500</v>
       </c>
       <c r="G89" s="3">
-        <v>1516500</v>
+        <v>1528100</v>
       </c>
       <c r="H89" s="3">
-        <v>137700</v>
+        <v>138800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,7 +3372,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="E91" s="3">
         <v>-4300</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6005300</v>
+        <v>-6051300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4433700</v>
+        <v>-4467700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1181800</v>
+        <v>-1190900</v>
       </c>
       <c r="G94" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="H94" s="3">
-        <v>-48100</v>
+        <v>-48500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8109700</v>
+        <v>8171800</v>
       </c>
       <c r="E100" s="3">
-        <v>2482200</v>
+        <v>2501200</v>
       </c>
       <c r="F100" s="3">
-        <v>2715400</v>
+        <v>2736200</v>
       </c>
       <c r="G100" s="3">
-        <v>219000</v>
+        <v>220700</v>
       </c>
       <c r="H100" s="3">
-        <v>76200</v>
+        <v>76800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3712,13 +3712,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-21900</v>
+        <v>-22100</v>
       </c>
       <c r="E101" s="3">
-        <v>70500</v>
+        <v>71000</v>
       </c>
       <c r="F101" s="3">
-        <v>85600</v>
+        <v>86300</v>
       </c>
       <c r="G101" s="3">
         <v>-7500</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6496900</v>
+        <v>6546700</v>
       </c>
       <c r="E102" s="3">
-        <v>439300</v>
+        <v>442700</v>
       </c>
       <c r="F102" s="3">
-        <v>2835400</v>
+        <v>2857100</v>
       </c>
       <c r="G102" s="3">
-        <v>1739200</v>
+        <v>1752600</v>
       </c>
       <c r="H102" s="3">
-        <v>169000</v>
+        <v>170300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>PDD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,29 +714,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9385400</v>
+        <v>13844500</v>
       </c>
       <c r="E8" s="3">
-        <v>4755200</v>
+        <v>8766700</v>
       </c>
       <c r="F8" s="3">
-        <v>2069800</v>
+        <v>4441700</v>
       </c>
       <c r="G8" s="3">
-        <v>275100</v>
+        <v>1933400</v>
       </c>
       <c r="H8" s="3">
-        <v>79600</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>257000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>74400</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -750,29 +753,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3041400</v>
+        <v>4674000</v>
       </c>
       <c r="E9" s="3">
-        <v>1000000</v>
+        <v>2840900</v>
       </c>
       <c r="F9" s="3">
-        <v>458300</v>
+        <v>934100</v>
       </c>
       <c r="G9" s="3">
-        <v>114000</v>
+        <v>428100</v>
       </c>
       <c r="H9" s="3">
-        <v>91200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>106500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>85200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -786,29 +792,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6344000</v>
+        <v>9170500</v>
       </c>
       <c r="E10" s="3">
-        <v>3755200</v>
+        <v>5925800</v>
       </c>
       <c r="F10" s="3">
-        <v>1611500</v>
+        <v>3507600</v>
       </c>
       <c r="G10" s="3">
-        <v>161100</v>
+        <v>1505200</v>
       </c>
       <c r="H10" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>150500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-10800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,28 +851,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1085200</v>
+        <v>1210700</v>
       </c>
       <c r="E12" s="3">
-        <v>609000</v>
+        <v>1013700</v>
       </c>
       <c r="F12" s="3">
-        <v>175600</v>
+        <v>568800</v>
       </c>
       <c r="G12" s="3">
-        <v>20200</v>
+        <v>164100</v>
       </c>
       <c r="H12" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>18900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4300</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,29 +926,32 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>1500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -946,30 +965,33 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2700</v>
+        <v>115700</v>
       </c>
       <c r="E15" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="F15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G15" s="3">
         <v>700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,28 +1021,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10865300</v>
+        <v>12828200</v>
       </c>
       <c r="E17" s="3">
-        <v>6102200</v>
+        <v>10149000</v>
       </c>
       <c r="F17" s="3">
-        <v>3773600</v>
+        <v>5699900</v>
       </c>
       <c r="G17" s="3">
-        <v>369100</v>
+        <v>3524800</v>
       </c>
       <c r="H17" s="3">
-        <v>124800</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>344800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>116600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1031,29 +1057,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1479800</v>
+        <v>1016300</v>
       </c>
       <c r="E18" s="3">
-        <v>-1347000</v>
+        <v>-1382300</v>
       </c>
       <c r="F18" s="3">
-        <v>-1703800</v>
+        <v>-1258200</v>
       </c>
       <c r="G18" s="3">
-        <v>-94000</v>
+        <v>-1591400</v>
       </c>
       <c r="H18" s="3">
-        <v>-45200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-87800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-42200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,28 +1116,29 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>466600</v>
+        <v>594800</v>
       </c>
       <c r="E20" s="3">
-        <v>270800</v>
+        <v>435900</v>
       </c>
       <c r="F20" s="3">
-        <v>91900</v>
+        <v>252900</v>
       </c>
       <c r="G20" s="3">
-        <v>11100</v>
+        <v>85900</v>
       </c>
       <c r="H20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-800</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1119,29 +1152,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-910100</v>
+        <v>1833700</v>
       </c>
       <c r="E21" s="3">
-        <v>-975200</v>
+        <v>-849400</v>
       </c>
       <c r="F21" s="3">
-        <v>-1533200</v>
+        <v>-910300</v>
       </c>
       <c r="G21" s="3">
-        <v>-82500</v>
+        <v>-1431600</v>
       </c>
       <c r="H21" s="3">
-        <v>-45900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-77000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-42900</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1155,20 +1191,23 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>119500</v>
+        <v>181400</v>
       </c>
       <c r="E22" s="3">
-        <v>23000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>111600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>21500</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1185,35 +1224,38 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1132700</v>
+        <v>1429700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1099200</v>
+        <v>-1058000</v>
       </c>
       <c r="F23" s="3">
-        <v>-1611900</v>
+        <v>-1026700</v>
       </c>
       <c r="G23" s="3">
-        <v>-82800</v>
+        <v>-1505600</v>
       </c>
       <c r="H23" s="3">
-        <v>-46100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-77400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-43000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1227,14 +1269,17 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>284900</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1251,8 +1296,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,29 +1347,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1132700</v>
+        <v>1144800</v>
       </c>
       <c r="E26" s="3">
-        <v>-1099200</v>
+        <v>-1058000</v>
       </c>
       <c r="F26" s="3">
-        <v>-1611900</v>
+        <v>-1026700</v>
       </c>
       <c r="G26" s="3">
-        <v>-82800</v>
+        <v>-1505600</v>
       </c>
       <c r="H26" s="3">
-        <v>-46100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-77400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-43000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1335,29 +1386,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1132700</v>
+        <v>1144800</v>
       </c>
       <c r="E27" s="3">
-        <v>-1099200</v>
+        <v>-1058000</v>
       </c>
       <c r="F27" s="3">
-        <v>-1624600</v>
+        <v>-1026700</v>
       </c>
       <c r="G27" s="3">
-        <v>-78700</v>
+        <v>-1517500</v>
       </c>
       <c r="H27" s="3">
-        <v>-50900</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-73500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-47500</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,29 +1581,32 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-466600</v>
+        <v>-594800</v>
       </c>
       <c r="E32" s="3">
-        <v>-270800</v>
+        <v>-435900</v>
       </c>
       <c r="F32" s="3">
-        <v>-91900</v>
+        <v>-252900</v>
       </c>
       <c r="G32" s="3">
-        <v>-11100</v>
+        <v>-85900</v>
       </c>
       <c r="H32" s="3">
-        <v>900</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>-10400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>800</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1551,29 +1620,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1132700</v>
+        <v>1144800</v>
       </c>
       <c r="E33" s="3">
-        <v>-1099200</v>
+        <v>-1058000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1624600</v>
+        <v>-1026700</v>
       </c>
       <c r="G33" s="3">
-        <v>-78700</v>
+        <v>-1517500</v>
       </c>
       <c r="H33" s="3">
-        <v>-50900</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-73500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-47500</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,29 +1698,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1132700</v>
+        <v>1144800</v>
       </c>
       <c r="E35" s="3">
-        <v>-1099200</v>
+        <v>-1058000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1624600</v>
+        <v>-1026700</v>
       </c>
       <c r="G35" s="3">
-        <v>-78700</v>
+        <v>-1517500</v>
       </c>
       <c r="H35" s="3">
-        <v>-50900</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-73500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-47500</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1659,35 +1737,38 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,28 +1818,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3537200</v>
+        <v>947000</v>
       </c>
       <c r="E41" s="3">
-        <v>910000</v>
+        <v>3304000</v>
       </c>
       <c r="F41" s="3">
-        <v>2233900</v>
+        <v>850000</v>
       </c>
       <c r="G41" s="3">
-        <v>482500</v>
+        <v>2086700</v>
       </c>
       <c r="H41" s="3">
-        <v>208200</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>450600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>194500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1768,29 +1854,32 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10183600</v>
+        <v>12749100</v>
       </c>
       <c r="E42" s="3">
-        <v>5567200</v>
+        <v>9512200</v>
       </c>
       <c r="F42" s="3">
-        <v>1203800</v>
+        <v>5200200</v>
       </c>
       <c r="G42" s="3">
-        <v>7900</v>
+        <v>1124500</v>
       </c>
       <c r="H42" s="3">
-        <v>45800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+        <v>7400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>42700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1804,29 +1893,32 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>891400</v>
+        <v>878100</v>
       </c>
       <c r="E43" s="3">
-        <v>578200</v>
+        <v>832700</v>
       </c>
       <c r="F43" s="3">
-        <v>231200</v>
+        <v>540100</v>
       </c>
       <c r="G43" s="3">
-        <v>93600</v>
+        <v>216000</v>
       </c>
       <c r="H43" s="3">
-        <v>17700</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>87400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>16600</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1840,17 +1932,20 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>271100</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>2100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>253200</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1867,8 +1962,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1876,29 +1971,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8705600</v>
+        <v>9135200</v>
       </c>
       <c r="E45" s="3">
-        <v>4461300</v>
+        <v>8131700</v>
       </c>
       <c r="F45" s="3">
-        <v>2703100</v>
+        <v>4167200</v>
       </c>
       <c r="G45" s="3">
-        <v>1488700</v>
+        <v>2524900</v>
       </c>
       <c r="H45" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>1390500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>4600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1912,29 +2010,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23588900</v>
+        <v>23711600</v>
       </c>
       <c r="E46" s="3">
-        <v>11516700</v>
+        <v>22033800</v>
       </c>
       <c r="F46" s="3">
-        <v>6372100</v>
+        <v>10757500</v>
       </c>
       <c r="G46" s="3">
-        <v>2072600</v>
+        <v>5952000</v>
       </c>
       <c r="H46" s="3">
-        <v>276600</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>1936000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>258400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1948,9 +2049,12 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1960,17 +2064,17 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
-        <v>26400</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>24700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1984,29 +2088,32 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>131400</v>
+        <v>463000</v>
       </c>
       <c r="E48" s="3">
-        <v>88100</v>
+        <v>122700</v>
       </c>
       <c r="F48" s="3">
-        <v>4600</v>
+        <v>82300</v>
       </c>
       <c r="G48" s="3">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2020,23 +2127,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>201400</v>
+        <v>103300</v>
       </c>
       <c r="E49" s="3">
-        <v>314600</v>
+        <v>188100</v>
       </c>
       <c r="F49" s="3">
-        <v>406900</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>293900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>380100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2053,12 +2163,15 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,23 +2244,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1147800</v>
+        <v>2425200</v>
       </c>
       <c r="E52" s="3">
-        <v>79400</v>
+        <v>1072100</v>
       </c>
       <c r="F52" s="3">
-        <v>28800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>74100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>26900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2161,12 +2280,15 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,29 +2322,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25069400</v>
+        <v>26703100</v>
       </c>
       <c r="E54" s="3">
-        <v>11998800</v>
+        <v>23416800</v>
       </c>
       <c r="F54" s="3">
-        <v>6812400</v>
+        <v>11207800</v>
       </c>
       <c r="G54" s="3">
-        <v>2100500</v>
+        <v>6363300</v>
       </c>
       <c r="H54" s="3">
-        <v>279400</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>1962000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>260900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,28 +2398,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8672300</v>
+        <v>9499000</v>
       </c>
       <c r="E57" s="3">
-        <v>4721200</v>
+        <v>8100600</v>
       </c>
       <c r="F57" s="3">
-        <v>2725500</v>
+        <v>4410000</v>
       </c>
       <c r="G57" s="3">
-        <v>1552100</v>
+        <v>2545800</v>
       </c>
       <c r="H57" s="3">
-        <v>178100</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>1449800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>166300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2304,20 +2434,23 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>294400</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>141800</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>275000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>132400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2334,35 +2467,38 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4266500</v>
+        <v>4313000</v>
       </c>
       <c r="E59" s="3">
-        <v>2357300</v>
+        <v>3985200</v>
       </c>
       <c r="F59" s="3">
-        <v>1117500</v>
+        <v>2201900</v>
       </c>
       <c r="G59" s="3">
-        <v>358300</v>
+        <v>1043800</v>
       </c>
       <c r="H59" s="3">
-        <v>45100</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>334700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>42100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2376,29 +2512,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13233200</v>
+        <v>13812000</v>
       </c>
       <c r="E60" s="3">
-        <v>7220300</v>
+        <v>12360900</v>
       </c>
       <c r="F60" s="3">
-        <v>3842900</v>
+        <v>6744300</v>
       </c>
       <c r="G60" s="3">
-        <v>1910400</v>
+        <v>3589600</v>
       </c>
       <c r="H60" s="3">
-        <v>223100</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>1784500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>208400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2412,20 +2551,23 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2276900</v>
+        <v>1737200</v>
       </c>
       <c r="E61" s="3">
-        <v>821400</v>
+        <v>2126800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>767300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2448,20 +2590,23 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65900</v>
+        <v>85000</v>
       </c>
       <c r="E62" s="3">
-        <v>68800</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>61600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>64200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2478,15 +2623,18 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,29 +2746,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15576100</v>
+        <v>15634200</v>
       </c>
       <c r="E66" s="3">
-        <v>8110500</v>
+        <v>14549300</v>
       </c>
       <c r="F66" s="3">
-        <v>3842900</v>
+        <v>7575800</v>
       </c>
       <c r="G66" s="3">
-        <v>1910400</v>
+        <v>3589600</v>
       </c>
       <c r="H66" s="3">
-        <v>223100</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>1784500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>208400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>346600</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>123500</v>
+        <v>323700</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>115300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,29 +2958,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4019000</v>
+        <v>-2609200</v>
       </c>
       <c r="E72" s="3">
-        <v>-2886300</v>
+        <v>-3754000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1787100</v>
+        <v>-2696000</v>
       </c>
       <c r="G72" s="3">
-        <v>-162500</v>
+        <v>-1669300</v>
       </c>
       <c r="H72" s="3">
-        <v>-74500</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-151800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-69600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,29 +3114,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9493300</v>
+        <v>11068900</v>
       </c>
       <c r="E76" s="3">
-        <v>3888300</v>
+        <v>8867500</v>
       </c>
       <c r="F76" s="3">
-        <v>2969500</v>
+        <v>3632000</v>
       </c>
       <c r="G76" s="3">
-        <v>-156500</v>
+        <v>2773700</v>
       </c>
       <c r="H76" s="3">
-        <v>-67300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-146100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-62800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,35 +3192,38 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,29 +3236,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1132700</v>
+        <v>1144800</v>
       </c>
       <c r="E81" s="3">
-        <v>-1099200</v>
+        <v>-1058000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1624600</v>
+        <v>-1026700</v>
       </c>
       <c r="G81" s="3">
-        <v>-78700</v>
+        <v>-1517500</v>
       </c>
       <c r="H81" s="3">
-        <v>-50900</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-73500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-47500</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,29 +3295,30 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>102800</v>
+        <v>220400</v>
       </c>
       <c r="E83" s="3">
-        <v>100600</v>
+        <v>96000</v>
       </c>
       <c r="F83" s="3">
-        <v>78400</v>
+        <v>94000</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>73200</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,29 +3526,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4448300</v>
+        <v>4241500</v>
       </c>
       <c r="E89" s="3">
-        <v>2338200</v>
+        <v>4155100</v>
       </c>
       <c r="F89" s="3">
-        <v>1225500</v>
+        <v>2184000</v>
       </c>
       <c r="G89" s="3">
-        <v>1528100</v>
+        <v>1144700</v>
       </c>
       <c r="H89" s="3">
-        <v>138800</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>1427400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>129600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,28 +3585,29 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6800</v>
+        <v>-484400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4300</v>
+        <v>-6300</v>
       </c>
       <c r="F91" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1400</v>
+        <v>-4000</v>
       </c>
       <c r="H91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-1300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-300</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,29 +3699,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6051300</v>
+        <v>-5240500</v>
       </c>
       <c r="E94" s="3">
-        <v>-4467700</v>
+        <v>-5652400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1190900</v>
+        <v>-4173200</v>
       </c>
       <c r="G94" s="3">
-        <v>11300</v>
+        <v>-1112300</v>
       </c>
       <c r="H94" s="3">
-        <v>-48500</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>10600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-45300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,29 +3911,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8171800</v>
+        <v>-276300</v>
       </c>
       <c r="E100" s="3">
-        <v>2501200</v>
+        <v>7633100</v>
       </c>
       <c r="F100" s="3">
-        <v>2736200</v>
+        <v>2336400</v>
       </c>
       <c r="G100" s="3">
-        <v>220700</v>
+        <v>2555900</v>
       </c>
       <c r="H100" s="3">
-        <v>76800</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>206100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>71700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3705,29 +3950,32 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22100</v>
+        <v>-21400</v>
       </c>
       <c r="E101" s="3">
-        <v>71000</v>
+        <v>-20600</v>
       </c>
       <c r="F101" s="3">
-        <v>86300</v>
+        <v>66300</v>
       </c>
       <c r="G101" s="3">
-        <v>-7500</v>
+        <v>80600</v>
       </c>
       <c r="H101" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>-7000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>3000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3741,29 +3989,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6546700</v>
+        <v>-1296700</v>
       </c>
       <c r="E102" s="3">
-        <v>442700</v>
+        <v>6115100</v>
       </c>
       <c r="F102" s="3">
-        <v>2857100</v>
+        <v>413500</v>
       </c>
       <c r="G102" s="3">
-        <v>1752600</v>
+        <v>2668800</v>
       </c>
       <c r="H102" s="3">
-        <v>170300</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>1637000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>159100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>13844500</v>
+        <v>13719500</v>
       </c>
       <c r="E8" s="3">
-        <v>8766700</v>
+        <v>8687600</v>
       </c>
       <c r="F8" s="3">
-        <v>4441700</v>
+        <v>4401600</v>
       </c>
       <c r="G8" s="3">
-        <v>1933400</v>
+        <v>1915900</v>
       </c>
       <c r="H8" s="3">
-        <v>257000</v>
+        <v>254700</v>
       </c>
       <c r="I8" s="3">
-        <v>74400</v>
+        <v>73700</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4674000</v>
+        <v>4631800</v>
       </c>
       <c r="E9" s="3">
-        <v>2840900</v>
+        <v>2815300</v>
       </c>
       <c r="F9" s="3">
-        <v>934100</v>
+        <v>925700</v>
       </c>
       <c r="G9" s="3">
-        <v>428100</v>
+        <v>424300</v>
       </c>
       <c r="H9" s="3">
-        <v>106500</v>
+        <v>105600</v>
       </c>
       <c r="I9" s="3">
-        <v>85200</v>
+        <v>84400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>9170500</v>
+        <v>9087700</v>
       </c>
       <c r="E10" s="3">
-        <v>5925800</v>
+        <v>5872300</v>
       </c>
       <c r="F10" s="3">
-        <v>3507600</v>
+        <v>3476000</v>
       </c>
       <c r="G10" s="3">
-        <v>1505200</v>
+        <v>1491700</v>
       </c>
       <c r="H10" s="3">
-        <v>150500</v>
+        <v>149100</v>
       </c>
       <c r="I10" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,19 +858,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1210700</v>
+        <v>1199800</v>
       </c>
       <c r="E12" s="3">
-        <v>1013700</v>
+        <v>1004500</v>
       </c>
       <c r="F12" s="3">
-        <v>568800</v>
+        <v>563700</v>
       </c>
       <c r="G12" s="3">
-        <v>164100</v>
+        <v>162600</v>
       </c>
       <c r="H12" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="I12" s="3">
         <v>4300</v>
@@ -975,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>115700</v>
+        <v>114600</v>
       </c>
       <c r="E15" s="3">
         <v>2500</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12828200</v>
+        <v>12712400</v>
       </c>
       <c r="E17" s="3">
-        <v>10149000</v>
+        <v>10057400</v>
       </c>
       <c r="F17" s="3">
-        <v>5699900</v>
+        <v>5648500</v>
       </c>
       <c r="G17" s="3">
-        <v>3524800</v>
+        <v>3493000</v>
       </c>
       <c r="H17" s="3">
-        <v>344800</v>
+        <v>341700</v>
       </c>
       <c r="I17" s="3">
-        <v>116600</v>
+        <v>115500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1016300</v>
+        <v>1007100</v>
       </c>
       <c r="E18" s="3">
-        <v>-1382300</v>
+        <v>-1369800</v>
       </c>
       <c r="F18" s="3">
-        <v>-1258200</v>
+        <v>-1246800</v>
       </c>
       <c r="G18" s="3">
-        <v>-1591400</v>
+        <v>-1577100</v>
       </c>
       <c r="H18" s="3">
-        <v>-87800</v>
+        <v>-87000</v>
       </c>
       <c r="I18" s="3">
-        <v>-42200</v>
+        <v>-41800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>594800</v>
+        <v>589400</v>
       </c>
       <c r="E20" s="3">
-        <v>435900</v>
+        <v>431900</v>
       </c>
       <c r="F20" s="3">
-        <v>252900</v>
+        <v>250700</v>
       </c>
       <c r="G20" s="3">
-        <v>85900</v>
+        <v>85100</v>
       </c>
       <c r="H20" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="I20" s="3">
         <v>-800</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1833700</v>
+        <v>1814600</v>
       </c>
       <c r="E21" s="3">
-        <v>-849400</v>
+        <v>-842900</v>
       </c>
       <c r="F21" s="3">
-        <v>-910300</v>
+        <v>-903200</v>
       </c>
       <c r="G21" s="3">
-        <v>-1431600</v>
+        <v>-1419500</v>
       </c>
       <c r="H21" s="3">
-        <v>-77000</v>
+        <v>-76400</v>
       </c>
       <c r="I21" s="3">
-        <v>-42900</v>
+        <v>-42500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>181400</v>
+        <v>179800</v>
       </c>
       <c r="E22" s="3">
-        <v>111600</v>
+        <v>110600</v>
       </c>
       <c r="F22" s="3">
-        <v>21500</v>
+        <v>21300</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1429700</v>
+        <v>1416800</v>
       </c>
       <c r="E23" s="3">
-        <v>-1058000</v>
+        <v>-1048500</v>
       </c>
       <c r="F23" s="3">
-        <v>-1026700</v>
+        <v>-1017500</v>
       </c>
       <c r="G23" s="3">
-        <v>-1505600</v>
+        <v>-1492000</v>
       </c>
       <c r="H23" s="3">
-        <v>-77400</v>
+        <v>-76700</v>
       </c>
       <c r="I23" s="3">
-        <v>-43000</v>
+        <v>-42600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1279,7 +1279,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>284900</v>
+        <v>282400</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1144800</v>
+        <v>1134500</v>
       </c>
       <c r="E26" s="3">
-        <v>-1058000</v>
+        <v>-1048500</v>
       </c>
       <c r="F26" s="3">
-        <v>-1026700</v>
+        <v>-1017500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1505600</v>
+        <v>-1492000</v>
       </c>
       <c r="H26" s="3">
-        <v>-77400</v>
+        <v>-76700</v>
       </c>
       <c r="I26" s="3">
-        <v>-43000</v>
+        <v>-42600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1144800</v>
+        <v>1134500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1058000</v>
+        <v>-1048500</v>
       </c>
       <c r="F27" s="3">
-        <v>-1026700</v>
+        <v>-1017500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1517500</v>
+        <v>-1503800</v>
       </c>
       <c r="H27" s="3">
-        <v>-73500</v>
+        <v>-72800</v>
       </c>
       <c r="I27" s="3">
-        <v>-47500</v>
+        <v>-47100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1591,19 +1591,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-594800</v>
+        <v>-589400</v>
       </c>
       <c r="E32" s="3">
-        <v>-435900</v>
+        <v>-431900</v>
       </c>
       <c r="F32" s="3">
-        <v>-252900</v>
+        <v>-250700</v>
       </c>
       <c r="G32" s="3">
-        <v>-85900</v>
+        <v>-85100</v>
       </c>
       <c r="H32" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="I32" s="3">
         <v>800</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1144800</v>
+        <v>1134500</v>
       </c>
       <c r="E33" s="3">
-        <v>-1058000</v>
+        <v>-1048500</v>
       </c>
       <c r="F33" s="3">
-        <v>-1026700</v>
+        <v>-1017500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1517500</v>
+        <v>-1503800</v>
       </c>
       <c r="H33" s="3">
-        <v>-73500</v>
+        <v>-72800</v>
       </c>
       <c r="I33" s="3">
-        <v>-47500</v>
+        <v>-47100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1144800</v>
+        <v>1134500</v>
       </c>
       <c r="E35" s="3">
-        <v>-1058000</v>
+        <v>-1048500</v>
       </c>
       <c r="F35" s="3">
-        <v>-1026700</v>
+        <v>-1017500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1517500</v>
+        <v>-1503800</v>
       </c>
       <c r="H35" s="3">
-        <v>-73500</v>
+        <v>-72800</v>
       </c>
       <c r="I35" s="3">
-        <v>-47500</v>
+        <v>-47100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>947000</v>
+        <v>938500</v>
       </c>
       <c r="E41" s="3">
-        <v>3304000</v>
+        <v>3274200</v>
       </c>
       <c r="F41" s="3">
-        <v>850000</v>
+        <v>842300</v>
       </c>
       <c r="G41" s="3">
-        <v>2086700</v>
+        <v>2067800</v>
       </c>
       <c r="H41" s="3">
-        <v>450600</v>
+        <v>446600</v>
       </c>
       <c r="I41" s="3">
-        <v>194500</v>
+        <v>192700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12749100</v>
+        <v>12634000</v>
       </c>
       <c r="E42" s="3">
-        <v>9512200</v>
+        <v>9426400</v>
       </c>
       <c r="F42" s="3">
-        <v>5200200</v>
+        <v>5153200</v>
       </c>
       <c r="G42" s="3">
-        <v>1124500</v>
+        <v>1114300</v>
       </c>
       <c r="H42" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="I42" s="3">
-        <v>42700</v>
+        <v>42300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>878100</v>
+        <v>870200</v>
       </c>
       <c r="E43" s="3">
-        <v>832700</v>
+        <v>825200</v>
       </c>
       <c r="F43" s="3">
-        <v>540100</v>
+        <v>535200</v>
       </c>
       <c r="G43" s="3">
-        <v>216000</v>
+        <v>214000</v>
       </c>
       <c r="H43" s="3">
-        <v>87400</v>
+        <v>86700</v>
       </c>
       <c r="I43" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1945,7 +1945,7 @@
         <v>2100</v>
       </c>
       <c r="E44" s="3">
-        <v>253200</v>
+        <v>250900</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1981,19 +1981,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9135200</v>
+        <v>9052800</v>
       </c>
       <c r="E45" s="3">
-        <v>8131700</v>
+        <v>8058300</v>
       </c>
       <c r="F45" s="3">
-        <v>4167200</v>
+        <v>4129600</v>
       </c>
       <c r="G45" s="3">
-        <v>2524900</v>
+        <v>2502100</v>
       </c>
       <c r="H45" s="3">
-        <v>1390500</v>
+        <v>1378000</v>
       </c>
       <c r="I45" s="3">
         <v>4600</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23711600</v>
+        <v>23497600</v>
       </c>
       <c r="E46" s="3">
-        <v>22033800</v>
+        <v>21835000</v>
       </c>
       <c r="F46" s="3">
-        <v>10757500</v>
+        <v>10660400</v>
       </c>
       <c r="G46" s="3">
-        <v>5952000</v>
+        <v>5898300</v>
       </c>
       <c r="H46" s="3">
-        <v>1936000</v>
+        <v>1918500</v>
       </c>
       <c r="I46" s="3">
-        <v>258400</v>
+        <v>256100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>24700</v>
+        <v>24400</v>
       </c>
       <c r="I47" s="3">
         <v>2200</v>
@@ -2098,16 +2098,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>463000</v>
+        <v>458800</v>
       </c>
       <c r="E48" s="3">
-        <v>122700</v>
+        <v>121600</v>
       </c>
       <c r="F48" s="3">
-        <v>82300</v>
+        <v>81600</v>
       </c>
       <c r="G48" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H48" s="3">
         <v>1400</v>
@@ -2137,16 +2137,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>103300</v>
+        <v>102400</v>
       </c>
       <c r="E49" s="3">
-        <v>188100</v>
+        <v>186400</v>
       </c>
       <c r="F49" s="3">
-        <v>293900</v>
+        <v>291200</v>
       </c>
       <c r="G49" s="3">
-        <v>380100</v>
+        <v>376700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2254,16 +2254,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2425200</v>
+        <v>2403300</v>
       </c>
       <c r="E52" s="3">
-        <v>1072100</v>
+        <v>1062400</v>
       </c>
       <c r="F52" s="3">
-        <v>74100</v>
+        <v>73500</v>
       </c>
       <c r="G52" s="3">
-        <v>26900</v>
+        <v>26700</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26703100</v>
+        <v>26462100</v>
       </c>
       <c r="E54" s="3">
-        <v>23416800</v>
+        <v>23205400</v>
       </c>
       <c r="F54" s="3">
-        <v>11207800</v>
+        <v>11106700</v>
       </c>
       <c r="G54" s="3">
-        <v>6363300</v>
+        <v>6305900</v>
       </c>
       <c r="H54" s="3">
-        <v>1962000</v>
+        <v>1944300</v>
       </c>
       <c r="I54" s="3">
-        <v>260900</v>
+        <v>258600</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9499000</v>
+        <v>9413300</v>
       </c>
       <c r="E57" s="3">
-        <v>8100600</v>
+        <v>8027500</v>
       </c>
       <c r="F57" s="3">
-        <v>4410000</v>
+        <v>4370200</v>
       </c>
       <c r="G57" s="3">
-        <v>2545800</v>
+        <v>2522800</v>
       </c>
       <c r="H57" s="3">
-        <v>1449800</v>
+        <v>1436700</v>
       </c>
       <c r="I57" s="3">
-        <v>166300</v>
+        <v>164800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>275000</v>
+        <v>272500</v>
       </c>
       <c r="F58" s="3">
-        <v>132400</v>
+        <v>131200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4313000</v>
+        <v>4274100</v>
       </c>
       <c r="E59" s="3">
-        <v>3985200</v>
+        <v>3949300</v>
       </c>
       <c r="F59" s="3">
-        <v>2201900</v>
+        <v>2182100</v>
       </c>
       <c r="G59" s="3">
-        <v>1043800</v>
+        <v>1034400</v>
       </c>
       <c r="H59" s="3">
-        <v>334700</v>
+        <v>331600</v>
       </c>
       <c r="I59" s="3">
-        <v>42100</v>
+        <v>41700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13812000</v>
+        <v>13687400</v>
       </c>
       <c r="E60" s="3">
-        <v>12360900</v>
+        <v>12249300</v>
       </c>
       <c r="F60" s="3">
-        <v>6744300</v>
+        <v>6683500</v>
       </c>
       <c r="G60" s="3">
-        <v>3589600</v>
+        <v>3557200</v>
       </c>
       <c r="H60" s="3">
-        <v>1784500</v>
+        <v>1768400</v>
       </c>
       <c r="I60" s="3">
-        <v>208400</v>
+        <v>206500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,13 +2561,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1737200</v>
+        <v>1721500</v>
       </c>
       <c r="E61" s="3">
-        <v>2126800</v>
+        <v>2107600</v>
       </c>
       <c r="F61" s="3">
-        <v>767300</v>
+        <v>760300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>85000</v>
+        <v>84200</v>
       </c>
       <c r="E62" s="3">
-        <v>61600</v>
+        <v>61000</v>
       </c>
       <c r="F62" s="3">
-        <v>64200</v>
+        <v>63700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15634200</v>
+        <v>15493100</v>
       </c>
       <c r="E66" s="3">
-        <v>14549300</v>
+        <v>14417900</v>
       </c>
       <c r="F66" s="3">
-        <v>7575800</v>
+        <v>7507500</v>
       </c>
       <c r="G66" s="3">
-        <v>3589600</v>
+        <v>3557200</v>
       </c>
       <c r="H66" s="3">
-        <v>1784500</v>
+        <v>1768400</v>
       </c>
       <c r="I66" s="3">
-        <v>208400</v>
+        <v>206500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>323700</v>
+        <v>320800</v>
       </c>
       <c r="I70" s="3">
-        <v>115300</v>
+        <v>114300</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2609200</v>
+        <v>-2585700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3754000</v>
+        <v>-3720100</v>
       </c>
       <c r="F72" s="3">
-        <v>-2696000</v>
+        <v>-2671700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1669300</v>
+        <v>-1654200</v>
       </c>
       <c r="H72" s="3">
-        <v>-151800</v>
+        <v>-150400</v>
       </c>
       <c r="I72" s="3">
-        <v>-69600</v>
+        <v>-69000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11068900</v>
+        <v>10969000</v>
       </c>
       <c r="E76" s="3">
-        <v>8867500</v>
+        <v>8787500</v>
       </c>
       <c r="F76" s="3">
-        <v>3632000</v>
+        <v>3599200</v>
       </c>
       <c r="G76" s="3">
-        <v>2773700</v>
+        <v>2748700</v>
       </c>
       <c r="H76" s="3">
-        <v>-146100</v>
+        <v>-144800</v>
       </c>
       <c r="I76" s="3">
-        <v>-62800</v>
+        <v>-62200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1144800</v>
+        <v>1134500</v>
       </c>
       <c r="E81" s="3">
-        <v>-1058000</v>
+        <v>-1048500</v>
       </c>
       <c r="F81" s="3">
-        <v>-1026700</v>
+        <v>-1017500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1517500</v>
+        <v>-1503800</v>
       </c>
       <c r="H81" s="3">
-        <v>-73500</v>
+        <v>-72800</v>
       </c>
       <c r="I81" s="3">
-        <v>-47500</v>
+        <v>-47100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3302,16 +3302,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>220400</v>
+        <v>218400</v>
       </c>
       <c r="E83" s="3">
-        <v>96000</v>
+        <v>95100</v>
       </c>
       <c r="F83" s="3">
-        <v>94000</v>
+        <v>93100</v>
       </c>
       <c r="G83" s="3">
-        <v>73200</v>
+        <v>72600</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4241500</v>
+        <v>4203200</v>
       </c>
       <c r="E89" s="3">
-        <v>4155100</v>
+        <v>4117600</v>
       </c>
       <c r="F89" s="3">
-        <v>2184000</v>
+        <v>2164300</v>
       </c>
       <c r="G89" s="3">
-        <v>1144700</v>
+        <v>1134400</v>
       </c>
       <c r="H89" s="3">
-        <v>1427400</v>
+        <v>1414500</v>
       </c>
       <c r="I89" s="3">
-        <v>129600</v>
+        <v>128500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,7 +3592,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-484400</v>
+        <v>-480000</v>
       </c>
       <c r="E91" s="3">
         <v>-6300</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5240500</v>
+        <v>-5193200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5652400</v>
+        <v>-5601400</v>
       </c>
       <c r="F94" s="3">
-        <v>-4173200</v>
+        <v>-4135500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1112300</v>
+        <v>-1102300</v>
       </c>
       <c r="H94" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="I94" s="3">
-        <v>-45300</v>
+        <v>-44900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-276300</v>
+        <v>-273800</v>
       </c>
       <c r="E100" s="3">
-        <v>7633100</v>
+        <v>7564200</v>
       </c>
       <c r="F100" s="3">
-        <v>2336400</v>
+        <v>2315300</v>
       </c>
       <c r="G100" s="3">
-        <v>2555900</v>
+        <v>2532800</v>
       </c>
       <c r="H100" s="3">
-        <v>206100</v>
+        <v>204300</v>
       </c>
       <c r="I100" s="3">
-        <v>71700</v>
+        <v>71000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,16 +3960,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-21400</v>
+        <v>-21200</v>
       </c>
       <c r="E101" s="3">
-        <v>-20600</v>
+        <v>-20400</v>
       </c>
       <c r="F101" s="3">
-        <v>66300</v>
+        <v>65700</v>
       </c>
       <c r="G101" s="3">
-        <v>80600</v>
+        <v>79900</v>
       </c>
       <c r="H101" s="3">
         <v>-7000</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1296700</v>
+        <v>-1285000</v>
       </c>
       <c r="E102" s="3">
-        <v>6115100</v>
+        <v>6059900</v>
       </c>
       <c r="F102" s="3">
-        <v>413500</v>
+        <v>409800</v>
       </c>
       <c r="G102" s="3">
-        <v>2668800</v>
+        <v>2644700</v>
       </c>
       <c r="H102" s="3">
-        <v>1637000</v>
+        <v>1622300</v>
       </c>
       <c r="I102" s="3">
-        <v>159100</v>
+        <v>157600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>13719500</v>
+        <v>13077800</v>
       </c>
       <c r="E8" s="3">
-        <v>8687600</v>
+        <v>8281300</v>
       </c>
       <c r="F8" s="3">
-        <v>4401600</v>
+        <v>4195800</v>
       </c>
       <c r="G8" s="3">
-        <v>1915900</v>
+        <v>1826300</v>
       </c>
       <c r="H8" s="3">
-        <v>254700</v>
+        <v>242800</v>
       </c>
       <c r="I8" s="3">
-        <v>73700</v>
+        <v>70300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4631800</v>
+        <v>4415200</v>
       </c>
       <c r="E9" s="3">
-        <v>2815300</v>
+        <v>2683600</v>
       </c>
       <c r="F9" s="3">
-        <v>925700</v>
+        <v>882400</v>
       </c>
       <c r="G9" s="3">
-        <v>424300</v>
+        <v>404400</v>
       </c>
       <c r="H9" s="3">
-        <v>105600</v>
+        <v>100600</v>
       </c>
       <c r="I9" s="3">
-        <v>84400</v>
+        <v>80400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>9087700</v>
+        <v>8662700</v>
       </c>
       <c r="E10" s="3">
-        <v>5872300</v>
+        <v>5597700</v>
       </c>
       <c r="F10" s="3">
-        <v>3476000</v>
+        <v>3313400</v>
       </c>
       <c r="G10" s="3">
-        <v>1491700</v>
+        <v>1421900</v>
       </c>
       <c r="H10" s="3">
-        <v>149100</v>
+        <v>142200</v>
       </c>
       <c r="I10" s="3">
-        <v>-10700</v>
+        <v>-10200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1199800</v>
+        <v>1143700</v>
       </c>
       <c r="E12" s="3">
-        <v>1004500</v>
+        <v>957600</v>
       </c>
       <c r="F12" s="3">
-        <v>563700</v>
+        <v>537300</v>
       </c>
       <c r="G12" s="3">
-        <v>162600</v>
+        <v>155000</v>
       </c>
       <c r="H12" s="3">
-        <v>18700</v>
+        <v>17800</v>
       </c>
       <c r="I12" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>114600</v>
+        <v>109300</v>
       </c>
       <c r="E15" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F15" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12712400</v>
+        <v>12117800</v>
       </c>
       <c r="E17" s="3">
-        <v>10057400</v>
+        <v>9587000</v>
       </c>
       <c r="F17" s="3">
-        <v>5648500</v>
+        <v>5384300</v>
       </c>
       <c r="G17" s="3">
-        <v>3493000</v>
+        <v>3329600</v>
       </c>
       <c r="H17" s="3">
-        <v>341700</v>
+        <v>325700</v>
       </c>
       <c r="I17" s="3">
-        <v>115500</v>
+        <v>110100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1007100</v>
+        <v>960000</v>
       </c>
       <c r="E18" s="3">
-        <v>-1369800</v>
+        <v>-1305700</v>
       </c>
       <c r="F18" s="3">
-        <v>-1246800</v>
+        <v>-1188500</v>
       </c>
       <c r="G18" s="3">
-        <v>-1577100</v>
+        <v>-1503300</v>
       </c>
       <c r="H18" s="3">
-        <v>-87000</v>
+        <v>-82900</v>
       </c>
       <c r="I18" s="3">
-        <v>-41800</v>
+        <v>-39800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>589400</v>
+        <v>561900</v>
       </c>
       <c r="E20" s="3">
-        <v>431900</v>
+        <v>411700</v>
       </c>
       <c r="F20" s="3">
-        <v>250700</v>
+        <v>238900</v>
       </c>
       <c r="G20" s="3">
-        <v>85100</v>
+        <v>81100</v>
       </c>
       <c r="H20" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="I20" s="3">
         <v>-800</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1814600</v>
+        <v>1728500</v>
       </c>
       <c r="E21" s="3">
-        <v>-842900</v>
+        <v>-804000</v>
       </c>
       <c r="F21" s="3">
-        <v>-903200</v>
+        <v>-861500</v>
       </c>
       <c r="G21" s="3">
-        <v>-1419500</v>
+        <v>-1353600</v>
       </c>
       <c r="H21" s="3">
-        <v>-76400</v>
+        <v>-72800</v>
       </c>
       <c r="I21" s="3">
-        <v>-42500</v>
+        <v>-40500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>179800</v>
+        <v>171400</v>
       </c>
       <c r="E22" s="3">
-        <v>110600</v>
+        <v>105400</v>
       </c>
       <c r="F22" s="3">
-        <v>21300</v>
+        <v>20300</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1416800</v>
+        <v>1350600</v>
       </c>
       <c r="E23" s="3">
-        <v>-1048500</v>
+        <v>-999400</v>
       </c>
       <c r="F23" s="3">
-        <v>-1017500</v>
+        <v>-969900</v>
       </c>
       <c r="G23" s="3">
-        <v>-1492000</v>
+        <v>-1422200</v>
       </c>
       <c r="H23" s="3">
-        <v>-76700</v>
+        <v>-73100</v>
       </c>
       <c r="I23" s="3">
-        <v>-42600</v>
+        <v>-40600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1279,7 +1279,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>282400</v>
+        <v>269200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1134500</v>
+        <v>1081400</v>
       </c>
       <c r="E26" s="3">
-        <v>-1048500</v>
+        <v>-999400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1017500</v>
+        <v>-969900</v>
       </c>
       <c r="G26" s="3">
-        <v>-1492000</v>
+        <v>-1422200</v>
       </c>
       <c r="H26" s="3">
-        <v>-76700</v>
+        <v>-73100</v>
       </c>
       <c r="I26" s="3">
-        <v>-42600</v>
+        <v>-40600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1134500</v>
+        <v>1081400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1048500</v>
+        <v>-999400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1017500</v>
+        <v>-969900</v>
       </c>
       <c r="G27" s="3">
-        <v>-1503800</v>
+        <v>-1433400</v>
       </c>
       <c r="H27" s="3">
-        <v>-72800</v>
+        <v>-69400</v>
       </c>
       <c r="I27" s="3">
-        <v>-47100</v>
+        <v>-44900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1591,19 +1591,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-589400</v>
+        <v>-561900</v>
       </c>
       <c r="E32" s="3">
-        <v>-431900</v>
+        <v>-411700</v>
       </c>
       <c r="F32" s="3">
-        <v>-250700</v>
+        <v>-238900</v>
       </c>
       <c r="G32" s="3">
-        <v>-85100</v>
+        <v>-81100</v>
       </c>
       <c r="H32" s="3">
-        <v>-10300</v>
+        <v>-9800</v>
       </c>
       <c r="I32" s="3">
         <v>800</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1134500</v>
+        <v>1081400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1048500</v>
+        <v>-999400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1017500</v>
+        <v>-969900</v>
       </c>
       <c r="G33" s="3">
-        <v>-1503800</v>
+        <v>-1433400</v>
       </c>
       <c r="H33" s="3">
-        <v>-72800</v>
+        <v>-69400</v>
       </c>
       <c r="I33" s="3">
-        <v>-47100</v>
+        <v>-44900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1134500</v>
+        <v>1081400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1048500</v>
+        <v>-999400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1017500</v>
+        <v>-969900</v>
       </c>
       <c r="G35" s="3">
-        <v>-1503800</v>
+        <v>-1433400</v>
       </c>
       <c r="H35" s="3">
-        <v>-72800</v>
+        <v>-69400</v>
       </c>
       <c r="I35" s="3">
-        <v>-47100</v>
+        <v>-44900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>938500</v>
+        <v>894600</v>
       </c>
       <c r="E41" s="3">
-        <v>3274200</v>
+        <v>3121000</v>
       </c>
       <c r="F41" s="3">
-        <v>842300</v>
+        <v>802900</v>
       </c>
       <c r="G41" s="3">
-        <v>2067800</v>
+        <v>1971100</v>
       </c>
       <c r="H41" s="3">
-        <v>446600</v>
+        <v>425700</v>
       </c>
       <c r="I41" s="3">
-        <v>192700</v>
+        <v>183700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12634000</v>
+        <v>12043100</v>
       </c>
       <c r="E42" s="3">
-        <v>9426400</v>
+        <v>8985500</v>
       </c>
       <c r="F42" s="3">
-        <v>5153200</v>
+        <v>4912200</v>
       </c>
       <c r="G42" s="3">
-        <v>1114300</v>
+        <v>1062200</v>
       </c>
       <c r="H42" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="I42" s="3">
-        <v>42300</v>
+        <v>40400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>870200</v>
+        <v>829500</v>
       </c>
       <c r="E43" s="3">
-        <v>825200</v>
+        <v>786600</v>
       </c>
       <c r="F43" s="3">
-        <v>535200</v>
+        <v>510200</v>
       </c>
       <c r="G43" s="3">
-        <v>214000</v>
+        <v>204000</v>
       </c>
       <c r="H43" s="3">
-        <v>86700</v>
+        <v>82600</v>
       </c>
       <c r="I43" s="3">
-        <v>16400</v>
+        <v>15700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1942,10 +1942,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E44" s="3">
-        <v>250900</v>
+        <v>239200</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9052800</v>
+        <v>8629400</v>
       </c>
       <c r="E45" s="3">
-        <v>8058300</v>
+        <v>7681400</v>
       </c>
       <c r="F45" s="3">
-        <v>4129600</v>
+        <v>3936500</v>
       </c>
       <c r="G45" s="3">
-        <v>2502100</v>
+        <v>2385100</v>
       </c>
       <c r="H45" s="3">
-        <v>1378000</v>
+        <v>1313500</v>
       </c>
       <c r="I45" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23497600</v>
+        <v>22398600</v>
       </c>
       <c r="E46" s="3">
-        <v>21835000</v>
+        <v>20813700</v>
       </c>
       <c r="F46" s="3">
-        <v>10660400</v>
+        <v>10161800</v>
       </c>
       <c r="G46" s="3">
-        <v>5898300</v>
+        <v>5622400</v>
       </c>
       <c r="H46" s="3">
-        <v>1918500</v>
+        <v>1828800</v>
       </c>
       <c r="I46" s="3">
-        <v>256100</v>
+        <v>244100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2071,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>24400</v>
+        <v>23300</v>
       </c>
       <c r="I47" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2098,19 +2098,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>458800</v>
+        <v>437300</v>
       </c>
       <c r="E48" s="3">
-        <v>121600</v>
+        <v>115900</v>
       </c>
       <c r="F48" s="3">
-        <v>81600</v>
+        <v>77700</v>
       </c>
       <c r="G48" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -2137,16 +2137,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>102400</v>
+        <v>97600</v>
       </c>
       <c r="E49" s="3">
-        <v>186400</v>
+        <v>177700</v>
       </c>
       <c r="F49" s="3">
-        <v>291200</v>
+        <v>277600</v>
       </c>
       <c r="G49" s="3">
-        <v>376700</v>
+        <v>359000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2254,16 +2254,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2403300</v>
+        <v>2290900</v>
       </c>
       <c r="E52" s="3">
-        <v>1062400</v>
+        <v>1012700</v>
       </c>
       <c r="F52" s="3">
-        <v>73500</v>
+        <v>70000</v>
       </c>
       <c r="G52" s="3">
-        <v>26700</v>
+        <v>25400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26462100</v>
+        <v>25224400</v>
       </c>
       <c r="E54" s="3">
-        <v>23205400</v>
+        <v>22120100</v>
       </c>
       <c r="F54" s="3">
-        <v>11106700</v>
+        <v>10587200</v>
       </c>
       <c r="G54" s="3">
-        <v>6305900</v>
+        <v>6010900</v>
       </c>
       <c r="H54" s="3">
-        <v>1944300</v>
+        <v>1853400</v>
       </c>
       <c r="I54" s="3">
-        <v>258600</v>
+        <v>246500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9413300</v>
+        <v>8973000</v>
       </c>
       <c r="E57" s="3">
-        <v>8027500</v>
+        <v>7652000</v>
       </c>
       <c r="F57" s="3">
-        <v>4370200</v>
+        <v>4165800</v>
       </c>
       <c r="G57" s="3">
-        <v>2522800</v>
+        <v>2404800</v>
       </c>
       <c r="H57" s="3">
-        <v>1436700</v>
+        <v>1369500</v>
       </c>
       <c r="I57" s="3">
-        <v>164800</v>
+        <v>157100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>272500</v>
+        <v>259800</v>
       </c>
       <c r="F58" s="3">
-        <v>131200</v>
+        <v>125100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4274100</v>
+        <v>4074200</v>
       </c>
       <c r="E59" s="3">
-        <v>3949300</v>
+        <v>3764600</v>
       </c>
       <c r="F59" s="3">
-        <v>2182100</v>
+        <v>2080000</v>
       </c>
       <c r="G59" s="3">
-        <v>1034400</v>
+        <v>986000</v>
       </c>
       <c r="H59" s="3">
-        <v>331600</v>
+        <v>316100</v>
       </c>
       <c r="I59" s="3">
-        <v>41700</v>
+        <v>39800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13687400</v>
+        <v>13047200</v>
       </c>
       <c r="E60" s="3">
-        <v>12249300</v>
+        <v>11676400</v>
       </c>
       <c r="F60" s="3">
-        <v>6683500</v>
+        <v>6370900</v>
       </c>
       <c r="G60" s="3">
-        <v>3557200</v>
+        <v>3390800</v>
       </c>
       <c r="H60" s="3">
-        <v>1768400</v>
+        <v>1685600</v>
       </c>
       <c r="I60" s="3">
-        <v>206500</v>
+        <v>196900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,13 +2561,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1721500</v>
+        <v>1641000</v>
       </c>
       <c r="E61" s="3">
-        <v>2107600</v>
+        <v>2009000</v>
       </c>
       <c r="F61" s="3">
-        <v>760300</v>
+        <v>724800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>84200</v>
+        <v>80300</v>
       </c>
       <c r="E62" s="3">
-        <v>61000</v>
+        <v>58200</v>
       </c>
       <c r="F62" s="3">
-        <v>63700</v>
+        <v>60700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15493100</v>
+        <v>14768400</v>
       </c>
       <c r="E66" s="3">
-        <v>14417900</v>
+        <v>13743600</v>
       </c>
       <c r="F66" s="3">
-        <v>7507500</v>
+        <v>7156300</v>
       </c>
       <c r="G66" s="3">
-        <v>3557200</v>
+        <v>3390800</v>
       </c>
       <c r="H66" s="3">
-        <v>1768400</v>
+        <v>1685600</v>
       </c>
       <c r="I66" s="3">
-        <v>206500</v>
+        <v>196900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>320800</v>
+        <v>305800</v>
       </c>
       <c r="I70" s="3">
-        <v>114300</v>
+        <v>109000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2585700</v>
+        <v>-2464700</v>
       </c>
       <c r="E72" s="3">
-        <v>-3720100</v>
+        <v>-3546100</v>
       </c>
       <c r="F72" s="3">
-        <v>-2671700</v>
+        <v>-2546700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1654200</v>
+        <v>-1576800</v>
       </c>
       <c r="H72" s="3">
-        <v>-150400</v>
+        <v>-143400</v>
       </c>
       <c r="I72" s="3">
-        <v>-69000</v>
+        <v>-65800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10969000</v>
+        <v>10455900</v>
       </c>
       <c r="E76" s="3">
-        <v>8787500</v>
+        <v>8376500</v>
       </c>
       <c r="F76" s="3">
-        <v>3599200</v>
+        <v>3430800</v>
       </c>
       <c r="G76" s="3">
-        <v>2748700</v>
+        <v>2620100</v>
       </c>
       <c r="H76" s="3">
-        <v>-144800</v>
+        <v>-138100</v>
       </c>
       <c r="I76" s="3">
-        <v>-62200</v>
+        <v>-59400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1134500</v>
+        <v>1081400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1048500</v>
+        <v>-999400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1017500</v>
+        <v>-969900</v>
       </c>
       <c r="G81" s="3">
-        <v>-1503800</v>
+        <v>-1433400</v>
       </c>
       <c r="H81" s="3">
-        <v>-72800</v>
+        <v>-69400</v>
       </c>
       <c r="I81" s="3">
-        <v>-47100</v>
+        <v>-44900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3302,16 +3302,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>218400</v>
+        <v>208200</v>
       </c>
       <c r="E83" s="3">
-        <v>95100</v>
+        <v>90700</v>
       </c>
       <c r="F83" s="3">
-        <v>93100</v>
+        <v>88800</v>
       </c>
       <c r="G83" s="3">
-        <v>72600</v>
+        <v>69200</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4203200</v>
+        <v>4006600</v>
       </c>
       <c r="E89" s="3">
-        <v>4117600</v>
+        <v>3925000</v>
       </c>
       <c r="F89" s="3">
-        <v>2164300</v>
+        <v>2063100</v>
       </c>
       <c r="G89" s="3">
-        <v>1134400</v>
+        <v>1081300</v>
       </c>
       <c r="H89" s="3">
-        <v>1414500</v>
+        <v>1348300</v>
       </c>
       <c r="I89" s="3">
-        <v>128500</v>
+        <v>122500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,19 +3592,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-480000</v>
+        <v>-457600</v>
       </c>
       <c r="E91" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="F91" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="G91" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5193200</v>
+        <v>-4950300</v>
       </c>
       <c r="E94" s="3">
-        <v>-5601400</v>
+        <v>-5339400</v>
       </c>
       <c r="F94" s="3">
-        <v>-4135500</v>
+        <v>-3942100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1102300</v>
+        <v>-1050800</v>
       </c>
       <c r="H94" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="I94" s="3">
-        <v>-44900</v>
+        <v>-42800</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-273800</v>
+        <v>-261000</v>
       </c>
       <c r="E100" s="3">
-        <v>7564200</v>
+        <v>7210400</v>
       </c>
       <c r="F100" s="3">
-        <v>2315300</v>
+        <v>2207000</v>
       </c>
       <c r="G100" s="3">
-        <v>2532800</v>
+        <v>2414300</v>
       </c>
       <c r="H100" s="3">
-        <v>204300</v>
+        <v>194700</v>
       </c>
       <c r="I100" s="3">
-        <v>71000</v>
+        <v>67700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,22 +3960,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-21200</v>
+        <v>-20200</v>
       </c>
       <c r="E101" s="3">
-        <v>-20400</v>
+        <v>-19500</v>
       </c>
       <c r="F101" s="3">
-        <v>65700</v>
+        <v>62700</v>
       </c>
       <c r="G101" s="3">
-        <v>79900</v>
+        <v>76100</v>
       </c>
       <c r="H101" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="I101" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1285000</v>
+        <v>-1224900</v>
       </c>
       <c r="E102" s="3">
-        <v>6059900</v>
+        <v>5776500</v>
       </c>
       <c r="F102" s="3">
-        <v>409800</v>
+        <v>390600</v>
       </c>
       <c r="G102" s="3">
-        <v>2644700</v>
+        <v>2521000</v>
       </c>
       <c r="H102" s="3">
-        <v>1622300</v>
+        <v>1546400</v>
       </c>
       <c r="I102" s="3">
-        <v>157600</v>
+        <v>150300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -724,22 +724,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>13077800</v>
+        <v>13493100</v>
       </c>
       <c r="E8" s="3">
-        <v>8281300</v>
+        <v>8544200</v>
       </c>
       <c r="F8" s="3">
-        <v>4195800</v>
+        <v>4329000</v>
       </c>
       <c r="G8" s="3">
-        <v>1826300</v>
+        <v>1884300</v>
       </c>
       <c r="H8" s="3">
-        <v>242800</v>
+        <v>250500</v>
       </c>
       <c r="I8" s="3">
-        <v>70300</v>
+        <v>72500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -763,22 +763,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4415200</v>
+        <v>4555400</v>
       </c>
       <c r="E9" s="3">
-        <v>2683600</v>
+        <v>2768800</v>
       </c>
       <c r="F9" s="3">
-        <v>882400</v>
+        <v>910400</v>
       </c>
       <c r="G9" s="3">
-        <v>404400</v>
+        <v>417300</v>
       </c>
       <c r="H9" s="3">
-        <v>100600</v>
+        <v>103800</v>
       </c>
       <c r="I9" s="3">
-        <v>80400</v>
+        <v>83000</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -802,22 +802,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8662700</v>
+        <v>8937700</v>
       </c>
       <c r="E10" s="3">
-        <v>5597700</v>
+        <v>5775400</v>
       </c>
       <c r="F10" s="3">
-        <v>3313400</v>
+        <v>3418600</v>
       </c>
       <c r="G10" s="3">
-        <v>1421900</v>
+        <v>1467000</v>
       </c>
       <c r="H10" s="3">
-        <v>142200</v>
+        <v>146700</v>
       </c>
       <c r="I10" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1143700</v>
+        <v>1180000</v>
       </c>
       <c r="E12" s="3">
-        <v>957600</v>
+        <v>988000</v>
       </c>
       <c r="F12" s="3">
-        <v>537300</v>
+        <v>554400</v>
       </c>
       <c r="G12" s="3">
-        <v>155000</v>
+        <v>159900</v>
       </c>
       <c r="H12" s="3">
-        <v>17800</v>
+        <v>18400</v>
       </c>
       <c r="I12" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -975,16 +975,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>109300</v>
+        <v>112700</v>
       </c>
       <c r="E15" s="3">
         <v>2400</v>
       </c>
       <c r="F15" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1028,22 +1028,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12117800</v>
+        <v>12502600</v>
       </c>
       <c r="E17" s="3">
-        <v>9587000</v>
+        <v>9891400</v>
       </c>
       <c r="F17" s="3">
-        <v>5384300</v>
+        <v>5555200</v>
       </c>
       <c r="G17" s="3">
-        <v>3329600</v>
+        <v>3435400</v>
       </c>
       <c r="H17" s="3">
-        <v>325700</v>
+        <v>336000</v>
       </c>
       <c r="I17" s="3">
-        <v>110100</v>
+        <v>113600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1067,22 +1067,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>960000</v>
+        <v>990500</v>
       </c>
       <c r="E18" s="3">
-        <v>-1305700</v>
+        <v>-1347200</v>
       </c>
       <c r="F18" s="3">
-        <v>-1188500</v>
+        <v>-1226300</v>
       </c>
       <c r="G18" s="3">
-        <v>-1503300</v>
+        <v>-1551100</v>
       </c>
       <c r="H18" s="3">
-        <v>-82900</v>
+        <v>-85600</v>
       </c>
       <c r="I18" s="3">
-        <v>-39800</v>
+        <v>-41100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>561900</v>
+        <v>579700</v>
       </c>
       <c r="E20" s="3">
-        <v>411700</v>
+        <v>424800</v>
       </c>
       <c r="F20" s="3">
-        <v>238900</v>
+        <v>246500</v>
       </c>
       <c r="G20" s="3">
-        <v>81100</v>
+        <v>83700</v>
       </c>
       <c r="H20" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="I20" s="3">
         <v>-800</v>
@@ -1162,22 +1162,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1728500</v>
+        <v>1785400</v>
       </c>
       <c r="E21" s="3">
-        <v>-804000</v>
+        <v>-828600</v>
       </c>
       <c r="F21" s="3">
-        <v>-861500</v>
+        <v>-888000</v>
       </c>
       <c r="G21" s="3">
-        <v>-1353600</v>
+        <v>-1395900</v>
       </c>
       <c r="H21" s="3">
-        <v>-72800</v>
+        <v>-75100</v>
       </c>
       <c r="I21" s="3">
-        <v>-40500</v>
+        <v>-41800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1201,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>171400</v>
+        <v>176800</v>
       </c>
       <c r="E22" s="3">
-        <v>105400</v>
+        <v>108800</v>
       </c>
       <c r="F22" s="3">
-        <v>20300</v>
+        <v>20900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1240,22 +1240,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1350600</v>
+        <v>1393400</v>
       </c>
       <c r="E23" s="3">
-        <v>-999400</v>
+        <v>-1031200</v>
       </c>
       <c r="F23" s="3">
-        <v>-969900</v>
+        <v>-1000700</v>
       </c>
       <c r="G23" s="3">
-        <v>-1422200</v>
+        <v>-1467400</v>
       </c>
       <c r="H23" s="3">
-        <v>-73100</v>
+        <v>-75400</v>
       </c>
       <c r="I23" s="3">
-        <v>-40600</v>
+        <v>-41900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1279,7 +1279,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>269200</v>
+        <v>277700</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1357,22 +1357,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1081400</v>
+        <v>1115700</v>
       </c>
       <c r="E26" s="3">
-        <v>-999400</v>
+        <v>-1031200</v>
       </c>
       <c r="F26" s="3">
-        <v>-969900</v>
+        <v>-1000700</v>
       </c>
       <c r="G26" s="3">
-        <v>-1422200</v>
+        <v>-1467400</v>
       </c>
       <c r="H26" s="3">
-        <v>-73100</v>
+        <v>-75400</v>
       </c>
       <c r="I26" s="3">
-        <v>-40600</v>
+        <v>-41900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1081400</v>
+        <v>1115700</v>
       </c>
       <c r="E27" s="3">
-        <v>-999400</v>
+        <v>-1031200</v>
       </c>
       <c r="F27" s="3">
-        <v>-969900</v>
+        <v>-1000700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1433400</v>
+        <v>-1478900</v>
       </c>
       <c r="H27" s="3">
-        <v>-69400</v>
+        <v>-71600</v>
       </c>
       <c r="I27" s="3">
-        <v>-44900</v>
+        <v>-46300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1591,19 +1591,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-561900</v>
+        <v>-579700</v>
       </c>
       <c r="E32" s="3">
-        <v>-411700</v>
+        <v>-424800</v>
       </c>
       <c r="F32" s="3">
-        <v>-238900</v>
+        <v>-246500</v>
       </c>
       <c r="G32" s="3">
-        <v>-81100</v>
+        <v>-83700</v>
       </c>
       <c r="H32" s="3">
-        <v>-9800</v>
+        <v>-10100</v>
       </c>
       <c r="I32" s="3">
         <v>800</v>
@@ -1630,22 +1630,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1081400</v>
+        <v>1115700</v>
       </c>
       <c r="E33" s="3">
-        <v>-999400</v>
+        <v>-1031200</v>
       </c>
       <c r="F33" s="3">
-        <v>-969900</v>
+        <v>-1000700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1433400</v>
+        <v>-1478900</v>
       </c>
       <c r="H33" s="3">
-        <v>-69400</v>
+        <v>-71600</v>
       </c>
       <c r="I33" s="3">
-        <v>-44900</v>
+        <v>-46300</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1708,22 +1708,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1081400</v>
+        <v>1115700</v>
       </c>
       <c r="E35" s="3">
-        <v>-999400</v>
+        <v>-1031200</v>
       </c>
       <c r="F35" s="3">
-        <v>-969900</v>
+        <v>-1000700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1433400</v>
+        <v>-1478900</v>
       </c>
       <c r="H35" s="3">
-        <v>-69400</v>
+        <v>-71600</v>
       </c>
       <c r="I35" s="3">
-        <v>-44900</v>
+        <v>-46300</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1825,22 +1825,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>894600</v>
+        <v>923000</v>
       </c>
       <c r="E41" s="3">
-        <v>3121000</v>
+        <v>3220100</v>
       </c>
       <c r="F41" s="3">
-        <v>802900</v>
+        <v>828400</v>
       </c>
       <c r="G41" s="3">
-        <v>1971100</v>
+        <v>2033700</v>
       </c>
       <c r="H41" s="3">
-        <v>425700</v>
+        <v>439200</v>
       </c>
       <c r="I41" s="3">
-        <v>183700</v>
+        <v>189600</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1864,22 +1864,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12043100</v>
+        <v>12425500</v>
       </c>
       <c r="E42" s="3">
-        <v>8985500</v>
+        <v>9270800</v>
       </c>
       <c r="F42" s="3">
-        <v>4912200</v>
+        <v>5068200</v>
       </c>
       <c r="G42" s="3">
-        <v>1062200</v>
+        <v>1095900</v>
       </c>
       <c r="H42" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="I42" s="3">
-        <v>40400</v>
+        <v>41600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
@@ -1903,22 +1903,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>829500</v>
+        <v>855800</v>
       </c>
       <c r="E43" s="3">
-        <v>786600</v>
+        <v>811500</v>
       </c>
       <c r="F43" s="3">
-        <v>510200</v>
+        <v>526400</v>
       </c>
       <c r="G43" s="3">
-        <v>204000</v>
+        <v>210500</v>
       </c>
       <c r="H43" s="3">
-        <v>82600</v>
+        <v>85200</v>
       </c>
       <c r="I43" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1945,7 +1945,7 @@
         <v>2000</v>
       </c>
       <c r="E44" s="3">
-        <v>239200</v>
+        <v>246800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1981,22 +1981,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8629400</v>
+        <v>8903400</v>
       </c>
       <c r="E45" s="3">
-        <v>7681400</v>
+        <v>7925300</v>
       </c>
       <c r="F45" s="3">
-        <v>3936500</v>
+        <v>4061500</v>
       </c>
       <c r="G45" s="3">
-        <v>2385100</v>
+        <v>2460800</v>
       </c>
       <c r="H45" s="3">
-        <v>1313500</v>
+        <v>1355200</v>
       </c>
       <c r="I45" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -2020,22 +2020,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22398600</v>
+        <v>23109800</v>
       </c>
       <c r="E46" s="3">
-        <v>20813700</v>
+        <v>21474600</v>
       </c>
       <c r="F46" s="3">
-        <v>10161800</v>
+        <v>10484500</v>
       </c>
       <c r="G46" s="3">
-        <v>5622400</v>
+        <v>5801000</v>
       </c>
       <c r="H46" s="3">
-        <v>1828800</v>
+        <v>1886900</v>
       </c>
       <c r="I46" s="3">
-        <v>244100</v>
+        <v>251800</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2071,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>23300</v>
+        <v>24000</v>
       </c>
       <c r="I47" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2098,16 +2098,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>437300</v>
+        <v>451200</v>
       </c>
       <c r="E48" s="3">
-        <v>115900</v>
+        <v>119600</v>
       </c>
       <c r="F48" s="3">
-        <v>77700</v>
+        <v>80200</v>
       </c>
       <c r="G48" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H48" s="3">
         <v>1300</v>
@@ -2137,16 +2137,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>97600</v>
+        <v>100700</v>
       </c>
       <c r="E49" s="3">
-        <v>177700</v>
+        <v>183400</v>
       </c>
       <c r="F49" s="3">
-        <v>277600</v>
+        <v>286400</v>
       </c>
       <c r="G49" s="3">
-        <v>359000</v>
+        <v>370400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2254,16 +2254,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2290900</v>
+        <v>2363600</v>
       </c>
       <c r="E52" s="3">
-        <v>1012700</v>
+        <v>1044900</v>
       </c>
       <c r="F52" s="3">
-        <v>70000</v>
+        <v>72300</v>
       </c>
       <c r="G52" s="3">
-        <v>25400</v>
+        <v>26200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2332,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25224400</v>
+        <v>26025300</v>
       </c>
       <c r="E54" s="3">
-        <v>22120100</v>
+        <v>22822500</v>
       </c>
       <c r="F54" s="3">
-        <v>10587200</v>
+        <v>10923400</v>
       </c>
       <c r="G54" s="3">
-        <v>6010900</v>
+        <v>6201800</v>
       </c>
       <c r="H54" s="3">
-        <v>1853400</v>
+        <v>1912200</v>
       </c>
       <c r="I54" s="3">
-        <v>246500</v>
+        <v>254300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2405,22 +2405,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8973000</v>
+        <v>9257900</v>
       </c>
       <c r="E57" s="3">
-        <v>7652000</v>
+        <v>7895000</v>
       </c>
       <c r="F57" s="3">
-        <v>4165800</v>
+        <v>4298000</v>
       </c>
       <c r="G57" s="3">
-        <v>2404800</v>
+        <v>2481200</v>
       </c>
       <c r="H57" s="3">
-        <v>1369500</v>
+        <v>1413000</v>
       </c>
       <c r="I57" s="3">
-        <v>157100</v>
+        <v>162100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>259800</v>
+        <v>268000</v>
       </c>
       <c r="F58" s="3">
-        <v>125100</v>
+        <v>129100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4074200</v>
+        <v>4203500</v>
       </c>
       <c r="E59" s="3">
-        <v>3764600</v>
+        <v>3884100</v>
       </c>
       <c r="F59" s="3">
-        <v>2080000</v>
+        <v>2146100</v>
       </c>
       <c r="G59" s="3">
-        <v>986000</v>
+        <v>1017300</v>
       </c>
       <c r="H59" s="3">
-        <v>316100</v>
+        <v>326200</v>
       </c>
       <c r="I59" s="3">
-        <v>39800</v>
+        <v>41000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2522,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13047200</v>
+        <v>13461500</v>
       </c>
       <c r="E60" s="3">
-        <v>11676400</v>
+        <v>12047100</v>
       </c>
       <c r="F60" s="3">
-        <v>6370900</v>
+        <v>6573200</v>
       </c>
       <c r="G60" s="3">
-        <v>3390800</v>
+        <v>3498500</v>
       </c>
       <c r="H60" s="3">
-        <v>1685600</v>
+        <v>1739200</v>
       </c>
       <c r="I60" s="3">
-        <v>196900</v>
+        <v>203100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2561,13 +2561,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1641000</v>
+        <v>1693100</v>
       </c>
       <c r="E61" s="3">
-        <v>2009000</v>
+        <v>2072800</v>
       </c>
       <c r="F61" s="3">
-        <v>724800</v>
+        <v>747800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>80300</v>
+        <v>82800</v>
       </c>
       <c r="E62" s="3">
-        <v>58200</v>
+        <v>60000</v>
       </c>
       <c r="F62" s="3">
-        <v>60700</v>
+        <v>62600</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2756,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14768400</v>
+        <v>15237400</v>
       </c>
       <c r="E66" s="3">
-        <v>13743600</v>
+        <v>14180000</v>
       </c>
       <c r="F66" s="3">
-        <v>7156300</v>
+        <v>7383600</v>
       </c>
       <c r="G66" s="3">
-        <v>3390800</v>
+        <v>3498500</v>
       </c>
       <c r="H66" s="3">
-        <v>1685600</v>
+        <v>1739200</v>
       </c>
       <c r="I66" s="3">
-        <v>196900</v>
+        <v>203100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2902,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>305800</v>
+        <v>315500</v>
       </c>
       <c r="I70" s="3">
-        <v>109000</v>
+        <v>112400</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2968,22 +2968,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2464700</v>
+        <v>-2543000</v>
       </c>
       <c r="E72" s="3">
-        <v>-3546100</v>
+        <v>-3658700</v>
       </c>
       <c r="F72" s="3">
-        <v>-2546700</v>
+        <v>-2627600</v>
       </c>
       <c r="G72" s="3">
-        <v>-1576800</v>
+        <v>-1626900</v>
       </c>
       <c r="H72" s="3">
-        <v>-143400</v>
+        <v>-148000</v>
       </c>
       <c r="I72" s="3">
-        <v>-65800</v>
+        <v>-67900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3124,22 +3124,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10455900</v>
+        <v>10788000</v>
       </c>
       <c r="E76" s="3">
-        <v>8376500</v>
+        <v>8642500</v>
       </c>
       <c r="F76" s="3">
-        <v>3430800</v>
+        <v>3539800</v>
       </c>
       <c r="G76" s="3">
-        <v>2620100</v>
+        <v>2703300</v>
       </c>
       <c r="H76" s="3">
-        <v>-138100</v>
+        <v>-142400</v>
       </c>
       <c r="I76" s="3">
-        <v>-59400</v>
+        <v>-61200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1081400</v>
+        <v>1115700</v>
       </c>
       <c r="E81" s="3">
-        <v>-999400</v>
+        <v>-1031200</v>
       </c>
       <c r="F81" s="3">
-        <v>-969900</v>
+        <v>-1000700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1433400</v>
+        <v>-1478900</v>
       </c>
       <c r="H81" s="3">
-        <v>-69400</v>
+        <v>-71600</v>
       </c>
       <c r="I81" s="3">
-        <v>-44900</v>
+        <v>-46300</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3302,16 +3302,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>208200</v>
+        <v>214800</v>
       </c>
       <c r="E83" s="3">
-        <v>90700</v>
+        <v>93600</v>
       </c>
       <c r="F83" s="3">
-        <v>88800</v>
+        <v>91600</v>
       </c>
       <c r="G83" s="3">
-        <v>69200</v>
+        <v>71400</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -3536,22 +3536,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4006600</v>
+        <v>4133800</v>
       </c>
       <c r="E89" s="3">
-        <v>3925000</v>
+        <v>4049600</v>
       </c>
       <c r="F89" s="3">
-        <v>2063100</v>
+        <v>2128600</v>
       </c>
       <c r="G89" s="3">
-        <v>1081300</v>
+        <v>1115600</v>
       </c>
       <c r="H89" s="3">
-        <v>1348300</v>
+        <v>1391200</v>
       </c>
       <c r="I89" s="3">
-        <v>122500</v>
+        <v>126400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3592,19 +3592,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-457600</v>
+        <v>-472100</v>
       </c>
       <c r="E91" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="G91" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
@@ -3709,22 +3709,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4950300</v>
+        <v>-5107500</v>
       </c>
       <c r="E94" s="3">
-        <v>-5339400</v>
+        <v>-5509000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3942100</v>
+        <v>-4067300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1050800</v>
+        <v>-1084100</v>
       </c>
       <c r="H94" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="I94" s="3">
-        <v>-42800</v>
+        <v>-44100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3921,22 +3921,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-261000</v>
+        <v>-269300</v>
       </c>
       <c r="E100" s="3">
-        <v>7210400</v>
+        <v>7439400</v>
       </c>
       <c r="F100" s="3">
-        <v>2207000</v>
+        <v>2277100</v>
       </c>
       <c r="G100" s="3">
-        <v>2414300</v>
+        <v>2491000</v>
       </c>
       <c r="H100" s="3">
-        <v>194700</v>
+        <v>200900</v>
       </c>
       <c r="I100" s="3">
-        <v>67700</v>
+        <v>69900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3960,22 +3960,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20200</v>
+        <v>-20800</v>
       </c>
       <c r="E101" s="3">
-        <v>-19500</v>
+        <v>-20100</v>
       </c>
       <c r="F101" s="3">
-        <v>62700</v>
+        <v>64600</v>
       </c>
       <c r="G101" s="3">
-        <v>76100</v>
+        <v>78500</v>
       </c>
       <c r="H101" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="I101" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3999,22 +3999,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1224900</v>
+        <v>-1263800</v>
       </c>
       <c r="E102" s="3">
-        <v>5776500</v>
+        <v>5959900</v>
       </c>
       <c r="F102" s="3">
-        <v>390600</v>
+        <v>403000</v>
       </c>
       <c r="G102" s="3">
-        <v>2521000</v>
+        <v>2601100</v>
       </c>
       <c r="H102" s="3">
-        <v>1546400</v>
+        <v>1595500</v>
       </c>
       <c r="I102" s="3">
-        <v>150300</v>
+        <v>155000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>PDD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,32 +717,35 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>13493100</v>
+        <v>18558800</v>
       </c>
       <c r="E8" s="3">
-        <v>8544200</v>
+        <v>13355000</v>
       </c>
       <c r="F8" s="3">
-        <v>4329000</v>
+        <v>8456800</v>
       </c>
       <c r="G8" s="3">
-        <v>1884300</v>
+        <v>4284700</v>
       </c>
       <c r="H8" s="3">
-        <v>250500</v>
+        <v>1865000</v>
       </c>
       <c r="I8" s="3">
-        <v>72500</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>247900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>71800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -756,32 +759,35 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4555400</v>
+        <v>4472400</v>
       </c>
       <c r="E9" s="3">
-        <v>2768800</v>
+        <v>4508700</v>
       </c>
       <c r="F9" s="3">
-        <v>910400</v>
+        <v>2740500</v>
       </c>
       <c r="G9" s="3">
-        <v>417300</v>
+        <v>901100</v>
       </c>
       <c r="H9" s="3">
-        <v>103800</v>
+        <v>413000</v>
       </c>
       <c r="I9" s="3">
-        <v>83000</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>102800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>82100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -795,32 +801,35 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>8937700</v>
+        <v>14086400</v>
       </c>
       <c r="E10" s="3">
-        <v>5775400</v>
+        <v>8846300</v>
       </c>
       <c r="F10" s="3">
-        <v>3418600</v>
+        <v>5716300</v>
       </c>
       <c r="G10" s="3">
-        <v>1467000</v>
+        <v>3383600</v>
       </c>
       <c r="H10" s="3">
-        <v>146700</v>
+        <v>1452000</v>
       </c>
       <c r="I10" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>145200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-10400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,32 +864,33 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1180000</v>
+        <v>1476200</v>
       </c>
       <c r="E12" s="3">
-        <v>988000</v>
+        <v>1167900</v>
       </c>
       <c r="F12" s="3">
-        <v>554400</v>
+        <v>977900</v>
       </c>
       <c r="G12" s="3">
-        <v>159900</v>
+        <v>548700</v>
       </c>
       <c r="H12" s="3">
-        <v>18400</v>
+        <v>158300</v>
       </c>
       <c r="I12" s="3">
+        <v>18200</v>
+      </c>
+      <c r="J12" s="3">
         <v>4200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,9 +945,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,20 +960,20 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -968,33 +987,36 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>112700</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
+        <v>111600</v>
+      </c>
+      <c r="F15" s="3">
         <v>2400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,31 +1047,32 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12502600</v>
+        <v>14237100</v>
       </c>
       <c r="E17" s="3">
-        <v>9891400</v>
+        <v>12374600</v>
       </c>
       <c r="F17" s="3">
-        <v>5555200</v>
+        <v>9790200</v>
       </c>
       <c r="G17" s="3">
-        <v>3435400</v>
+        <v>5498400</v>
       </c>
       <c r="H17" s="3">
-        <v>336000</v>
+        <v>3400200</v>
       </c>
       <c r="I17" s="3">
-        <v>113600</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>332600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>112500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1060,32 +1086,35 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>990500</v>
+        <v>4321600</v>
       </c>
       <c r="E18" s="3">
-        <v>-1347200</v>
+        <v>980400</v>
       </c>
       <c r="F18" s="3">
-        <v>-1226300</v>
+        <v>-1333400</v>
       </c>
       <c r="G18" s="3">
-        <v>-1551100</v>
+        <v>-1213700</v>
       </c>
       <c r="H18" s="3">
-        <v>-85600</v>
+        <v>-1535200</v>
       </c>
       <c r="I18" s="3">
-        <v>-41100</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-84700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-40700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1099,9 +1128,12 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,32 +1149,33 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>579700</v>
+        <v>840600</v>
       </c>
       <c r="E20" s="3">
-        <v>424800</v>
+        <v>573800</v>
       </c>
       <c r="F20" s="3">
-        <v>246500</v>
+        <v>420500</v>
       </c>
       <c r="G20" s="3">
-        <v>83700</v>
+        <v>244000</v>
       </c>
       <c r="H20" s="3">
-        <v>10100</v>
+        <v>82800</v>
       </c>
       <c r="I20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,32 +1188,35 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1785400</v>
+        <v>5480100</v>
       </c>
       <c r="E21" s="3">
-        <v>-828600</v>
+        <v>1767900</v>
       </c>
       <c r="F21" s="3">
-        <v>-888000</v>
+        <v>-819800</v>
       </c>
       <c r="G21" s="3">
-        <v>-1395900</v>
+        <v>-878600</v>
       </c>
       <c r="H21" s="3">
-        <v>-75100</v>
+        <v>-1381300</v>
       </c>
       <c r="I21" s="3">
-        <v>-41800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-74300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-41400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1194,23 +1230,26 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>176800</v>
+        <v>7300</v>
       </c>
       <c r="E22" s="3">
-        <v>108800</v>
+        <v>175000</v>
       </c>
       <c r="F22" s="3">
-        <v>20900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>107700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>20700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1227,38 +1266,41 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1393400</v>
+        <v>5154900</v>
       </c>
       <c r="E23" s="3">
-        <v>-1031200</v>
+        <v>1379200</v>
       </c>
       <c r="F23" s="3">
-        <v>-1000700</v>
+        <v>-1020600</v>
       </c>
       <c r="G23" s="3">
-        <v>-1467400</v>
+        <v>-990400</v>
       </c>
       <c r="H23" s="3">
-        <v>-75400</v>
+        <v>-1452400</v>
       </c>
       <c r="I23" s="3">
-        <v>-41900</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-74600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-41500</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1272,17 +1314,20 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>277700</v>
+        <v>671800</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>274900</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1296,11 +1341,11 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1311,9 +1356,12 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,32 +1398,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1115700</v>
+        <v>4483100</v>
       </c>
       <c r="E26" s="3">
-        <v>-1031200</v>
+        <v>1104300</v>
       </c>
       <c r="F26" s="3">
-        <v>-1000700</v>
+        <v>-1020600</v>
       </c>
       <c r="G26" s="3">
-        <v>-1467400</v>
+        <v>-990400</v>
       </c>
       <c r="H26" s="3">
-        <v>-75400</v>
+        <v>-1452400</v>
       </c>
       <c r="I26" s="3">
-        <v>-41900</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-74600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-41500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1389,32 +1440,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1115700</v>
+        <v>4483100</v>
       </c>
       <c r="E27" s="3">
-        <v>-1031200</v>
+        <v>1104300</v>
       </c>
       <c r="F27" s="3">
-        <v>-1000700</v>
+        <v>-1020600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1478900</v>
+        <v>-990400</v>
       </c>
       <c r="H27" s="3">
-        <v>-71600</v>
+        <v>-1463800</v>
       </c>
       <c r="I27" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-70900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-45800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1428,9 +1482,12 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,33 +1650,36 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-579700</v>
+        <v>-840600</v>
       </c>
       <c r="E32" s="3">
-        <v>-424800</v>
+        <v>-573800</v>
       </c>
       <c r="F32" s="3">
-        <v>-246500</v>
+        <v>-420500</v>
       </c>
       <c r="G32" s="3">
-        <v>-83700</v>
+        <v>-244000</v>
       </c>
       <c r="H32" s="3">
-        <v>-10100</v>
+        <v>-82800</v>
       </c>
       <c r="I32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1623,32 +1692,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1115700</v>
+        <v>4483100</v>
       </c>
       <c r="E33" s="3">
-        <v>-1031200</v>
+        <v>1104300</v>
       </c>
       <c r="F33" s="3">
-        <v>-1000700</v>
+        <v>-1020600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1478900</v>
+        <v>-990400</v>
       </c>
       <c r="H33" s="3">
-        <v>-71600</v>
+        <v>-1463800</v>
       </c>
       <c r="I33" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-70900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-45800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1662,9 +1734,12 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,32 +1776,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1115700</v>
+        <v>4483100</v>
       </c>
       <c r="E35" s="3">
-        <v>-1031200</v>
+        <v>1104300</v>
       </c>
       <c r="F35" s="3">
-        <v>-1000700</v>
+        <v>-1020600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1478900</v>
+        <v>-990400</v>
       </c>
       <c r="H35" s="3">
-        <v>-71600</v>
+        <v>-1463800</v>
       </c>
       <c r="I35" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-70900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-45800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1740,38 +1818,41 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1784,9 +1865,12 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,31 +1904,32 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>923000</v>
+        <v>4879500</v>
       </c>
       <c r="E41" s="3">
-        <v>3220100</v>
+        <v>913600</v>
       </c>
       <c r="F41" s="3">
-        <v>828400</v>
+        <v>3187200</v>
       </c>
       <c r="G41" s="3">
-        <v>2033700</v>
+        <v>819900</v>
       </c>
       <c r="H41" s="3">
-        <v>439200</v>
+        <v>2012900</v>
       </c>
       <c r="I41" s="3">
-        <v>189600</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>434700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>187600</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1857,32 +1943,35 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12425500</v>
+        <v>16363200</v>
       </c>
       <c r="E42" s="3">
-        <v>9270800</v>
+        <v>12298300</v>
       </c>
       <c r="F42" s="3">
-        <v>5068200</v>
+        <v>9175900</v>
       </c>
       <c r="G42" s="3">
-        <v>1095900</v>
+        <v>5016300</v>
       </c>
       <c r="H42" s="3">
-        <v>7200</v>
+        <v>1084700</v>
       </c>
       <c r="I42" s="3">
-        <v>41600</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>7100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>41200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1896,32 +1985,35 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>855800</v>
+        <v>1045200</v>
       </c>
       <c r="E43" s="3">
-        <v>811500</v>
+        <v>847100</v>
       </c>
       <c r="F43" s="3">
-        <v>526400</v>
+        <v>803200</v>
       </c>
       <c r="G43" s="3">
-        <v>210500</v>
+        <v>521000</v>
       </c>
       <c r="H43" s="3">
-        <v>85200</v>
+        <v>208300</v>
       </c>
       <c r="I43" s="3">
-        <v>16200</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>84400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>16000</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1935,20 +2027,23 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3">
         <v>2000</v>
       </c>
-      <c r="E44" s="3">
-        <v>246800</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3">
+        <v>244300</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1965,8 +2060,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -1974,32 +2069,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8903400</v>
+        <v>8504400</v>
       </c>
       <c r="E45" s="3">
-        <v>7925300</v>
+        <v>8812200</v>
       </c>
       <c r="F45" s="3">
-        <v>4061500</v>
+        <v>7844200</v>
       </c>
       <c r="G45" s="3">
-        <v>2460800</v>
+        <v>4019900</v>
       </c>
       <c r="H45" s="3">
-        <v>1355200</v>
+        <v>2435600</v>
       </c>
       <c r="I45" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>1341400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4400</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2013,32 +2111,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23109800</v>
+        <v>30792200</v>
       </c>
       <c r="E46" s="3">
-        <v>21474600</v>
+        <v>22873200</v>
       </c>
       <c r="F46" s="3">
-        <v>10484500</v>
+        <v>21254800</v>
       </c>
       <c r="G46" s="3">
-        <v>5801000</v>
+        <v>10377200</v>
       </c>
       <c r="H46" s="3">
-        <v>1886900</v>
+        <v>5741600</v>
       </c>
       <c r="I46" s="3">
-        <v>251800</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>1867500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>249300</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2052,9 +2153,12 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2067,17 +2171,17 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>23800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2091,33 +2195,36 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>451200</v>
+        <v>349800</v>
       </c>
       <c r="E48" s="3">
-        <v>119600</v>
+        <v>446600</v>
       </c>
       <c r="F48" s="3">
-        <v>80200</v>
+        <v>118400</v>
       </c>
       <c r="G48" s="3">
-        <v>4200</v>
+        <v>79400</v>
       </c>
       <c r="H48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2130,26 +2237,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100700</v>
+        <v>19000</v>
       </c>
       <c r="E49" s="3">
-        <v>183400</v>
+        <v>99700</v>
       </c>
       <c r="F49" s="3">
-        <v>286400</v>
+        <v>181500</v>
       </c>
       <c r="G49" s="3">
-        <v>370400</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>283500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>366700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2166,12 +2276,15 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,26 +2363,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2363600</v>
+        <v>2545500</v>
       </c>
       <c r="E52" s="3">
-        <v>1044900</v>
+        <v>2339400</v>
       </c>
       <c r="F52" s="3">
-        <v>72300</v>
+        <v>1034200</v>
       </c>
       <c r="G52" s="3">
-        <v>26200</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>71500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>26000</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2283,12 +2402,15 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,32 +2447,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26025300</v>
+        <v>33706600</v>
       </c>
       <c r="E54" s="3">
-        <v>22822500</v>
+        <v>25759000</v>
       </c>
       <c r="F54" s="3">
-        <v>10923400</v>
+        <v>22588900</v>
       </c>
       <c r="G54" s="3">
-        <v>6201800</v>
+        <v>10811600</v>
       </c>
       <c r="H54" s="3">
-        <v>1912200</v>
+        <v>6138300</v>
       </c>
       <c r="I54" s="3">
-        <v>254300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>1892700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>251700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2364,9 +2489,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,31 +2528,32 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9257900</v>
+        <v>9566100</v>
       </c>
       <c r="E57" s="3">
-        <v>7895000</v>
+        <v>9163200</v>
       </c>
       <c r="F57" s="3">
-        <v>4298000</v>
+        <v>7814200</v>
       </c>
       <c r="G57" s="3">
-        <v>2481200</v>
+        <v>4254100</v>
       </c>
       <c r="H57" s="3">
-        <v>1413000</v>
+        <v>2455800</v>
       </c>
       <c r="I57" s="3">
-        <v>162100</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>1398500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>160400</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2437,23 +2567,26 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1973900</v>
       </c>
       <c r="E58" s="3">
-        <v>268000</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>129100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>265300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>127800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2470,38 +2603,41 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4203500</v>
+        <v>5075900</v>
       </c>
       <c r="E59" s="3">
-        <v>3884100</v>
+        <v>4160500</v>
       </c>
       <c r="F59" s="3">
-        <v>2146100</v>
+        <v>3844300</v>
       </c>
       <c r="G59" s="3">
-        <v>1017300</v>
+        <v>2124100</v>
       </c>
       <c r="H59" s="3">
-        <v>326200</v>
+        <v>1006900</v>
       </c>
       <c r="I59" s="3">
-        <v>41000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>322800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>40600</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2515,32 +2651,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13461500</v>
+        <v>16615800</v>
       </c>
       <c r="E60" s="3">
-        <v>12047100</v>
+        <v>13323700</v>
       </c>
       <c r="F60" s="3">
-        <v>6573200</v>
+        <v>11923800</v>
       </c>
       <c r="G60" s="3">
-        <v>3498500</v>
+        <v>6505900</v>
       </c>
       <c r="H60" s="3">
-        <v>1739200</v>
+        <v>3462700</v>
       </c>
       <c r="I60" s="3">
-        <v>203100</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>1721400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>201000</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2554,23 +2693,26 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1693100</v>
+        <v>224000</v>
       </c>
       <c r="E61" s="3">
-        <v>2072800</v>
+        <v>1675800</v>
       </c>
       <c r="F61" s="3">
-        <v>747800</v>
+        <v>2051600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>740100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2593,23 +2735,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>82800</v>
+        <v>125600</v>
       </c>
       <c r="E62" s="3">
-        <v>60000</v>
+        <v>82000</v>
       </c>
       <c r="F62" s="3">
-        <v>62600</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>59400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>62000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2626,15 +2771,18 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,32 +2903,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15237400</v>
+        <v>16965500</v>
       </c>
       <c r="E66" s="3">
-        <v>14180000</v>
+        <v>15081400</v>
       </c>
       <c r="F66" s="3">
-        <v>7383600</v>
+        <v>14034900</v>
       </c>
       <c r="G66" s="3">
-        <v>3498500</v>
+        <v>7308000</v>
       </c>
       <c r="H66" s="3">
-        <v>1739200</v>
+        <v>3462700</v>
       </c>
       <c r="I66" s="3">
-        <v>203100</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>1721400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>201000</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2788,9 +2945,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2902,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>315500</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>112400</v>
+        <v>312300</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>111300</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,32 +3131,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2543000</v>
+        <v>2160400</v>
       </c>
       <c r="E72" s="3">
-        <v>-3658700</v>
+        <v>-2517000</v>
       </c>
       <c r="F72" s="3">
-        <v>-2627600</v>
+        <v>-3621300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1626900</v>
+        <v>-2600700</v>
       </c>
       <c r="H72" s="3">
-        <v>-148000</v>
+        <v>-1610300</v>
       </c>
       <c r="I72" s="3">
-        <v>-67900</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-146400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-67200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3000,9 +3173,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,32 +3299,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10788000</v>
+        <v>16741100</v>
       </c>
       <c r="E76" s="3">
-        <v>8642500</v>
+        <v>10677500</v>
       </c>
       <c r="F76" s="3">
-        <v>3539800</v>
+        <v>8554000</v>
       </c>
       <c r="G76" s="3">
-        <v>2703300</v>
+        <v>3503600</v>
       </c>
       <c r="H76" s="3">
-        <v>-142400</v>
+        <v>2675600</v>
       </c>
       <c r="I76" s="3">
-        <v>-61200</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-141000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-60600</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3156,9 +3341,12 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,38 +3383,41 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3239,32 +3430,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1115700</v>
+        <v>4483100</v>
       </c>
       <c r="E81" s="3">
-        <v>-1031200</v>
+        <v>1104300</v>
       </c>
       <c r="F81" s="3">
-        <v>-1000700</v>
+        <v>-1020600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1478900</v>
+        <v>-990400</v>
       </c>
       <c r="H81" s="3">
-        <v>-71600</v>
+        <v>-1463800</v>
       </c>
       <c r="I81" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-70900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-45800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3278,9 +3472,12 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,32 +3493,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>214800</v>
+        <v>316200</v>
       </c>
       <c r="E83" s="3">
-        <v>93600</v>
+        <v>212600</v>
       </c>
       <c r="F83" s="3">
-        <v>91600</v>
+        <v>92600</v>
       </c>
       <c r="G83" s="3">
-        <v>71400</v>
+        <v>90700</v>
       </c>
       <c r="H83" s="3">
+        <v>70600</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,32 +3742,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4133800</v>
+        <v>6895400</v>
       </c>
       <c r="E89" s="3">
-        <v>4049600</v>
+        <v>4091500</v>
       </c>
       <c r="F89" s="3">
-        <v>2128600</v>
+        <v>4008200</v>
       </c>
       <c r="G89" s="3">
-        <v>1115600</v>
+        <v>2106800</v>
       </c>
       <c r="H89" s="3">
-        <v>1391200</v>
+        <v>1104200</v>
       </c>
       <c r="I89" s="3">
-        <v>126400</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>1376900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>125100</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3568,9 +3784,12 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,32 +3805,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-472100</v>
+        <v>-90400</v>
       </c>
       <c r="E91" s="3">
-        <v>-6200</v>
+        <v>-467300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3900</v>
+        <v>-6100</v>
       </c>
       <c r="G91" s="3">
         <v>-3900</v>
       </c>
       <c r="H91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3624,9 +3844,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,32 +3928,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5107500</v>
+        <v>-3178700</v>
       </c>
       <c r="E94" s="3">
-        <v>-5509000</v>
+        <v>-5055200</v>
       </c>
       <c r="F94" s="3">
-        <v>-4067300</v>
+        <v>-5452600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1084100</v>
+        <v>-4025600</v>
       </c>
       <c r="H94" s="3">
-        <v>10300</v>
+        <v>-1073000</v>
       </c>
       <c r="I94" s="3">
-        <v>-44100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>10200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-43700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3741,9 +3970,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,32 +4156,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-269300</v>
+        <v>1400</v>
       </c>
       <c r="E100" s="3">
-        <v>7439400</v>
+        <v>-266600</v>
       </c>
       <c r="F100" s="3">
-        <v>2277100</v>
+        <v>7363200</v>
       </c>
       <c r="G100" s="3">
-        <v>2491000</v>
+        <v>2253800</v>
       </c>
       <c r="H100" s="3">
-        <v>200900</v>
+        <v>2465500</v>
       </c>
       <c r="I100" s="3">
-        <v>69900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>198800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>69200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3953,33 +4198,36 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20800</v>
+        <v>14200</v>
       </c>
       <c r="E101" s="3">
-        <v>-20100</v>
+        <v>-20600</v>
       </c>
       <c r="F101" s="3">
-        <v>64600</v>
+        <v>-19900</v>
       </c>
       <c r="G101" s="3">
-        <v>78500</v>
+        <v>64000</v>
       </c>
       <c r="H101" s="3">
+        <v>77700</v>
+      </c>
+      <c r="I101" s="3">
         <v>-6800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2900</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3992,32 +4240,35 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1263800</v>
+        <v>3732400</v>
       </c>
       <c r="E102" s="3">
-        <v>5959900</v>
+        <v>-1250900</v>
       </c>
       <c r="F102" s="3">
-        <v>403000</v>
+        <v>5898900</v>
       </c>
       <c r="G102" s="3">
-        <v>2601100</v>
+        <v>398900</v>
       </c>
       <c r="H102" s="3">
-        <v>1595500</v>
+        <v>2574400</v>
       </c>
       <c r="I102" s="3">
-        <v>155000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>1579200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>153400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -4031,7 +4282,10 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>18558800</v>
+        <v>17988200</v>
       </c>
       <c r="E8" s="3">
-        <v>13355000</v>
+        <v>12944400</v>
       </c>
       <c r="F8" s="3">
-        <v>8456800</v>
+        <v>8196800</v>
       </c>
       <c r="G8" s="3">
-        <v>4284700</v>
+        <v>4152900</v>
       </c>
       <c r="H8" s="3">
-        <v>1865000</v>
+        <v>1807700</v>
       </c>
       <c r="I8" s="3">
-        <v>247900</v>
+        <v>240300</v>
       </c>
       <c r="J8" s="3">
-        <v>71800</v>
+        <v>69600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4472400</v>
+        <v>4334900</v>
       </c>
       <c r="E9" s="3">
-        <v>4508700</v>
+        <v>4370100</v>
       </c>
       <c r="F9" s="3">
-        <v>2740500</v>
+        <v>2656200</v>
       </c>
       <c r="G9" s="3">
-        <v>901100</v>
+        <v>873400</v>
       </c>
       <c r="H9" s="3">
-        <v>413000</v>
+        <v>400300</v>
       </c>
       <c r="I9" s="3">
-        <v>102800</v>
+        <v>99600</v>
       </c>
       <c r="J9" s="3">
-        <v>82100</v>
+        <v>79600</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -811,25 +811,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14086400</v>
+        <v>13653300</v>
       </c>
       <c r="E10" s="3">
-        <v>8846300</v>
+        <v>8574300</v>
       </c>
       <c r="F10" s="3">
-        <v>5716300</v>
+        <v>5540600</v>
       </c>
       <c r="G10" s="3">
-        <v>3383600</v>
+        <v>3279600</v>
       </c>
       <c r="H10" s="3">
-        <v>1452000</v>
+        <v>1407400</v>
       </c>
       <c r="I10" s="3">
-        <v>145200</v>
+        <v>140700</v>
       </c>
       <c r="J10" s="3">
-        <v>-10400</v>
+        <v>-10100</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1476200</v>
+        <v>1430800</v>
       </c>
       <c r="E12" s="3">
-        <v>1167900</v>
+        <v>1132000</v>
       </c>
       <c r="F12" s="3">
-        <v>977900</v>
+        <v>947800</v>
       </c>
       <c r="G12" s="3">
-        <v>548700</v>
+        <v>531900</v>
       </c>
       <c r="H12" s="3">
-        <v>158300</v>
+        <v>153400</v>
       </c>
       <c r="I12" s="3">
-        <v>18200</v>
+        <v>17700</v>
       </c>
       <c r="J12" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -1000,16 +1000,16 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>111600</v>
+        <v>108100</v>
       </c>
       <c r="F15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G15" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H15" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14237100</v>
+        <v>13799400</v>
       </c>
       <c r="E17" s="3">
-        <v>12374600</v>
+        <v>11994200</v>
       </c>
       <c r="F17" s="3">
-        <v>9790200</v>
+        <v>9489200</v>
       </c>
       <c r="G17" s="3">
-        <v>5498400</v>
+        <v>5329300</v>
       </c>
       <c r="H17" s="3">
-        <v>3400200</v>
+        <v>3295700</v>
       </c>
       <c r="I17" s="3">
-        <v>332600</v>
+        <v>322400</v>
       </c>
       <c r="J17" s="3">
-        <v>112500</v>
+        <v>109000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4321600</v>
+        <v>4188800</v>
       </c>
       <c r="E18" s="3">
-        <v>980400</v>
+        <v>950200</v>
       </c>
       <c r="F18" s="3">
-        <v>-1333400</v>
+        <v>-1292400</v>
       </c>
       <c r="G18" s="3">
-        <v>-1213700</v>
+        <v>-1176400</v>
       </c>
       <c r="H18" s="3">
-        <v>-1535200</v>
+        <v>-1488000</v>
       </c>
       <c r="I18" s="3">
-        <v>-84700</v>
+        <v>-82100</v>
       </c>
       <c r="J18" s="3">
-        <v>-40700</v>
+        <v>-39400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>840600</v>
+        <v>814800</v>
       </c>
       <c r="E20" s="3">
-        <v>573800</v>
+        <v>556100</v>
       </c>
       <c r="F20" s="3">
-        <v>420500</v>
+        <v>407500</v>
       </c>
       <c r="G20" s="3">
-        <v>244000</v>
+        <v>236500</v>
       </c>
       <c r="H20" s="3">
-        <v>82800</v>
+        <v>80300</v>
       </c>
       <c r="I20" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="J20" s="3">
         <v>-800</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5480100</v>
+        <v>5310000</v>
       </c>
       <c r="E21" s="3">
-        <v>1767900</v>
+        <v>1712400</v>
       </c>
       <c r="F21" s="3">
-        <v>-819800</v>
+        <v>-795100</v>
       </c>
       <c r="G21" s="3">
-        <v>-878600</v>
+        <v>-852000</v>
       </c>
       <c r="H21" s="3">
-        <v>-1381300</v>
+        <v>-1339200</v>
       </c>
       <c r="I21" s="3">
-        <v>-74300</v>
+        <v>-72000</v>
       </c>
       <c r="J21" s="3">
-        <v>-41400</v>
+        <v>-40100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1240,16 +1240,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="E22" s="3">
-        <v>175000</v>
+        <v>169600</v>
       </c>
       <c r="F22" s="3">
-        <v>107700</v>
+        <v>104300</v>
       </c>
       <c r="G22" s="3">
-        <v>20700</v>
+        <v>20100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5154900</v>
+        <v>4996400</v>
       </c>
       <c r="E23" s="3">
-        <v>1379200</v>
+        <v>1336800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1020600</v>
+        <v>-989200</v>
       </c>
       <c r="G23" s="3">
-        <v>-990400</v>
+        <v>-960000</v>
       </c>
       <c r="H23" s="3">
-        <v>-1452400</v>
+        <v>-1407700</v>
       </c>
       <c r="I23" s="3">
-        <v>-74600</v>
+        <v>-72400</v>
       </c>
       <c r="J23" s="3">
-        <v>-41500</v>
+        <v>-40200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1324,10 +1324,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>671800</v>
+        <v>651100</v>
       </c>
       <c r="E24" s="3">
-        <v>274900</v>
+        <v>266400</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4483100</v>
+        <v>4345300</v>
       </c>
       <c r="E26" s="3">
-        <v>1104300</v>
+        <v>1070400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1020600</v>
+        <v>-989200</v>
       </c>
       <c r="G26" s="3">
-        <v>-990400</v>
+        <v>-960000</v>
       </c>
       <c r="H26" s="3">
-        <v>-1452400</v>
+        <v>-1407700</v>
       </c>
       <c r="I26" s="3">
-        <v>-74600</v>
+        <v>-72400</v>
       </c>
       <c r="J26" s="3">
-        <v>-41500</v>
+        <v>-40200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4483100</v>
+        <v>4345300</v>
       </c>
       <c r="E27" s="3">
-        <v>1104300</v>
+        <v>1070400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1020600</v>
+        <v>-989200</v>
       </c>
       <c r="G27" s="3">
-        <v>-990400</v>
+        <v>-960000</v>
       </c>
       <c r="H27" s="3">
-        <v>-1463800</v>
+        <v>-1418800</v>
       </c>
       <c r="I27" s="3">
-        <v>-70900</v>
+        <v>-68700</v>
       </c>
       <c r="J27" s="3">
-        <v>-45800</v>
+        <v>-44400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1660,22 +1660,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-840600</v>
+        <v>-814800</v>
       </c>
       <c r="E32" s="3">
-        <v>-573800</v>
+        <v>-556100</v>
       </c>
       <c r="F32" s="3">
-        <v>-420500</v>
+        <v>-407500</v>
       </c>
       <c r="G32" s="3">
-        <v>-244000</v>
+        <v>-236500</v>
       </c>
       <c r="H32" s="3">
-        <v>-82800</v>
+        <v>-80300</v>
       </c>
       <c r="I32" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="J32" s="3">
         <v>800</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4483100</v>
+        <v>4345300</v>
       </c>
       <c r="E33" s="3">
-        <v>1104300</v>
+        <v>1070400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1020600</v>
+        <v>-989200</v>
       </c>
       <c r="G33" s="3">
-        <v>-990400</v>
+        <v>-960000</v>
       </c>
       <c r="H33" s="3">
-        <v>-1463800</v>
+        <v>-1418800</v>
       </c>
       <c r="I33" s="3">
-        <v>-70900</v>
+        <v>-68700</v>
       </c>
       <c r="J33" s="3">
-        <v>-45800</v>
+        <v>-44400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4483100</v>
+        <v>4345300</v>
       </c>
       <c r="E35" s="3">
-        <v>1104300</v>
+        <v>1070400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1020600</v>
+        <v>-989200</v>
       </c>
       <c r="G35" s="3">
-        <v>-990400</v>
+        <v>-960000</v>
       </c>
       <c r="H35" s="3">
-        <v>-1463800</v>
+        <v>-1418800</v>
       </c>
       <c r="I35" s="3">
-        <v>-70900</v>
+        <v>-68700</v>
       </c>
       <c r="J35" s="3">
-        <v>-45800</v>
+        <v>-44400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4879500</v>
+        <v>4729500</v>
       </c>
       <c r="E41" s="3">
-        <v>913600</v>
+        <v>885500</v>
       </c>
       <c r="F41" s="3">
-        <v>3187200</v>
+        <v>3089200</v>
       </c>
       <c r="G41" s="3">
-        <v>819900</v>
+        <v>794700</v>
       </c>
       <c r="H41" s="3">
-        <v>2012900</v>
+        <v>1951000</v>
       </c>
       <c r="I41" s="3">
-        <v>434700</v>
+        <v>421400</v>
       </c>
       <c r="J41" s="3">
-        <v>187600</v>
+        <v>181800</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16363200</v>
+        <v>15860200</v>
       </c>
       <c r="E42" s="3">
-        <v>12298300</v>
+        <v>11920300</v>
       </c>
       <c r="F42" s="3">
-        <v>9175900</v>
+        <v>8893800</v>
       </c>
       <c r="G42" s="3">
-        <v>5016300</v>
+        <v>4862100</v>
       </c>
       <c r="H42" s="3">
-        <v>1084700</v>
+        <v>1051400</v>
       </c>
       <c r="I42" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="J42" s="3">
-        <v>41200</v>
+        <v>40000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1045200</v>
+        <v>1013000</v>
       </c>
       <c r="E43" s="3">
-        <v>847100</v>
+        <v>821000</v>
       </c>
       <c r="F43" s="3">
-        <v>803200</v>
+        <v>778500</v>
       </c>
       <c r="G43" s="3">
-        <v>521000</v>
+        <v>505000</v>
       </c>
       <c r="H43" s="3">
-        <v>208300</v>
+        <v>201900</v>
       </c>
       <c r="I43" s="3">
-        <v>84400</v>
+        <v>81800</v>
       </c>
       <c r="J43" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2043,7 +2043,7 @@
         <v>2000</v>
       </c>
       <c r="F44" s="3">
-        <v>244300</v>
+        <v>236800</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8504400</v>
+        <v>8242900</v>
       </c>
       <c r="E45" s="3">
-        <v>8812200</v>
+        <v>8541300</v>
       </c>
       <c r="F45" s="3">
-        <v>7844200</v>
+        <v>7603100</v>
       </c>
       <c r="G45" s="3">
-        <v>4019900</v>
+        <v>3896300</v>
       </c>
       <c r="H45" s="3">
-        <v>2435600</v>
+        <v>2360800</v>
       </c>
       <c r="I45" s="3">
-        <v>1341400</v>
+        <v>1300100</v>
       </c>
       <c r="J45" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30792200</v>
+        <v>29845600</v>
       </c>
       <c r="E46" s="3">
-        <v>22873200</v>
+        <v>22170100</v>
       </c>
       <c r="F46" s="3">
-        <v>21254800</v>
+        <v>20601400</v>
       </c>
       <c r="G46" s="3">
-        <v>10377200</v>
+        <v>10058100</v>
       </c>
       <c r="H46" s="3">
-        <v>5741600</v>
+        <v>5565100</v>
       </c>
       <c r="I46" s="3">
-        <v>1867500</v>
+        <v>1810100</v>
       </c>
       <c r="J46" s="3">
-        <v>249300</v>
+        <v>241600</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>23800</v>
+        <v>23100</v>
       </c>
       <c r="J47" s="3">
         <v>2100</v>
@@ -2205,19 +2205,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>349800</v>
+        <v>339100</v>
       </c>
       <c r="E48" s="3">
-        <v>446600</v>
+        <v>432900</v>
       </c>
       <c r="F48" s="3">
-        <v>118400</v>
+        <v>114700</v>
       </c>
       <c r="G48" s="3">
-        <v>79400</v>
+        <v>76900</v>
       </c>
       <c r="H48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I48" s="3">
         <v>1300</v>
@@ -2247,19 +2247,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="E49" s="3">
-        <v>99700</v>
+        <v>96600</v>
       </c>
       <c r="F49" s="3">
-        <v>181500</v>
+        <v>175900</v>
       </c>
       <c r="G49" s="3">
-        <v>283500</v>
+        <v>274800</v>
       </c>
       <c r="H49" s="3">
-        <v>366700</v>
+        <v>355400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2373,19 +2373,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2545500</v>
+        <v>2467200</v>
       </c>
       <c r="E52" s="3">
-        <v>2339400</v>
+        <v>2267500</v>
       </c>
       <c r="F52" s="3">
-        <v>1034200</v>
+        <v>1002400</v>
       </c>
       <c r="G52" s="3">
-        <v>71500</v>
+        <v>69300</v>
       </c>
       <c r="H52" s="3">
-        <v>26000</v>
+        <v>25200</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33706600</v>
+        <v>32670400</v>
       </c>
       <c r="E54" s="3">
-        <v>25759000</v>
+        <v>24967100</v>
       </c>
       <c r="F54" s="3">
-        <v>22588900</v>
+        <v>21894400</v>
       </c>
       <c r="G54" s="3">
-        <v>10811600</v>
+        <v>10479200</v>
       </c>
       <c r="H54" s="3">
-        <v>6138300</v>
+        <v>5949600</v>
       </c>
       <c r="I54" s="3">
-        <v>1892700</v>
+        <v>1834500</v>
       </c>
       <c r="J54" s="3">
-        <v>251700</v>
+        <v>244000</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9566100</v>
+        <v>9272000</v>
       </c>
       <c r="E57" s="3">
-        <v>9163200</v>
+        <v>8881500</v>
       </c>
       <c r="F57" s="3">
-        <v>7814200</v>
+        <v>7574000</v>
       </c>
       <c r="G57" s="3">
-        <v>4254100</v>
+        <v>4123300</v>
       </c>
       <c r="H57" s="3">
-        <v>2455800</v>
+        <v>2380300</v>
       </c>
       <c r="I57" s="3">
-        <v>1398500</v>
+        <v>1355600</v>
       </c>
       <c r="J57" s="3">
-        <v>160400</v>
+        <v>155500</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2577,16 +2577,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1973900</v>
+        <v>1913200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>265300</v>
+        <v>257100</v>
       </c>
       <c r="G58" s="3">
-        <v>127800</v>
+        <v>123800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5075900</v>
+        <v>4919900</v>
       </c>
       <c r="E59" s="3">
-        <v>4160500</v>
+        <v>4032600</v>
       </c>
       <c r="F59" s="3">
-        <v>3844300</v>
+        <v>3726200</v>
       </c>
       <c r="G59" s="3">
-        <v>2124100</v>
+        <v>2058800</v>
       </c>
       <c r="H59" s="3">
-        <v>1006900</v>
+        <v>976000</v>
       </c>
       <c r="I59" s="3">
-        <v>322800</v>
+        <v>312900</v>
       </c>
       <c r="J59" s="3">
-        <v>40600</v>
+        <v>39300</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16615800</v>
+        <v>16105000</v>
       </c>
       <c r="E60" s="3">
-        <v>13323700</v>
+        <v>12914100</v>
       </c>
       <c r="F60" s="3">
-        <v>11923800</v>
+        <v>11557300</v>
       </c>
       <c r="G60" s="3">
-        <v>6505900</v>
+        <v>6305900</v>
       </c>
       <c r="H60" s="3">
-        <v>3462700</v>
+        <v>3356200</v>
       </c>
       <c r="I60" s="3">
-        <v>1721400</v>
+        <v>1668400</v>
       </c>
       <c r="J60" s="3">
-        <v>201000</v>
+        <v>194900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2703,16 +2703,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>224000</v>
+        <v>217100</v>
       </c>
       <c r="E61" s="3">
-        <v>1675800</v>
+        <v>1624300</v>
       </c>
       <c r="F61" s="3">
-        <v>2051600</v>
+        <v>1988600</v>
       </c>
       <c r="G61" s="3">
-        <v>740100</v>
+        <v>717400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2745,16 +2745,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>125600</v>
+        <v>121800</v>
       </c>
       <c r="E62" s="3">
-        <v>82000</v>
+        <v>79400</v>
       </c>
       <c r="F62" s="3">
-        <v>59400</v>
+        <v>57600</v>
       </c>
       <c r="G62" s="3">
-        <v>62000</v>
+        <v>60100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16965500</v>
+        <v>16443900</v>
       </c>
       <c r="E66" s="3">
-        <v>15081400</v>
+        <v>14617800</v>
       </c>
       <c r="F66" s="3">
-        <v>14034900</v>
+        <v>13603400</v>
       </c>
       <c r="G66" s="3">
-        <v>7308000</v>
+        <v>7083300</v>
       </c>
       <c r="H66" s="3">
-        <v>3462700</v>
+        <v>3356200</v>
       </c>
       <c r="I66" s="3">
-        <v>1721400</v>
+        <v>1668400</v>
       </c>
       <c r="J66" s="3">
-        <v>201000</v>
+        <v>194900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>312300</v>
+        <v>302700</v>
       </c>
       <c r="J70" s="3">
-        <v>111300</v>
+        <v>107800</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2160400</v>
+        <v>2094000</v>
       </c>
       <c r="E72" s="3">
-        <v>-2517000</v>
+        <v>-2439600</v>
       </c>
       <c r="F72" s="3">
-        <v>-3621300</v>
+        <v>-3510000</v>
       </c>
       <c r="G72" s="3">
-        <v>-2600700</v>
+        <v>-2520700</v>
       </c>
       <c r="H72" s="3">
-        <v>-1610300</v>
+        <v>-1560800</v>
       </c>
       <c r="I72" s="3">
-        <v>-146400</v>
+        <v>-141900</v>
       </c>
       <c r="J72" s="3">
-        <v>-67200</v>
+        <v>-65100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16741100</v>
+        <v>16226500</v>
       </c>
       <c r="E76" s="3">
-        <v>10677500</v>
+        <v>10349300</v>
       </c>
       <c r="F76" s="3">
-        <v>8554000</v>
+        <v>8291000</v>
       </c>
       <c r="G76" s="3">
-        <v>3503600</v>
+        <v>3395800</v>
       </c>
       <c r="H76" s="3">
-        <v>2675600</v>
+        <v>2593400</v>
       </c>
       <c r="I76" s="3">
-        <v>-141000</v>
+        <v>-136700</v>
       </c>
       <c r="J76" s="3">
-        <v>-60600</v>
+        <v>-58700</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4483100</v>
+        <v>4345300</v>
       </c>
       <c r="E81" s="3">
-        <v>1104300</v>
+        <v>1070400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1020600</v>
+        <v>-989200</v>
       </c>
       <c r="G81" s="3">
-        <v>-990400</v>
+        <v>-960000</v>
       </c>
       <c r="H81" s="3">
-        <v>-1463800</v>
+        <v>-1418800</v>
       </c>
       <c r="I81" s="3">
-        <v>-70900</v>
+        <v>-68700</v>
       </c>
       <c r="J81" s="3">
-        <v>-45800</v>
+        <v>-44400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3500,19 +3500,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>316200</v>
+        <v>306400</v>
       </c>
       <c r="E83" s="3">
-        <v>212600</v>
+        <v>206000</v>
       </c>
       <c r="F83" s="3">
-        <v>92600</v>
+        <v>89800</v>
       </c>
       <c r="G83" s="3">
-        <v>90700</v>
+        <v>87900</v>
       </c>
       <c r="H83" s="3">
-        <v>70600</v>
+        <v>68500</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6895400</v>
+        <v>6683400</v>
       </c>
       <c r="E89" s="3">
-        <v>4091500</v>
+        <v>3965700</v>
       </c>
       <c r="F89" s="3">
-        <v>4008200</v>
+        <v>3884900</v>
       </c>
       <c r="G89" s="3">
-        <v>2106800</v>
+        <v>2042000</v>
       </c>
       <c r="H89" s="3">
-        <v>1104200</v>
+        <v>1070300</v>
       </c>
       <c r="I89" s="3">
-        <v>1376900</v>
+        <v>1334600</v>
       </c>
       <c r="J89" s="3">
-        <v>125100</v>
+        <v>121200</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3812,22 +3812,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-90400</v>
+        <v>-87600</v>
       </c>
       <c r="E91" s="3">
-        <v>-467300</v>
+        <v>-452900</v>
       </c>
       <c r="F91" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="G91" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="H91" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3178700</v>
+        <v>-3081000</v>
       </c>
       <c r="E94" s="3">
-        <v>-5055200</v>
+        <v>-4899800</v>
       </c>
       <c r="F94" s="3">
-        <v>-5452600</v>
+        <v>-5285000</v>
       </c>
       <c r="G94" s="3">
-        <v>-4025600</v>
+        <v>-3901900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1073000</v>
+        <v>-1040000</v>
       </c>
       <c r="I94" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="J94" s="3">
-        <v>-43700</v>
+        <v>-42300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4169,22 +4169,22 @@
         <v>1400</v>
       </c>
       <c r="E100" s="3">
-        <v>-266600</v>
+        <v>-258400</v>
       </c>
       <c r="F100" s="3">
-        <v>7363200</v>
+        <v>7136900</v>
       </c>
       <c r="G100" s="3">
-        <v>2253800</v>
+        <v>2184500</v>
       </c>
       <c r="H100" s="3">
-        <v>2465500</v>
+        <v>2389700</v>
       </c>
       <c r="I100" s="3">
-        <v>198800</v>
+        <v>192700</v>
       </c>
       <c r="J100" s="3">
-        <v>69200</v>
+        <v>67000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14200</v>
+        <v>13800</v>
       </c>
       <c r="E101" s="3">
-        <v>-20600</v>
+        <v>-20000</v>
       </c>
       <c r="F101" s="3">
-        <v>-19900</v>
+        <v>-19300</v>
       </c>
       <c r="G101" s="3">
-        <v>64000</v>
+        <v>62000</v>
       </c>
       <c r="H101" s="3">
-        <v>77700</v>
+        <v>75400</v>
       </c>
       <c r="I101" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="J101" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3732400</v>
+        <v>3617600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1250900</v>
+        <v>-1212400</v>
       </c>
       <c r="F102" s="3">
-        <v>5898900</v>
+        <v>5717600</v>
       </c>
       <c r="G102" s="3">
-        <v>398900</v>
+        <v>386600</v>
       </c>
       <c r="H102" s="3">
-        <v>2574400</v>
+        <v>2495300</v>
       </c>
       <c r="I102" s="3">
-        <v>1579200</v>
+        <v>1530600</v>
       </c>
       <c r="J102" s="3">
-        <v>153400</v>
+        <v>148700</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PDD_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>17988200</v>
+        <v>18027400</v>
       </c>
       <c r="E8" s="3">
-        <v>12944400</v>
+        <v>12972600</v>
       </c>
       <c r="F8" s="3">
-        <v>8196800</v>
+        <v>8214600</v>
       </c>
       <c r="G8" s="3">
-        <v>4152900</v>
+        <v>4162000</v>
       </c>
       <c r="H8" s="3">
-        <v>1807700</v>
+        <v>1811600</v>
       </c>
       <c r="I8" s="3">
-        <v>240300</v>
+        <v>240800</v>
       </c>
       <c r="J8" s="3">
-        <v>69600</v>
+        <v>69700</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -769,25 +769,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4334900</v>
+        <v>4344300</v>
       </c>
       <c r="E9" s="3">
-        <v>4370100</v>
+        <v>4379600</v>
       </c>
       <c r="F9" s="3">
-        <v>2656200</v>
+        <v>2662000</v>
       </c>
       <c r="G9" s="3">
-        <v>873400</v>
+        <v>875300</v>
       </c>
       <c r="H9" s="3">
-        <v>400300</v>
+        <v>401200</v>
       </c>
       <c r="I9" s="3">
-        <v>99600</v>
+        <v>99800</v>
       </c>
       <c r="J9" s="3">
-        <v>79600</v>
+        <v>79800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -811,22 +811,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13653300</v>
+        <v>13683100</v>
       </c>
       <c r="E10" s="3">
-        <v>8574300</v>
+        <v>8593000</v>
       </c>
       <c r="F10" s="3">
-        <v>5540600</v>
+        <v>5552600</v>
       </c>
       <c r="G10" s="3">
-        <v>3279600</v>
+        <v>3286700</v>
       </c>
       <c r="H10" s="3">
-        <v>1407400</v>
+        <v>1410500</v>
       </c>
       <c r="I10" s="3">
-        <v>140700</v>
+        <v>141000</v>
       </c>
       <c r="J10" s="3">
         <v>-10100</v>
@@ -871,19 +871,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1430800</v>
+        <v>1433900</v>
       </c>
       <c r="E12" s="3">
-        <v>1132000</v>
+        <v>1134500</v>
       </c>
       <c r="F12" s="3">
-        <v>947800</v>
+        <v>949900</v>
       </c>
       <c r="G12" s="3">
-        <v>531900</v>
+        <v>533000</v>
       </c>
       <c r="H12" s="3">
-        <v>153400</v>
+        <v>153700</v>
       </c>
       <c r="I12" s="3">
         <v>17700</v>
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>108100</v>
+        <v>108400</v>
       </c>
       <c r="F15" s="3">
         <v>2300</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13799400</v>
+        <v>13829500</v>
       </c>
       <c r="E17" s="3">
-        <v>11994200</v>
+        <v>12020300</v>
       </c>
       <c r="F17" s="3">
-        <v>9489200</v>
+        <v>9509900</v>
       </c>
       <c r="G17" s="3">
-        <v>5329300</v>
+        <v>5340900</v>
       </c>
       <c r="H17" s="3">
-        <v>3295700</v>
+        <v>3302800</v>
       </c>
       <c r="I17" s="3">
-        <v>322400</v>
+        <v>323100</v>
       </c>
       <c r="J17" s="3">
-        <v>109000</v>
+        <v>109200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4188800</v>
+        <v>4197900</v>
       </c>
       <c r="E18" s="3">
-        <v>950200</v>
+        <v>952300</v>
       </c>
       <c r="F18" s="3">
-        <v>-1292400</v>
+        <v>-1295200</v>
       </c>
       <c r="G18" s="3">
-        <v>-1176400</v>
+        <v>-1179000</v>
       </c>
       <c r="H18" s="3">
-        <v>-1488000</v>
+        <v>-1491200</v>
       </c>
       <c r="I18" s="3">
-        <v>-82100</v>
+        <v>-82300</v>
       </c>
       <c r="J18" s="3">
-        <v>-39400</v>
+        <v>-39500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>814800</v>
+        <v>816500</v>
       </c>
       <c r="E20" s="3">
-        <v>556100</v>
+        <v>557400</v>
       </c>
       <c r="F20" s="3">
-        <v>407500</v>
+        <v>408400</v>
       </c>
       <c r="G20" s="3">
-        <v>236500</v>
+        <v>237000</v>
       </c>
       <c r="H20" s="3">
-        <v>80300</v>
+        <v>80400</v>
       </c>
       <c r="I20" s="3">
         <v>9700</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5310000</v>
+        <v>5321400</v>
       </c>
       <c r="E21" s="3">
-        <v>1712400</v>
+        <v>1716000</v>
       </c>
       <c r="F21" s="3">
-        <v>-795100</v>
+        <v>-796900</v>
       </c>
       <c r="G21" s="3">
-        <v>-852000</v>
+        <v>-853900</v>
       </c>
       <c r="H21" s="3">
-        <v>-1339200</v>
+        <v>-1342200</v>
       </c>
       <c r="I21" s="3">
-        <v>-72000</v>
+        <v>-72200</v>
       </c>
       <c r="J21" s="3">
-        <v>-40100</v>
+        <v>-40200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1243,10 +1243,10 @@
         <v>7100</v>
       </c>
       <c r="E22" s="3">
-        <v>169600</v>
+        <v>170000</v>
       </c>
       <c r="F22" s="3">
-        <v>104300</v>
+        <v>104600</v>
       </c>
       <c r="G22" s="3">
         <v>20100</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4996400</v>
+        <v>5007300</v>
       </c>
       <c r="E23" s="3">
-        <v>1336800</v>
+        <v>1339700</v>
       </c>
       <c r="F23" s="3">
-        <v>-989200</v>
+        <v>-991400</v>
       </c>
       <c r="G23" s="3">
-        <v>-960000</v>
+        <v>-962100</v>
       </c>
       <c r="H23" s="3">
-        <v>-1407700</v>
+        <v>-1410800</v>
       </c>
       <c r="I23" s="3">
-        <v>-72400</v>
+        <v>-72500</v>
       </c>
       <c r="J23" s="3">
-        <v>-40200</v>
+        <v>-40300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1324,10 +1324,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>651100</v>
+        <v>652500</v>
       </c>
       <c r="E24" s="3">
-        <v>266400</v>
+        <v>267000</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4345300</v>
+        <v>4354800</v>
       </c>
       <c r="E26" s="3">
-        <v>1070400</v>
+        <v>1072700</v>
       </c>
       <c r="F26" s="3">
-        <v>-989200</v>
+        <v>-991400</v>
       </c>
       <c r="G26" s="3">
-        <v>-960000</v>
+        <v>-962100</v>
       </c>
       <c r="H26" s="3">
-        <v>-1407700</v>
+        <v>-1410800</v>
       </c>
       <c r="I26" s="3">
-        <v>-72400</v>
+        <v>-72500</v>
       </c>
       <c r="J26" s="3">
-        <v>-40200</v>
+        <v>-40300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4345300</v>
+        <v>4354800</v>
       </c>
       <c r="E27" s="3">
-        <v>1070400</v>
+        <v>1072700</v>
       </c>
       <c r="F27" s="3">
-        <v>-989200</v>
+        <v>-991400</v>
       </c>
       <c r="G27" s="3">
-        <v>-960000</v>
+        <v>-962100</v>
       </c>
       <c r="H27" s="3">
-        <v>-1418800</v>
+        <v>-1421900</v>
       </c>
       <c r="I27" s="3">
-        <v>-68700</v>
+        <v>-68900</v>
       </c>
       <c r="J27" s="3">
-        <v>-44400</v>
+        <v>-44500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1660,19 +1660,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-814800</v>
+        <v>-816500</v>
       </c>
       <c r="E32" s="3">
-        <v>-556100</v>
+        <v>-557400</v>
       </c>
       <c r="F32" s="3">
-        <v>-407500</v>
+        <v>-408400</v>
       </c>
       <c r="G32" s="3">
-        <v>-236500</v>
+        <v>-237000</v>
       </c>
       <c r="H32" s="3">
-        <v>-80300</v>
+        <v>-80400</v>
       </c>
       <c r="I32" s="3">
         <v>-9700</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4345300</v>
+        <v>4354800</v>
       </c>
       <c r="E33" s="3">
-        <v>1070400</v>
+        <v>1072700</v>
       </c>
       <c r="F33" s="3">
-        <v>-989200</v>
+        <v>-991400</v>
       </c>
       <c r="G33" s="3">
-        <v>-960000</v>
+        <v>-962100</v>
       </c>
       <c r="H33" s="3">
-        <v>-1418800</v>
+        <v>-1421900</v>
       </c>
       <c r="I33" s="3">
-        <v>-68700</v>
+        <v>-68900</v>
       </c>
       <c r="J33" s="3">
-        <v>-44400</v>
+        <v>-44500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4345300</v>
+        <v>4354800</v>
       </c>
       <c r="E35" s="3">
-        <v>1070400</v>
+        <v>1072700</v>
       </c>
       <c r="F35" s="3">
-        <v>-989200</v>
+        <v>-991400</v>
       </c>
       <c r="G35" s="3">
-        <v>-960000</v>
+        <v>-962100</v>
       </c>
       <c r="H35" s="3">
-        <v>-1418800</v>
+        <v>-1421900</v>
       </c>
       <c r="I35" s="3">
-        <v>-68700</v>
+        <v>-68900</v>
       </c>
       <c r="J35" s="3">
-        <v>-44400</v>
+        <v>-44500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4729500</v>
+        <v>4739800</v>
       </c>
       <c r="E41" s="3">
-        <v>885500</v>
+        <v>887400</v>
       </c>
       <c r="F41" s="3">
-        <v>3089200</v>
+        <v>3095900</v>
       </c>
       <c r="G41" s="3">
-        <v>794700</v>
+        <v>796500</v>
       </c>
       <c r="H41" s="3">
-        <v>1951000</v>
+        <v>1955300</v>
       </c>
       <c r="I41" s="3">
-        <v>421400</v>
+        <v>422300</v>
       </c>
       <c r="J41" s="3">
-        <v>181800</v>
+        <v>182200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1953,19 +1953,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15860200</v>
+        <v>15894700</v>
       </c>
       <c r="E42" s="3">
-        <v>11920300</v>
+        <v>11946200</v>
       </c>
       <c r="F42" s="3">
-        <v>8893800</v>
+        <v>8913200</v>
       </c>
       <c r="G42" s="3">
-        <v>4862100</v>
+        <v>4872700</v>
       </c>
       <c r="H42" s="3">
-        <v>1051400</v>
+        <v>1053600</v>
       </c>
       <c r="I42" s="3">
         <v>6900</v>
@@ -1995,22 +1995,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1013000</v>
+        <v>1015200</v>
       </c>
       <c r="E43" s="3">
-        <v>821000</v>
+        <v>822800</v>
       </c>
       <c r="F43" s="3">
-        <v>778500</v>
+        <v>780200</v>
       </c>
       <c r="G43" s="3">
-        <v>505000</v>
+        <v>506100</v>
       </c>
       <c r="H43" s="3">
-        <v>201900</v>
+        <v>202400</v>
       </c>
       <c r="I43" s="3">
-        <v>81800</v>
+        <v>81900</v>
       </c>
       <c r="J43" s="3">
         <v>15500</v>
@@ -2043,7 +2043,7 @@
         <v>2000</v>
       </c>
       <c r="F44" s="3">
-        <v>236800</v>
+        <v>237300</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -2079,22 +2079,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8242900</v>
+        <v>8260900</v>
       </c>
       <c r="E45" s="3">
-        <v>8541300</v>
+        <v>8559900</v>
       </c>
       <c r="F45" s="3">
-        <v>7603100</v>
+        <v>7619600</v>
       </c>
       <c r="G45" s="3">
-        <v>3896300</v>
+        <v>3904800</v>
       </c>
       <c r="H45" s="3">
-        <v>2360800</v>
+        <v>2365900</v>
       </c>
       <c r="I45" s="3">
-        <v>1300100</v>
+        <v>1303000</v>
       </c>
       <c r="J45" s="3">
         <v>4300</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29845600</v>
+        <v>29910600</v>
       </c>
       <c r="E46" s="3">
-        <v>22170100</v>
+        <v>22218300</v>
       </c>
       <c r="F46" s="3">
-        <v>20601400</v>
+        <v>20646300</v>
       </c>
       <c r="G46" s="3">
-        <v>10058100</v>
+        <v>10080000</v>
       </c>
       <c r="H46" s="3">
-        <v>5565100</v>
+        <v>5577200</v>
       </c>
       <c r="I46" s="3">
-        <v>1810100</v>
+        <v>1814100</v>
       </c>
       <c r="J46" s="3">
-        <v>241600</v>
+        <v>242100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2205,16 +2205,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>339100</v>
+        <v>339800</v>
       </c>
       <c r="E48" s="3">
-        <v>432900</v>
+        <v>433800</v>
       </c>
       <c r="F48" s="3">
-        <v>114700</v>
+        <v>115000</v>
       </c>
       <c r="G48" s="3">
-        <v>76900</v>
+        <v>77100</v>
       </c>
       <c r="H48" s="3">
         <v>4000</v>
@@ -2250,16 +2250,16 @@
         <v>18500</v>
       </c>
       <c r="E49" s="3">
-        <v>96600</v>
+        <v>96800</v>
       </c>
       <c r="F49" s="3">
-        <v>175900</v>
+        <v>176300</v>
       </c>
       <c r="G49" s="3">
-        <v>274800</v>
+        <v>275400</v>
       </c>
       <c r="H49" s="3">
-        <v>355400</v>
+        <v>356200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2373,16 +2373,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2467200</v>
+        <v>2472600</v>
       </c>
       <c r="E52" s="3">
-        <v>2267500</v>
+        <v>2272400</v>
       </c>
       <c r="F52" s="3">
-        <v>1002400</v>
+        <v>1004600</v>
       </c>
       <c r="G52" s="3">
-        <v>69300</v>
+        <v>69500</v>
       </c>
       <c r="H52" s="3">
         <v>25200</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32670400</v>
+        <v>32741500</v>
       </c>
       <c r="E54" s="3">
-        <v>24967100</v>
+        <v>25021400</v>
       </c>
       <c r="F54" s="3">
-        <v>21894400</v>
+        <v>21942100</v>
       </c>
       <c r="G54" s="3">
-        <v>10479200</v>
+        <v>10502000</v>
       </c>
       <c r="H54" s="3">
-        <v>5949600</v>
+        <v>5962600</v>
       </c>
       <c r="I54" s="3">
-        <v>1834500</v>
+        <v>1838500</v>
       </c>
       <c r="J54" s="3">
-        <v>244000</v>
+        <v>244500</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9272000</v>
+        <v>9292200</v>
       </c>
       <c r="E57" s="3">
-        <v>8881500</v>
+        <v>8900800</v>
       </c>
       <c r="F57" s="3">
-        <v>7574000</v>
+        <v>7590500</v>
       </c>
       <c r="G57" s="3">
-        <v>4123300</v>
+        <v>4132200</v>
       </c>
       <c r="H57" s="3">
-        <v>2380300</v>
+        <v>2385500</v>
       </c>
       <c r="I57" s="3">
-        <v>1355600</v>
+        <v>1358500</v>
       </c>
       <c r="J57" s="3">
-        <v>155500</v>
+        <v>155900</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2577,16 +2577,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1913200</v>
+        <v>1917300</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>257100</v>
+        <v>257700</v>
       </c>
       <c r="G58" s="3">
-        <v>123800</v>
+        <v>124100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4919900</v>
+        <v>4930600</v>
       </c>
       <c r="E59" s="3">
-        <v>4032600</v>
+        <v>4041400</v>
       </c>
       <c r="F59" s="3">
-        <v>3726200</v>
+        <v>3734300</v>
       </c>
       <c r="G59" s="3">
-        <v>2058800</v>
+        <v>2063300</v>
       </c>
       <c r="H59" s="3">
-        <v>976000</v>
+        <v>978100</v>
       </c>
       <c r="I59" s="3">
-        <v>312900</v>
+        <v>313600</v>
       </c>
       <c r="J59" s="3">
-        <v>39300</v>
+        <v>39400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16105000</v>
+        <v>16140100</v>
       </c>
       <c r="E60" s="3">
-        <v>12914100</v>
+        <v>12942200</v>
       </c>
       <c r="F60" s="3">
-        <v>11557300</v>
+        <v>11582400</v>
       </c>
       <c r="G60" s="3">
-        <v>6305900</v>
+        <v>6319600</v>
       </c>
       <c r="H60" s="3">
-        <v>3356200</v>
+        <v>3363600</v>
       </c>
       <c r="I60" s="3">
-        <v>1668400</v>
+        <v>1672100</v>
       </c>
       <c r="J60" s="3">
-        <v>194900</v>
+        <v>195300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2703,16 +2703,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>217100</v>
+        <v>217600</v>
       </c>
       <c r="E61" s="3">
-        <v>1624300</v>
+        <v>1627800</v>
       </c>
       <c r="F61" s="3">
-        <v>1988600</v>
+        <v>1992900</v>
       </c>
       <c r="G61" s="3">
-        <v>717400</v>
+        <v>718900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2745,16 +2745,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>121800</v>
+        <v>122000</v>
       </c>
       <c r="E62" s="3">
-        <v>79400</v>
+        <v>79600</v>
       </c>
       <c r="F62" s="3">
-        <v>57600</v>
+        <v>57700</v>
       </c>
       <c r="G62" s="3">
-        <v>60100</v>
+        <v>60200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16443900</v>
+        <v>16479700</v>
       </c>
       <c r="E66" s="3">
-        <v>14617800</v>
+        <v>14649600</v>
       </c>
       <c r="F66" s="3">
-        <v>13603400</v>
+        <v>13633000</v>
       </c>
       <c r="G66" s="3">
-        <v>7083300</v>
+        <v>7098800</v>
       </c>
       <c r="H66" s="3">
-        <v>3356200</v>
+        <v>3363600</v>
       </c>
       <c r="I66" s="3">
-        <v>1668400</v>
+        <v>1672100</v>
       </c>
       <c r="J66" s="3">
-        <v>194900</v>
+        <v>195300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>302700</v>
+        <v>303400</v>
       </c>
       <c r="J70" s="3">
-        <v>107800</v>
+        <v>108100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2094000</v>
+        <v>2098500</v>
       </c>
       <c r="E72" s="3">
-        <v>-2439600</v>
+        <v>-2444900</v>
       </c>
       <c r="F72" s="3">
-        <v>-3510000</v>
+        <v>-3517600</v>
       </c>
       <c r="G72" s="3">
-        <v>-2520700</v>
+        <v>-2526200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1560800</v>
+        <v>-1564200</v>
       </c>
       <c r="I72" s="3">
-        <v>-141900</v>
+        <v>-142300</v>
       </c>
       <c r="J72" s="3">
-        <v>-65100</v>
+        <v>-65200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16226500</v>
+        <v>16261800</v>
       </c>
       <c r="E76" s="3">
-        <v>10349300</v>
+        <v>10371800</v>
       </c>
       <c r="F76" s="3">
-        <v>8291000</v>
+        <v>8309100</v>
       </c>
       <c r="G76" s="3">
-        <v>3395800</v>
+        <v>3403200</v>
       </c>
       <c r="H76" s="3">
-        <v>2593400</v>
+        <v>2599000</v>
       </c>
       <c r="I76" s="3">
-        <v>-136700</v>
+        <v>-137000</v>
       </c>
       <c r="J76" s="3">
-        <v>-58700</v>
+        <v>-58900</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4345300</v>
+        <v>4354800</v>
       </c>
       <c r="E81" s="3">
-        <v>1070400</v>
+        <v>1072700</v>
       </c>
       <c r="F81" s="3">
-        <v>-989200</v>
+        <v>-991400</v>
       </c>
       <c r="G81" s="3">
-        <v>-960000</v>
+        <v>-962100</v>
       </c>
       <c r="H81" s="3">
-        <v>-1418800</v>
+        <v>-1421900</v>
       </c>
       <c r="I81" s="3">
-        <v>-68700</v>
+        <v>-68900</v>
       </c>
       <c r="J81" s="3">
-        <v>-44400</v>
+        <v>-44500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3500,19 +3500,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>306400</v>
+        <v>307100</v>
       </c>
       <c r="E83" s="3">
-        <v>206000</v>
+        <v>206500</v>
       </c>
       <c r="F83" s="3">
-        <v>89800</v>
+        <v>90000</v>
       </c>
       <c r="G83" s="3">
-        <v>87900</v>
+        <v>88100</v>
       </c>
       <c r="H83" s="3">
-        <v>68500</v>
+        <v>68600</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6683400</v>
+        <v>6698000</v>
       </c>
       <c r="E89" s="3">
-        <v>3965700</v>
+        <v>3974400</v>
       </c>
       <c r="F89" s="3">
-        <v>3884900</v>
+        <v>3893400</v>
       </c>
       <c r="G89" s="3">
-        <v>2042000</v>
+        <v>2046500</v>
       </c>
       <c r="H89" s="3">
-        <v>1070300</v>
+        <v>1072600</v>
       </c>
       <c r="I89" s="3">
-        <v>1334600</v>
+        <v>1337500</v>
       </c>
       <c r="J89" s="3">
-        <v>121200</v>
+        <v>121500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3812,10 +3812,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-87600</v>
+        <v>-87800</v>
       </c>
       <c r="E91" s="3">
-        <v>-452900</v>
+        <v>-453900</v>
       </c>
       <c r="F91" s="3">
         <v>-5900</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3081000</v>
+        <v>-3087700</v>
       </c>
       <c r="E94" s="3">
-        <v>-4899800</v>
+        <v>-4910500</v>
       </c>
       <c r="F94" s="3">
-        <v>-5285000</v>
+        <v>-5296500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3901900</v>
+        <v>-3910400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1040000</v>
+        <v>-1042300</v>
       </c>
       <c r="I94" s="3">
         <v>9900</v>
       </c>
       <c r="J94" s="3">
-        <v>-42300</v>
+        <v>-42400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -4169,22 +4169,22 @@
         <v>1400</v>
       </c>
       <c r="E100" s="3">
-        <v>-258400</v>
+        <v>-258900</v>
       </c>
       <c r="F100" s="3">
-        <v>7136900</v>
+        <v>7152400</v>
       </c>
       <c r="G100" s="3">
-        <v>2184500</v>
+        <v>2189200</v>
       </c>
       <c r="H100" s="3">
-        <v>2389700</v>
+        <v>2394900</v>
       </c>
       <c r="I100" s="3">
-        <v>192700</v>
+        <v>193200</v>
       </c>
       <c r="J100" s="3">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4217,10 +4217,10 @@
         <v>-19300</v>
       </c>
       <c r="G101" s="3">
-        <v>62000</v>
+        <v>62200</v>
       </c>
       <c r="H101" s="3">
-        <v>75400</v>
+        <v>75500</v>
       </c>
       <c r="I101" s="3">
         <v>-6600</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3617600</v>
+        <v>3625500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1212400</v>
+        <v>-1215100</v>
       </c>
       <c r="F102" s="3">
-        <v>5717600</v>
+        <v>5730000</v>
       </c>
       <c r="G102" s="3">
-        <v>386600</v>
+        <v>387500</v>
       </c>
       <c r="H102" s="3">
-        <v>2495300</v>
+        <v>2500700</v>
       </c>
       <c r="I102" s="3">
-        <v>1530600</v>
+        <v>1534000</v>
       </c>
       <c r="J102" s="3">
-        <v>148700</v>
+        <v>149000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
